--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9535F1F0-6387-4B6F-9098-F4D2A55F12F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0EC67B-2089-495D-B905-F54665F77B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="490">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1492,6 +1492,9 @@
   </si>
   <si>
     <t>Eureka!, TLE</t>
+  </si>
+  <si>
+    <t>1 test case, needs optimization</t>
   </si>
 </sst>
 </file>
@@ -1751,9 +1754,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE2A51C"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFEA0000"/>
-      <color rgb="FFE2A51C"/>
       <color rgb="FF0066FF"/>
     </mruColors>
   </colors>
@@ -2068,7 +2071,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="B439" sqref="B439"/>
+      <selection activeCell="B442" sqref="B442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -6605,8 +6608,8 @@
       </c>
     </row>
     <row r="439" spans="1:3" ht="21">
-      <c r="A439" s="5" t="s">
-        <v>393</v>
+      <c r="A439" s="32" t="s">
+        <v>482</v>
       </c>
       <c r="B439" s="6" t="s">
         <v>422</v>
@@ -6616,18 +6619,18 @@
       </c>
     </row>
     <row r="440" spans="1:3" ht="21">
-      <c r="A440" s="5" t="s">
+      <c r="A440" s="17" t="s">
         <v>393</v>
       </c>
       <c r="B440" s="6" t="s">
         <v>423</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>4</v>
+        <v>489</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="21">
-      <c r="A441" s="5" t="s">
+      <c r="A441" s="17" t="s">
         <v>393</v>
       </c>
       <c r="B441" s="6" t="s">

--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0EC67B-2089-495D-B905-F54665F77B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1981C49-D76F-4E88-98CB-B09B7FAAADE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2070,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="B442" sqref="B442"/>
+    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="B443" sqref="B443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -6641,7 +6641,7 @@
       </c>
     </row>
     <row r="442" spans="1:3" ht="21">
-      <c r="A442" s="5" t="s">
+      <c r="A442" s="17" t="s">
         <v>393</v>
       </c>
       <c r="B442" s="6" t="s">
@@ -6652,8 +6652,8 @@
       </c>
     </row>
     <row r="443" spans="1:3" ht="21">
-      <c r="A443" s="5" t="s">
-        <v>393</v>
+      <c r="A443" s="17" t="s">
+        <v>482</v>
       </c>
       <c r="B443" s="6" t="s">
         <v>426</v>
@@ -6663,7 +6663,7 @@
       </c>
     </row>
     <row r="444" spans="1:3" ht="21">
-      <c r="A444" s="5" t="s">
+      <c r="A444" s="17" t="s">
         <v>393</v>
       </c>
       <c r="B444" s="6" t="s">

--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1981C49-D76F-4E88-98CB-B09B7FAAADE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B6DC7B-BA81-428C-9648-950DB920E407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2070,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="B443" sqref="B443"/>
+    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
+      <selection activeCell="A461" sqref="A461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>

--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B6DC7B-BA81-428C-9648-950DB920E407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367D62F0-1B31-4DCC-B7B7-0FD4A295BA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="492">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1495,6 +1495,12 @@
   </si>
   <si>
     <t>1 test case, needs optimization</t>
+  </si>
+  <si>
+    <t>1D dp</t>
+  </si>
+  <si>
+    <t>a[i] = -a[i]</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1743,6 +1749,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2070,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="A461" sqref="A461"/>
+    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
+      <selection activeCell="B447" sqref="B447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -6674,30 +6683,30 @@
       </c>
     </row>
     <row r="445" spans="1:3" ht="21">
-      <c r="A445" s="5" t="s">
+      <c r="A445" s="17" t="s">
         <v>393</v>
       </c>
       <c r="B445" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C445" s="4" t="s">
-        <v>4</v>
+      <c r="C445" s="33" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="21">
-      <c r="A446" s="5" t="s">
+      <c r="A446" s="17" t="s">
         <v>393</v>
       </c>
       <c r="B446" s="6" t="s">
         <v>429</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>4</v>
+        <v>490</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="21">
-      <c r="A447" s="5" t="s">
-        <v>393</v>
+      <c r="A447" s="17" t="s">
+        <v>482</v>
       </c>
       <c r="B447" s="6" t="s">
         <v>430</v>
@@ -6707,7 +6716,7 @@
       </c>
     </row>
     <row r="448" spans="1:3" ht="21">
-      <c r="A448" s="5" t="s">
+      <c r="A448" s="17" t="s">
         <v>393</v>
       </c>
       <c r="B448" s="6" t="s">
@@ -6718,13 +6727,13 @@
       </c>
     </row>
     <row r="449" spans="1:3" ht="21">
-      <c r="A449" s="5" t="s">
+      <c r="A449" s="17" t="s">
         <v>393</v>
       </c>
       <c r="B449" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C449" s="4" t="s">
+      <c r="C449" s="33" t="s">
         <v>4</v>
       </c>
     </row>

--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367D62F0-1B31-4DCC-B7B7-0FD4A295BA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8318B7-E92A-4BD5-9A0B-7044F16F71E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2079,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
-      <selection activeCell="B447" sqref="B447"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="A454" sqref="A454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -6738,7 +6738,7 @@
       </c>
     </row>
     <row r="450" spans="1:3" ht="21">
-      <c r="A450" s="5" t="s">
+      <c r="A450" s="17" t="s">
         <v>393</v>
       </c>
       <c r="B450" s="6" t="s">
@@ -6749,7 +6749,7 @@
       </c>
     </row>
     <row r="451" spans="1:3" ht="21">
-      <c r="A451" s="5" t="s">
+      <c r="A451" s="32" t="s">
         <v>393</v>
       </c>
       <c r="B451" s="6" t="s">
@@ -6760,7 +6760,7 @@
       </c>
     </row>
     <row r="452" spans="1:3" ht="21">
-      <c r="A452" s="5" t="s">
+      <c r="A452" s="32" t="s">
         <v>393</v>
       </c>
       <c r="B452" s="6" t="s">
@@ -6771,7 +6771,7 @@
       </c>
     </row>
     <row r="453" spans="1:3" ht="21">
-      <c r="A453" s="5" t="s">
+      <c r="A453" s="32" t="s">
         <v>393</v>
       </c>
       <c r="B453" s="6" t="s">
@@ -6782,7 +6782,7 @@
       </c>
     </row>
     <row r="454" spans="1:3" ht="21">
-      <c r="A454" s="5" t="s">
+      <c r="A454" s="32" t="s">
         <v>393</v>
       </c>
       <c r="B454" s="6" t="s">

--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8318B7-E92A-4BD5-9A0B-7044F16F71E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE5A45D-44AD-4561-85AF-753D19F33EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="493">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1501,6 +1501,9 @@
   </si>
   <si>
     <t>a[i] = -a[i]</t>
+  </si>
+  <si>
+    <t>IMP</t>
   </si>
 </sst>
 </file>
@@ -1765,8 +1768,8 @@
     <mruColors>
       <color rgb="FFE2A51C"/>
       <color rgb="FF0000FF"/>
+      <color rgb="FF0066FF"/>
       <color rgb="FFEA0000"/>
-      <color rgb="FF0066FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2079,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454"/>
+    <sheetView tabSelected="1" topLeftCell="A447" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A456" sqref="A456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -6793,7 +6796,7 @@
       </c>
     </row>
     <row r="455" spans="1:3" ht="21">
-      <c r="A455" s="5" t="s">
+      <c r="A455" s="17" t="s">
         <v>393</v>
       </c>
       <c r="B455" s="6" t="s">
@@ -6804,7 +6807,7 @@
       </c>
     </row>
     <row r="456" spans="1:3" ht="21">
-      <c r="A456" s="5" t="s">
+      <c r="A456" s="32" t="s">
         <v>393</v>
       </c>
       <c r="B456" s="6" t="s">
@@ -6815,18 +6818,18 @@
       </c>
     </row>
     <row r="457" spans="1:3" ht="21">
-      <c r="A457" s="5" t="s">
+      <c r="A457" s="31" t="s">
         <v>393</v>
       </c>
       <c r="B457" s="6" t="s">
         <v>440</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>4</v>
+        <v>476</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="21">
-      <c r="A458" s="5" t="s">
+      <c r="A458" s="17" t="s">
         <v>393</v>
       </c>
       <c r="B458" s="6" t="s">
@@ -6837,14 +6840,14 @@
       </c>
     </row>
     <row r="459" spans="1:3" ht="21">
-      <c r="A459" s="5" t="s">
+      <c r="A459" s="17" t="s">
         <v>393</v>
       </c>
       <c r="B459" s="6" t="s">
         <v>442</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>4</v>
+        <v>492</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="21">

--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE5A45D-44AD-4561-85AF-753D19F33EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F9FFC4-FA6B-4057-A258-B47E15B1CC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="495">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1504,6 +1504,12 @@
   </si>
   <si>
     <t>IMP</t>
+  </si>
+  <si>
+    <t>LPSubStr, MCM</t>
+  </si>
+  <si>
+    <t>Largest Subarray with sum = k</t>
   </si>
 </sst>
 </file>
@@ -1766,8 +1772,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFE2A51C"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF0066FF"/>
       <color rgb="FFEA0000"/>
     </mruColors>
@@ -2082,8 +2088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A447" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A456" sqref="A456"/>
+    <sheetView tabSelected="1" topLeftCell="A454" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C469" sqref="C469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -2252,7 +2258,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -6555,13 +6561,13 @@
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="17" t="s">
-        <v>393</v>
+        <v>482</v>
       </c>
       <c r="B433" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C433" s="4" t="s">
-        <v>4</v>
+      <c r="C433" s="4">
+        <v>469</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="21">
@@ -6851,19 +6857,19 @@
       </c>
     </row>
     <row r="460" spans="1:3" ht="21">
-      <c r="A460" s="5" t="s">
+      <c r="A460" s="17" t="s">
         <v>393</v>
       </c>
       <c r="B460" s="6" t="s">
         <v>443</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>4</v>
+        <v>493</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="21">
-      <c r="A461" s="5" t="s">
-        <v>393</v>
+      <c r="A461" s="17" t="s">
+        <v>482</v>
       </c>
       <c r="B461" s="6" t="s">
         <v>444</v>
@@ -6873,7 +6879,7 @@
       </c>
     </row>
     <row r="462" spans="1:3" ht="21">
-      <c r="A462" s="5" t="s">
+      <c r="A462" s="17" t="s">
         <v>393</v>
       </c>
       <c r="B462" s="6" t="s">
@@ -6884,8 +6890,8 @@
       </c>
     </row>
     <row r="463" spans="1:3" ht="21">
-      <c r="A463" s="5" t="s">
-        <v>393</v>
+      <c r="A463" s="17" t="s">
+        <v>482</v>
       </c>
       <c r="B463" s="6" t="s">
         <v>446</v>
@@ -6895,18 +6901,18 @@
       </c>
     </row>
     <row r="464" spans="1:3" ht="21">
-      <c r="A464" s="5" t="s">
-        <v>393</v>
+      <c r="A464" s="17" t="s">
+        <v>482</v>
       </c>
       <c r="B464" s="6" t="s">
         <v>447</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>4</v>
+        <v>494</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="21">
-      <c r="A465" s="5" t="s">
+      <c r="A465" s="17" t="s">
         <v>393</v>
       </c>
       <c r="B465" s="6" t="s">
@@ -6917,19 +6923,19 @@
       </c>
     </row>
     <row r="466" spans="1:3" ht="21">
-      <c r="A466" s="5" t="s">
+      <c r="A466" s="31" t="s">
         <v>393</v>
       </c>
       <c r="B466" s="6" t="s">
         <v>449</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>4</v>
+        <v>487</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="21">
-      <c r="A467" s="5" t="s">
-        <v>393</v>
+      <c r="A467" s="31" t="s">
+        <v>482</v>
       </c>
       <c r="B467" s="6" t="s">
         <v>450</v>
@@ -6939,7 +6945,7 @@
       </c>
     </row>
     <row r="468" spans="1:3" ht="21">
-      <c r="A468" s="5" t="s">
+      <c r="A468" s="17" t="s">
         <v>393</v>
       </c>
       <c r="B468" s="6" t="s">
@@ -6950,14 +6956,14 @@
       </c>
     </row>
     <row r="469" spans="1:3" ht="21">
-      <c r="A469" s="5" t="s">
-        <v>393</v>
+      <c r="A469" s="17" t="s">
+        <v>482</v>
       </c>
       <c r="B469" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C469" s="4" t="s">
-        <v>4</v>
+      <c r="C469" s="4">
+        <v>433</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="21">

--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F9FFC4-FA6B-4057-A258-B47E15B1CC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCAA03D-CB34-43E3-9BDA-867914EBCC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="514">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1510,13 +1510,96 @@
   </si>
   <si>
     <t>Largest Subarray with sum = k</t>
+  </si>
+  <si>
+    <t>Mics.</t>
+  </si>
+  <si>
+    <t>Cyber-Café</t>
+  </si>
+  <si>
+    <t>Minimum halls required for class scheduling</t>
+  </si>
+  <si>
+    <t>Minimum Platforms</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>Digit multiplier</t>
+  </si>
+  <si>
+    <t>Make all strings from a given array equal by replacing minimum number of characters</t>
+  </si>
+  <si>
+    <t>The Football League</t>
+  </si>
+  <si>
+    <t>Spirally traversing a matrix</t>
+  </si>
+  <si>
+    <t>Rotate by 90 degree</t>
+  </si>
+  <si>
+    <t>Weighted Maze</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>TCS*</t>
+  </si>
+  <si>
+    <t>Minimum Operations to Make Array Equal</t>
+  </si>
+  <si>
+    <t>Minimum operations to make strings equal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">433, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>238</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">469, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>238</t>
+    </r>
+  </si>
+  <si>
+    <t>TLE, Mathematics, 51</t>
+  </si>
+  <si>
+    <t>O(n)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1586,6 +1669,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1650,18 +1741,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
+        <fgColor rgb="FF6BFF29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2A51C"/>
+        <fgColor rgb="FF0066FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1669,12 +1760,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1754,13 +1860,31 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1772,9 +1896,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0066FF"/>
       <color rgb="FF0000FF"/>
+      <color rgb="FF6BFF29"/>
+      <color rgb="FF66FF66"/>
+      <color rgb="FFFFC000"/>
       <color rgb="FFE2A51C"/>
-      <color rgb="FF0066FF"/>
       <color rgb="FFEA0000"/>
     </mruColors>
   </colors>
@@ -2086,10 +2213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:C496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A454" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C469" sqref="C469"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -2258,7 +2385,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -2523,8 +2650,8 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="8" t="s">
-        <v>42</v>
+      <c r="A44" s="36" t="s">
+        <v>467</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>43</v>
@@ -4507,7 +4634,7 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="5" t="s">
+      <c r="A238" s="39" t="s">
         <v>230</v>
       </c>
       <c r="B238" s="6" t="s">
@@ -5289,7 +5416,7 @@
       </c>
     </row>
     <row r="312" spans="1:3" ht="21">
-      <c r="A312" s="5" t="s">
+      <c r="A312" s="39" t="s">
         <v>285</v>
       </c>
       <c r="B312" s="6" t="s">
@@ -6472,7 +6599,7 @@
       </c>
     </row>
     <row r="425" spans="1:3" ht="21">
-      <c r="A425" s="31" t="s">
+      <c r="A425" s="39" t="s">
         <v>393</v>
       </c>
       <c r="B425" s="6" t="s">
@@ -6538,7 +6665,7 @@
       </c>
     </row>
     <row r="431" spans="1:3" ht="21">
-      <c r="A431" s="32" t="s">
+      <c r="A431" s="16" t="s">
         <v>482</v>
       </c>
       <c r="B431" s="6" t="s">
@@ -6549,7 +6676,7 @@
       </c>
     </row>
     <row r="432" spans="1:3" ht="21">
-      <c r="A432" s="31" t="s">
+      <c r="A432" s="39" t="s">
         <v>393</v>
       </c>
       <c r="B432" s="6" t="s">
@@ -6566,8 +6693,8 @@
       <c r="B433" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C433" s="4">
-        <v>469</v>
+      <c r="C433" s="4" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="21">
@@ -6626,7 +6753,7 @@
       </c>
     </row>
     <row r="439" spans="1:3" ht="21">
-      <c r="A439" s="32" t="s">
+      <c r="A439" s="16" t="s">
         <v>482</v>
       </c>
       <c r="B439" s="6" t="s">
@@ -6698,7 +6825,7 @@
       <c r="B445" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C445" s="33" t="s">
+      <c r="C445" s="31" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6742,7 +6869,7 @@
       <c r="B449" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C449" s="33" t="s">
+      <c r="C449" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6758,7 +6885,7 @@
       </c>
     </row>
     <row r="451" spans="1:3" ht="21">
-      <c r="A451" s="32" t="s">
+      <c r="A451" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B451" s="6" t="s">
@@ -6769,7 +6896,7 @@
       </c>
     </row>
     <row r="452" spans="1:3" ht="21">
-      <c r="A452" s="32" t="s">
+      <c r="A452" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B452" s="6" t="s">
@@ -6780,7 +6907,7 @@
       </c>
     </row>
     <row r="453" spans="1:3" ht="21">
-      <c r="A453" s="32" t="s">
+      <c r="A453" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B453" s="6" t="s">
@@ -6791,7 +6918,7 @@
       </c>
     </row>
     <row r="454" spans="1:3" ht="21">
-      <c r="A454" s="32" t="s">
+      <c r="A454" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B454" s="6" t="s">
@@ -6813,7 +6940,7 @@
       </c>
     </row>
     <row r="456" spans="1:3" ht="21">
-      <c r="A456" s="32" t="s">
+      <c r="A456" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B456" s="6" t="s">
@@ -6824,7 +6951,7 @@
       </c>
     </row>
     <row r="457" spans="1:3" ht="21">
-      <c r="A457" s="31" t="s">
+      <c r="A457" s="39" t="s">
         <v>393</v>
       </c>
       <c r="B457" s="6" t="s">
@@ -6923,7 +7050,7 @@
       </c>
     </row>
     <row r="466" spans="1:3" ht="21">
-      <c r="A466" s="31" t="s">
+      <c r="A466" s="39" t="s">
         <v>393</v>
       </c>
       <c r="B466" s="6" t="s">
@@ -6934,7 +7061,7 @@
       </c>
     </row>
     <row r="467" spans="1:3" ht="21">
-      <c r="A467" s="31" t="s">
+      <c r="A467" s="39" t="s">
         <v>482</v>
       </c>
       <c r="B467" s="6" t="s">
@@ -6962,8 +7089,8 @@
       <c r="B469" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C469" s="4">
-        <v>433</v>
+      <c r="C469" s="4" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="21">
@@ -7082,6 +7209,149 @@
         <v>463</v>
       </c>
       <c r="C481" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="21">
+      <c r="A484" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="B484" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C484" s="38" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" ht="21">
+      <c r="A485" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="B485" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C485" s="38" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" ht="21.6" thickBot="1">
+      <c r="A486" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="B486" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C486" s="38" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" ht="21.6" thickBot="1">
+      <c r="A487" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="B487" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="C487" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" ht="21.6" thickBot="1">
+      <c r="A488" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="B488" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="C488" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" ht="21.6" thickBot="1">
+      <c r="A489" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="B489" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="C489" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" ht="21.6" thickBot="1">
+      <c r="A490" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="B490" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C490" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" ht="21.6" thickBot="1">
+      <c r="A491" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="B491" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C491" s="33">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" ht="21.6" thickBot="1">
+      <c r="A492" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="B492" s="32" t="s">
+        <v>504</v>
+      </c>
+      <c r="C492" s="33" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" ht="21.6" thickBot="1">
+      <c r="A493" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="B493" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="C493" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" ht="21.6" thickBot="1">
+      <c r="A494" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="B494" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="C494" s="33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" ht="21">
+      <c r="A495" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B495" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C495" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" ht="21">
+      <c r="A496" s="34" t="s">
+        <v>495</v>
+      </c>
+      <c r="B496" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C496" s="35" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7533,8 +7803,21 @@
     <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
     <hyperlink ref="B356" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="B484" r:id="rId447" display="Cyber-Cafe" xr:uid="{6B3413E7-2E98-4F57-BFA5-BC021A63554E}"/>
+    <hyperlink ref="B485" r:id="rId448" xr:uid="{E3BD3AF7-A214-4CB3-AD89-9DA39A7907A6}"/>
+    <hyperlink ref="B486" r:id="rId449" xr:uid="{635060AE-A4B5-486D-9896-AADF6B21C353}"/>
+    <hyperlink ref="B487" r:id="rId450" xr:uid="{F206BE76-8B8C-473F-8FED-3C674357D63D}"/>
+    <hyperlink ref="B494" r:id="rId451" xr:uid="{875E80AB-6EB7-439A-998F-12A747496EDA}"/>
+    <hyperlink ref="B493" r:id="rId452" display="https://www.facebook.com/prepinsta/posts/tcs-digital-advanced-coding-code-please-comment-your-answers-in-c-c-java-python-/436522896862705/" xr:uid="{C556C222-1B61-483F-9A40-441713E1D507}"/>
+    <hyperlink ref="B492" r:id="rId453" xr:uid="{F54A5F29-3A4E-4E04-90F5-967C2F1E7A1A}"/>
+    <hyperlink ref="B491" r:id="rId454" xr:uid="{B3803C1F-937E-47C4-BD2B-DBC16F892CB5}"/>
+    <hyperlink ref="B490" r:id="rId455" display="https://practice.geeksforgeeks.org/problems/water-connection-problem5822/1" xr:uid="{BB0E6BBC-FFB9-4D82-9774-79EB9EBAF966}"/>
+    <hyperlink ref="B488" r:id="rId456" xr:uid="{AE2B9C1A-0EE8-49D6-8B44-ECF5F63A2946}"/>
+    <hyperlink ref="B489" r:id="rId457" xr:uid="{F0A21AC6-B1DE-4382-BCE4-47A70EA7E4FF}"/>
+    <hyperlink ref="B495" r:id="rId458" xr:uid="{8533658C-8924-4D84-9B5E-7A7A3C148DE1}"/>
+    <hyperlink ref="B496" r:id="rId459" xr:uid="{750C7CA2-4514-480B-B1E7-F9A61B60DEF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId447"/>
+  <pageSetup orientation="portrait" r:id="rId460"/>
 </worksheet>
 </file>
--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCAA03D-CB34-43E3-9BDA-867914EBCC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EDD1B6-4545-4A63-BEE5-ED4C92521E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="515">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1593,6 +1593,9 @@
   </si>
   <si>
     <t>O(n)</t>
+  </si>
+  <si>
+    <t>Binary Trees*</t>
   </si>
 </sst>
 </file>
@@ -2215,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -4077,7 +4080,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" ht="21">
-      <c r="A185" s="5" t="s">
+      <c r="A185" s="17" t="s">
         <v>171</v>
       </c>
       <c r="B185" s="6" t="s">
@@ -4088,7 +4091,7 @@
       </c>
     </row>
     <row r="186" spans="1:3" ht="21">
-      <c r="A186" s="5" t="s">
+      <c r="A186" s="17" t="s">
         <v>171</v>
       </c>
       <c r="B186" s="6" t="s">
@@ -4099,8 +4102,8 @@
       </c>
     </row>
     <row r="187" spans="1:3" ht="21">
-      <c r="A187" s="5" t="s">
-        <v>171</v>
+      <c r="A187" s="17" t="s">
+        <v>514</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>182</v>
@@ -4110,8 +4113,8 @@
       </c>
     </row>
     <row r="188" spans="1:3" ht="21">
-      <c r="A188" s="5" t="s">
-        <v>171</v>
+      <c r="A188" s="17" t="s">
+        <v>514</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>183</v>
@@ -4121,7 +4124,7 @@
       </c>
     </row>
     <row r="189" spans="1:3" ht="21">
-      <c r="A189" s="5" t="s">
+      <c r="A189" s="17" t="s">
         <v>171</v>
       </c>
       <c r="B189" s="6" t="s">

--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EDD1B6-4545-4A63-BEE5-ED4C92521E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECEB1C2-8FFA-4528-96EF-EDF10D92DD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="518">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1557,38 +1557,6 @@
     <t>Minimum operations to make strings equal</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">433, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>238</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">469, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>238</t>
-    </r>
-  </si>
-  <si>
     <t>TLE, Mathematics, 51</t>
   </si>
   <si>
@@ -1596,13 +1564,28 @@
   </si>
   <si>
     <t>Binary Trees*</t>
+  </si>
+  <si>
+    <t>Ways to fill N positions using M colors such that there are exactly K pairs of adjacent different colors</t>
+  </si>
+  <si>
+    <t>Min cost for Racecar to finish by stoping or skipping at a halt, also maximum 2 consecutive skips allowed</t>
+  </si>
+  <si>
+    <t>469, 238</t>
+  </si>
+  <si>
+    <t>433, 238</t>
+  </si>
+  <si>
+    <t>O(n), Pass by Reference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1672,16 +1655,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1754,6 +1729,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1783,7 +1764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1890,6 +1871,21 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1899,13 +1895,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC000"/>
+      <color rgb="FFEA0000"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FF0066FF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF6BFF29"/>
       <color rgb="FF66FF66"/>
-      <color rgb="FFFFC000"/>
       <color rgb="FFE2A51C"/>
-      <color rgb="FFEA0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2216,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C496"/>
+  <dimension ref="A1:C498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -4103,7 +4099,7 @@
     </row>
     <row r="187" spans="1:3" ht="21">
       <c r="A187" s="17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>182</v>
@@ -4114,7 +4110,7 @@
     </row>
     <row r="188" spans="1:3" ht="21">
       <c r="A188" s="17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>183</v>
@@ -4135,18 +4131,18 @@
       </c>
     </row>
     <row r="190" spans="1:3" ht="21">
-      <c r="A190" s="5" t="s">
+      <c r="A190" s="43" t="s">
         <v>171</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C190" s="4" t="s">
-        <v>4</v>
+      <c r="C190" s="44" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="21">
-      <c r="A191" s="5" t="s">
+      <c r="A191" s="17" t="s">
         <v>171</v>
       </c>
       <c r="B191" s="6" t="s">
@@ -4157,7 +4153,7 @@
       </c>
     </row>
     <row r="192" spans="1:3" ht="21">
-      <c r="A192" s="5" t="s">
+      <c r="A192" s="16" t="s">
         <v>171</v>
       </c>
       <c r="B192" s="6" t="s">
@@ -4168,8 +4164,8 @@
       </c>
     </row>
     <row r="193" spans="1:3" ht="21">
-      <c r="A193" s="5" t="s">
-        <v>171</v>
+      <c r="A193" s="16" t="s">
+        <v>512</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>188</v>
@@ -4179,7 +4175,7 @@
       </c>
     </row>
     <row r="194" spans="1:3" ht="21">
-      <c r="A194" s="5" t="s">
+      <c r="A194" s="17" t="s">
         <v>171</v>
       </c>
       <c r="B194" s="6" t="s">
@@ -4190,7 +4186,7 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="21">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="17" t="s">
         <v>171</v>
       </c>
       <c r="B195" s="6" t="s">
@@ -4201,7 +4197,7 @@
       </c>
     </row>
     <row r="196" spans="1:3" ht="21">
-      <c r="A196" s="5" t="s">
+      <c r="A196" s="17" t="s">
         <v>171</v>
       </c>
       <c r="B196" s="6" t="s">
@@ -6696,8 +6692,8 @@
       <c r="B433" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C433" s="4" t="s">
-        <v>511</v>
+      <c r="C433" s="42" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="21">
@@ -7092,8 +7088,8 @@
       <c r="B469" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C469" s="4" t="s">
-        <v>510</v>
+      <c r="C469" s="42" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="21">
@@ -7223,7 +7219,7 @@
         <v>496</v>
       </c>
       <c r="C484" s="38" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="21">
@@ -7234,7 +7230,7 @@
         <v>497</v>
       </c>
       <c r="C485" s="38" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="21.6" thickBot="1">
@@ -7245,7 +7241,7 @@
         <v>498</v>
       </c>
       <c r="C486" s="38" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="21.6" thickBot="1">
@@ -7310,8 +7306,8 @@
       <c r="B492" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="C492" s="33" t="s">
-        <v>512</v>
+      <c r="C492" s="41" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="21.6" thickBot="1">
@@ -7337,24 +7333,46 @@
       </c>
     </row>
     <row r="495" spans="1:3" ht="21">
-      <c r="A495" s="8" t="s">
+      <c r="A495" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="B495" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="C495" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" ht="21">
+      <c r="A496" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="B496" s="40" t="s">
+        <v>514</v>
+      </c>
+      <c r="C496" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" ht="21">
+      <c r="A497" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="B495" s="6" t="s">
+      <c r="B497" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C495" s="33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" ht="21">
-      <c r="A496" s="34" t="s">
+      <c r="C497" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" ht="21">
+      <c r="A498" s="34" t="s">
         <v>495</v>
       </c>
-      <c r="B496" s="6" t="s">
+      <c r="B498" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="C496" s="35" t="s">
+      <c r="C498" s="35" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7403,424 +7421,429 @@
     <hyperlink ref="B48" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
     <hyperlink ref="B49" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
     <hyperlink ref="B50" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="B51" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="B52" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="B53" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="B56" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="B57" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="B58" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="B60" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="B61" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="B62" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="B63" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="B64" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="B65" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="B66" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="B67" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="B68" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="B69" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="B70" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="B71" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="B72" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="B73" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="B74" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="B75" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="B76" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="B77" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="B78" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="B79" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="B80" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="B81" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="B82" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="B83" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="B84" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="B85" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="B86" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="B87" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="B88" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="B89" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="B90" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="B91" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="B92" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="B93" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="B94" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="B95" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="B96" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="B97" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="B98" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="B101" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="B102" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="B103" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="B104" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="B106" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="B107" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="B108" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="B109" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="B110" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="B111" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="B113" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="B114" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="B115" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="B116" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="B117" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="B118" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="B119" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="B120" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="B121" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="B122" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="B123" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="B124" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="B125" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="B126" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="B127" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="B128" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="B129" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="B130" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="B131" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="B132" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="B133" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="B134" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="B135" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="B136" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="B105" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="B112" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="B139" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="B140" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="B141" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="B142" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="B143" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="B144" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="B145" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="B146" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="B147" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="B148" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="B149" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="B150" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="B151" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="B152" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="B153" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="B154" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="B155" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B156" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="B157" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="B158" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="B159" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="B160" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="B161" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="B162" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B163" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B166" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B167" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B168" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B169" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B170" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B171" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B172" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B173" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B174" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B177" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B178" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B179" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B180" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B181" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B182" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B183" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B184" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B185" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B186" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B187" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B188" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B189" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B190" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B191" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B192" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B193" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B194" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B195" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B196" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B198" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B199" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B200" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B201" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B202" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B204" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B205" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B206" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B207" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B208" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B209" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B210" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B211" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B214" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B215" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B216" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B217" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B218" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B219" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B220" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B221" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B222" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B223" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B224" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B225" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B226" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B227" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B228" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B229" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B230" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B231" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B232" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B233" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B234" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B235" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B238" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B239" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B240" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B241" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B242" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B243" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B244" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B245" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B246" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B247" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B248" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B249" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B250" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B251" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B252" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B253" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B254" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B255" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B256" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B258" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B259" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B260" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B261" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B262" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B263" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B264" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B265" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B266" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B267" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B268" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B269" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B270" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B271" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B272" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B275" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B276" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B277" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B278" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B279" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B280" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B281" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B282" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B283" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B284" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B285" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B286" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B287" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B288" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B289" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B290" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B291" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B292" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B293" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B296" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B297" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B298" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B299" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B300" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B301" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B302" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B303" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B304" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B305" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B307" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B308" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B309" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B310" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B311" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B312" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B313" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B314" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B315" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B316" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B317" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B318" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B319" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B320" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B321" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B322" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B323" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B324" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B325" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B326" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B327" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B328" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B329" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B330" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B331" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B332" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B333" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B336" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B337" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B338" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B339" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B340" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B341" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B342" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B343" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B344" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B345" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B346" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B347" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B348" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B349" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B350" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B351" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B352" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B353" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B357" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B358" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B359" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B360" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B361" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B362" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B363" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B364" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B365" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B366" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B367" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B372" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B373" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B374" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B375" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B376" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B377" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B378" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B380" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B381" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B382" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B383" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B384" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B385" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B386" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B387" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B388" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B389" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B390" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B391" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B392" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B393" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B394" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B396" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B397" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B398" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B399" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B402" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B403" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B404" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B405" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B406" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B407" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B410" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B411" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B412" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B413" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B414" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B415" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B416" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B417" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B418" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B419" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B420" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B421" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B422" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B423" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B424" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B425" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B426" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B427" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B428" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B429" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B430" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B431" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B432" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B433" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B434" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B435" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B436" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B437" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B438" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B439" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B440" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B441" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B442" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B443" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B444" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B445" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B446" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B447" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B448" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B449" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B451" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B450" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B452" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B453" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B454" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B455" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B456" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B457" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B458" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B459" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B460" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B461" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B462" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B469" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B468" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B467" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B466" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B465" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B464" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B463" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B472" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B473" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B474" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B475" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B476" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B477" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B478" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B481" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B479" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B356" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
-    <hyperlink ref="B484" r:id="rId447" display="Cyber-Cafe" xr:uid="{6B3413E7-2E98-4F57-BFA5-BC021A63554E}"/>
-    <hyperlink ref="B485" r:id="rId448" xr:uid="{E3BD3AF7-A214-4CB3-AD89-9DA39A7907A6}"/>
-    <hyperlink ref="B486" r:id="rId449" xr:uid="{635060AE-A4B5-486D-9896-AADF6B21C353}"/>
-    <hyperlink ref="B487" r:id="rId450" xr:uid="{F206BE76-8B8C-473F-8FED-3C674357D63D}"/>
-    <hyperlink ref="B494" r:id="rId451" xr:uid="{875E80AB-6EB7-439A-998F-12A747496EDA}"/>
-    <hyperlink ref="B493" r:id="rId452" display="https://www.facebook.com/prepinsta/posts/tcs-digital-advanced-coding-code-please-comment-your-answers-in-c-c-java-python-/436522896862705/" xr:uid="{C556C222-1B61-483F-9A40-441713E1D507}"/>
-    <hyperlink ref="B492" r:id="rId453" xr:uid="{F54A5F29-3A4E-4E04-90F5-967C2F1E7A1A}"/>
-    <hyperlink ref="B491" r:id="rId454" xr:uid="{B3803C1F-937E-47C4-BD2B-DBC16F892CB5}"/>
-    <hyperlink ref="B490" r:id="rId455" display="https://practice.geeksforgeeks.org/problems/water-connection-problem5822/1" xr:uid="{BB0E6BBC-FFB9-4D82-9774-79EB9EBAF966}"/>
-    <hyperlink ref="B488" r:id="rId456" xr:uid="{AE2B9C1A-0EE8-49D6-8B44-ECF5F63A2946}"/>
-    <hyperlink ref="B489" r:id="rId457" xr:uid="{F0A21AC6-B1DE-4382-BCE4-47A70EA7E4FF}"/>
-    <hyperlink ref="B495" r:id="rId458" xr:uid="{8533658C-8924-4D84-9B5E-7A7A3C148DE1}"/>
-    <hyperlink ref="B496" r:id="rId459" xr:uid="{750C7CA2-4514-480B-B1E7-F9A61B60DEF3}"/>
+    <hyperlink ref="B52" r:id="rId44" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="B53" r:id="rId45" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="B56" r:id="rId46" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="B57" r:id="rId47" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="B58" r:id="rId48" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="B60" r:id="rId49" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="B61" r:id="rId50" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="B62" r:id="rId51" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="B63" r:id="rId52" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="B64" r:id="rId53" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="B65" r:id="rId54" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="B66" r:id="rId55" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="B67" r:id="rId56" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="B68" r:id="rId57" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="B69" r:id="rId58" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="B70" r:id="rId59" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="B71" r:id="rId60" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="B72" r:id="rId61" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="B73" r:id="rId62" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="B74" r:id="rId63" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="B75" r:id="rId64" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="B76" r:id="rId65" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="B77" r:id="rId66" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="B78" r:id="rId67" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="B79" r:id="rId68" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="B80" r:id="rId69" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="B81" r:id="rId70" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="B82" r:id="rId71" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="B83" r:id="rId72" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="B84" r:id="rId73" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="B85" r:id="rId74" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="B86" r:id="rId75" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="B87" r:id="rId76" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="B88" r:id="rId77" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="B89" r:id="rId78" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="B90" r:id="rId79" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="B91" r:id="rId80" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="B92" r:id="rId81" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="B93" r:id="rId82" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="B94" r:id="rId83" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="B95" r:id="rId84" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="B96" r:id="rId85" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="B97" r:id="rId86" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="B98" r:id="rId87" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="B101" r:id="rId88" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="B102" r:id="rId89" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="B103" r:id="rId90" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="B104" r:id="rId91" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="B106" r:id="rId92" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="B107" r:id="rId93" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="B108" r:id="rId94" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="B109" r:id="rId95" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="B110" r:id="rId96" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="B111" r:id="rId97" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="B113" r:id="rId98" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="B114" r:id="rId99" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="B115" r:id="rId100" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="B116" r:id="rId101" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="B117" r:id="rId102" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="B118" r:id="rId103" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="B119" r:id="rId104" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="B120" r:id="rId105" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="B121" r:id="rId106" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="B122" r:id="rId107" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="B123" r:id="rId108" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="B124" r:id="rId109" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="B125" r:id="rId110" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="B126" r:id="rId111" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="B127" r:id="rId112" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="B128" r:id="rId113" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="B129" r:id="rId114" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="B130" r:id="rId115" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="B131" r:id="rId116" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="B132" r:id="rId117" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="B133" r:id="rId118" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="B134" r:id="rId119" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="B135" r:id="rId120" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="B136" r:id="rId121" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="B105" r:id="rId122" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="B112" r:id="rId123" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="B139" r:id="rId124" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="B140" r:id="rId125" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="B141" r:id="rId126" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="B142" r:id="rId127" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="B143" r:id="rId128" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="B144" r:id="rId129" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="B145" r:id="rId130" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="B146" r:id="rId131" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="B147" r:id="rId132" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="B148" r:id="rId133" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="B149" r:id="rId134" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="B150" r:id="rId135" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="B151" r:id="rId136" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="B152" r:id="rId137" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="B153" r:id="rId138" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="B154" r:id="rId139" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="B155" r:id="rId140" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="B156" r:id="rId141" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="B157" r:id="rId142" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="B158" r:id="rId143" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="B159" r:id="rId144" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="B160" r:id="rId145" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="B161" r:id="rId146" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="B162" r:id="rId147" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="B163" r:id="rId148" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="B166" r:id="rId149" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B167" r:id="rId150" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B168" r:id="rId151" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="B169" r:id="rId152" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="B170" r:id="rId153" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B171" r:id="rId154" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="B172" r:id="rId155" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="B173" r:id="rId156" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="B174" r:id="rId157" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="B177" r:id="rId158" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B178" r:id="rId159" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B179" r:id="rId160" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B180" r:id="rId161" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B181" r:id="rId162" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B182" r:id="rId163" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B183" r:id="rId164" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B184" r:id="rId165" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B185" r:id="rId166" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B186" r:id="rId167" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B187" r:id="rId168" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B188" r:id="rId169" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B189" r:id="rId170" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B190" r:id="rId171" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B191" r:id="rId172" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B192" r:id="rId173" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B193" r:id="rId174" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B194" r:id="rId175" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B195" r:id="rId176" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B196" r:id="rId177" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B197" r:id="rId178" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B198" r:id="rId179" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B199" r:id="rId180" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B200" r:id="rId181" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B201" r:id="rId182" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B202" r:id="rId183" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B203" r:id="rId184" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B204" r:id="rId185" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B205" r:id="rId186" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B206" r:id="rId187" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B207" r:id="rId188" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B208" r:id="rId189" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B209" r:id="rId190" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B210" r:id="rId191" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B211" r:id="rId192" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B214" r:id="rId193" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B215" r:id="rId194" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B216" r:id="rId195" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B217" r:id="rId196" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B218" r:id="rId197" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B219" r:id="rId198" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B220" r:id="rId199" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B221" r:id="rId200" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B222" r:id="rId201" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B223" r:id="rId202" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B224" r:id="rId203" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B225" r:id="rId204" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B226" r:id="rId205" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B227" r:id="rId206" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B228" r:id="rId207" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B229" r:id="rId208" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B230" r:id="rId209" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B231" r:id="rId210" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B232" r:id="rId211" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B233" r:id="rId212" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B234" r:id="rId213" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B235" r:id="rId214" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B238" r:id="rId215" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B239" r:id="rId216" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B240" r:id="rId217" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B241" r:id="rId218" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B242" r:id="rId219" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B243" r:id="rId220" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B244" r:id="rId221" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B245" r:id="rId222" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B246" r:id="rId223" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B247" r:id="rId224" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B248" r:id="rId225" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B249" r:id="rId226" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B250" r:id="rId227" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B251" r:id="rId228" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B252" r:id="rId229" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B253" r:id="rId230" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B254" r:id="rId231" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B255" r:id="rId232" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B256" r:id="rId233" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B257" r:id="rId234" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B258" r:id="rId235" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B259" r:id="rId236" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B260" r:id="rId237" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B261" r:id="rId238" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B262" r:id="rId239" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B263" r:id="rId240" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B264" r:id="rId241" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B265" r:id="rId242" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B266" r:id="rId243" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B267" r:id="rId244" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B268" r:id="rId245" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B269" r:id="rId246" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B270" r:id="rId247" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B271" r:id="rId248" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B272" r:id="rId249" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B275" r:id="rId250" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B276" r:id="rId251" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B277" r:id="rId252" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B278" r:id="rId253" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B279" r:id="rId254" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B280" r:id="rId255" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B281" r:id="rId256" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B282" r:id="rId257" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B283" r:id="rId258" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B284" r:id="rId259" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B285" r:id="rId260" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B286" r:id="rId261" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B287" r:id="rId262" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B288" r:id="rId263" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B289" r:id="rId264" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B290" r:id="rId265" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B291" r:id="rId266" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B292" r:id="rId267" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B293" r:id="rId268" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B296" r:id="rId269" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B297" r:id="rId270" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B298" r:id="rId271" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B299" r:id="rId272" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B300" r:id="rId273" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B301" r:id="rId274" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B302" r:id="rId275" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B303" r:id="rId276" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B304" r:id="rId277" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B305" r:id="rId278" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B306" r:id="rId279" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B307" r:id="rId280" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B308" r:id="rId281" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B309" r:id="rId282" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B310" r:id="rId283" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B311" r:id="rId284" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B312" r:id="rId285" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B313" r:id="rId286" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B314" r:id="rId287" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B315" r:id="rId288" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B316" r:id="rId289" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B317" r:id="rId290" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B318" r:id="rId291" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B319" r:id="rId292" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B320" r:id="rId293" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B321" r:id="rId294" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B322" r:id="rId295" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B323" r:id="rId296" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B324" r:id="rId297" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B325" r:id="rId298" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B326" r:id="rId299" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B327" r:id="rId300" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B328" r:id="rId301" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B329" r:id="rId302" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B330" r:id="rId303" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B331" r:id="rId304" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B332" r:id="rId305" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B333" r:id="rId306" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B336" r:id="rId307" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B337" r:id="rId308" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B338" r:id="rId309" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B339" r:id="rId310" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B340" r:id="rId311" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B341" r:id="rId312" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B342" r:id="rId313" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B343" r:id="rId314" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B344" r:id="rId315" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B345" r:id="rId316" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B346" r:id="rId317" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B347" r:id="rId318" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B348" r:id="rId319" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B349" r:id="rId320" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B350" r:id="rId321" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B351" r:id="rId322" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B352" r:id="rId323" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B353" r:id="rId324" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B357" r:id="rId325" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B358" r:id="rId326" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B359" r:id="rId327" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B360" r:id="rId328" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B361" r:id="rId329" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B362" r:id="rId330" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B363" r:id="rId331" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B364" r:id="rId332" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B365" r:id="rId333" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B366" r:id="rId334" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B367" r:id="rId335" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B368" r:id="rId336" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B369" r:id="rId337" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B370" r:id="rId338" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B371" r:id="rId339" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B372" r:id="rId340" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B373" r:id="rId341" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B374" r:id="rId342" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B375" r:id="rId343" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B376" r:id="rId344" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B377" r:id="rId345" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B378" r:id="rId346" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B379" r:id="rId347" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B380" r:id="rId348" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B381" r:id="rId349" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B382" r:id="rId350" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B383" r:id="rId351" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B384" r:id="rId352" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B385" r:id="rId353" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B386" r:id="rId354" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B387" r:id="rId355" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B388" r:id="rId356" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B389" r:id="rId357" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B390" r:id="rId358" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B391" r:id="rId359" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B392" r:id="rId360" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B393" r:id="rId361" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B394" r:id="rId362" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B396" r:id="rId363" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B395" r:id="rId364" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B397" r:id="rId365" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B398" r:id="rId366" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B399" r:id="rId367" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B402" r:id="rId368" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B403" r:id="rId369" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B404" r:id="rId370" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B405" r:id="rId371" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B406" r:id="rId372" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B407" r:id="rId373" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B410" r:id="rId374" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B411" r:id="rId375" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B412" r:id="rId376" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B413" r:id="rId377" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B414" r:id="rId378" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B415" r:id="rId379" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B416" r:id="rId380" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B417" r:id="rId381" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B418" r:id="rId382" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B419" r:id="rId383" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B420" r:id="rId384" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B421" r:id="rId385" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B422" r:id="rId386" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B423" r:id="rId387" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B424" r:id="rId388" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B425" r:id="rId389" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B426" r:id="rId390" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B427" r:id="rId391" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B428" r:id="rId392" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B429" r:id="rId393" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B430" r:id="rId394" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B431" r:id="rId395" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B432" r:id="rId396" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B433" r:id="rId397" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B434" r:id="rId398" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B435" r:id="rId399" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B436" r:id="rId400" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B437" r:id="rId401" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B438" r:id="rId402" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B439" r:id="rId403" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B440" r:id="rId404" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B441" r:id="rId405" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B442" r:id="rId406" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B443" r:id="rId407" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B444" r:id="rId408" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B445" r:id="rId409" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B446" r:id="rId410" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B447" r:id="rId411" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B448" r:id="rId412" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B449" r:id="rId413" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B451" r:id="rId414" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B450" r:id="rId415" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B452" r:id="rId416" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B453" r:id="rId417" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B454" r:id="rId418" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B455" r:id="rId419" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B456" r:id="rId420" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B457" r:id="rId421" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B458" r:id="rId422" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B459" r:id="rId423" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B460" r:id="rId424" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B461" r:id="rId425" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B462" r:id="rId426" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B469" r:id="rId427" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B468" r:id="rId428" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B467" r:id="rId429" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B466" r:id="rId430" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B465" r:id="rId431" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B464" r:id="rId432" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B463" r:id="rId433" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B472" r:id="rId434" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B473" r:id="rId435" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B474" r:id="rId436" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B475" r:id="rId437" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B476" r:id="rId438" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B477" r:id="rId439" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B478" r:id="rId440" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B481" r:id="rId441" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B479" r:id="rId442" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B480" r:id="rId443" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B356" r:id="rId444" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B2" r:id="rId445" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="B484" r:id="rId446" display="Cyber-Cafe" xr:uid="{6B3413E7-2E98-4F57-BFA5-BC021A63554E}"/>
+    <hyperlink ref="B485" r:id="rId447" xr:uid="{E3BD3AF7-A214-4CB3-AD89-9DA39A7907A6}"/>
+    <hyperlink ref="B486" r:id="rId448" xr:uid="{635060AE-A4B5-486D-9896-AADF6B21C353}"/>
+    <hyperlink ref="B487" r:id="rId449" xr:uid="{F206BE76-8B8C-473F-8FED-3C674357D63D}"/>
+    <hyperlink ref="B493" r:id="rId450" display="https://www.facebook.com/prepinsta/posts/tcs-digital-advanced-coding-code-please-comment-your-answers-in-c-c-java-python-/436522896862705/" xr:uid="{C556C222-1B61-483F-9A40-441713E1D507}"/>
+    <hyperlink ref="B492" r:id="rId451" xr:uid="{F54A5F29-3A4E-4E04-90F5-967C2F1E7A1A}"/>
+    <hyperlink ref="B491" r:id="rId452" xr:uid="{B3803C1F-937E-47C4-BD2B-DBC16F892CB5}"/>
+    <hyperlink ref="B490" r:id="rId453" display="https://practice.geeksforgeeks.org/problems/water-connection-problem5822/1" xr:uid="{BB0E6BBC-FFB9-4D82-9774-79EB9EBAF966}"/>
+    <hyperlink ref="B488" r:id="rId454" xr:uid="{AE2B9C1A-0EE8-49D6-8B44-ECF5F63A2946}"/>
+    <hyperlink ref="B489" r:id="rId455" xr:uid="{F0A21AC6-B1DE-4382-BCE4-47A70EA7E4FF}"/>
+    <hyperlink ref="B497" r:id="rId456" xr:uid="{8533658C-8924-4D84-9B5E-7A7A3C148DE1}"/>
+    <hyperlink ref="B498" r:id="rId457" xr:uid="{750C7CA2-4514-480B-B1E7-F9A61B60DEF3}"/>
+    <hyperlink ref="B494" r:id="rId458" xr:uid="{875E80AB-6EB7-439A-998F-12A747496EDA}"/>
+    <hyperlink ref="B495" r:id="rId459" xr:uid="{1A99EADC-6E85-4D79-B0ED-D9AB272AA4A1}"/>
+    <hyperlink ref="C492" location="Sheet1!A51" display="TLE, Mathematics, 51" xr:uid="{90D46A6A-B3FA-4A8D-A855-442BE791E9AF}"/>
+    <hyperlink ref="B51" r:id="rId460" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="C433" location="Sheet1!A238" display="469, 238" xr:uid="{111224E0-601E-4AE5-B0DE-FB8055A1003C}"/>
+    <hyperlink ref="C469" location="Sheet1!A433" display="433, 238" xr:uid="{F3D0A009-9773-4239-904F-B6A1BC763944}"/>
+    <hyperlink ref="B496" r:id="rId461" xr:uid="{4A060D6D-231C-44BF-A0D7-2617F066AACA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId460"/>
+  <pageSetup orientation="portrait" r:id="rId462"/>
 </worksheet>
 </file>
--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECEB1C2-8FFA-4528-96EF-EDF10D92DD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A66902D-11CE-43C4-9138-21CC4BBABD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="524">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1579,6 +1579,24 @@
   </si>
   <si>
     <t>O(n), Pass by Reference</t>
+  </si>
+  <si>
+    <t>Min swaps to sort an array</t>
+  </si>
+  <si>
+    <t>Flip!!</t>
+  </si>
+  <si>
+    <t>Check if SubTree</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>Check if Mirror</t>
+  </si>
+  <si>
+    <t>Construct Mirror</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1674,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1726,12 +1744,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0066FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1880,10 +1892,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1895,11 +1907,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF6BFF29"/>
+      <color rgb="FFEA0000"/>
+      <color rgb="FF0066FF"/>
       <color rgb="FFFFC000"/>
-      <color rgb="FFEA0000"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF0066FF"/>
-      <color rgb="FF6BFF29"/>
       <color rgb="FF66FF66"/>
       <color rgb="FFE2A51C"/>
     </mruColors>
@@ -2212,10 +2224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C498"/>
+  <dimension ref="A1:C500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -4131,13 +4143,13 @@
       </c>
     </row>
     <row r="190" spans="1:3" ht="21">
-      <c r="A190" s="43" t="s">
+      <c r="A190" s="39" t="s">
         <v>171</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C190" s="44" t="s">
+      <c r="C190" s="43" t="s">
         <v>517</v>
       </c>
     </row>
@@ -4208,19 +4220,19 @@
       </c>
     </row>
     <row r="197" spans="1:3" ht="21">
-      <c r="A197" s="5" t="s">
+      <c r="A197" s="39" t="s">
         <v>171</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C197" s="4" t="s">
-        <v>4</v>
+      <c r="C197" s="42" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="21">
-      <c r="A198" s="5" t="s">
-        <v>171</v>
+      <c r="A198" s="17" t="s">
+        <v>512</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>193</v>
@@ -4230,7 +4242,7 @@
       </c>
     </row>
     <row r="199" spans="1:3" ht="21">
-      <c r="A199" s="5" t="s">
+      <c r="A199" s="17" t="s">
         <v>171</v>
       </c>
       <c r="B199" s="6" t="s">
@@ -4241,25 +4253,25 @@
       </c>
     </row>
     <row r="200" spans="1:3" ht="21">
-      <c r="A200" s="5" t="s">
+      <c r="A200" s="39" t="s">
         <v>171</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C200" s="4" t="s">
-        <v>4</v>
+      <c r="C200" s="44" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="21">
-      <c r="A201" s="5" t="s">
+      <c r="A201" s="12" t="s">
         <v>171</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C201" s="4" t="s">
-        <v>4</v>
+      <c r="C201" s="44" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="21">
@@ -7355,24 +7367,46 @@
       </c>
     </row>
     <row r="497" spans="1:3" ht="21">
-      <c r="A497" s="8" t="s">
+      <c r="A497" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="B497" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="C497" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" ht="21">
+      <c r="A498" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="B498" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="C498" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" ht="21">
+      <c r="A499" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="B497" s="6" t="s">
+      <c r="B499" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C497" s="33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" ht="21">
-      <c r="A498" s="34" t="s">
+      <c r="C499" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" ht="21">
+      <c r="A500" s="34" t="s">
         <v>495</v>
       </c>
-      <c r="B498" s="6" t="s">
+      <c r="B500" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="C498" s="35" t="s">
+      <c r="C500" s="35" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7558,292 +7592,297 @@
     <hyperlink ref="B197" r:id="rId178" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
     <hyperlink ref="B198" r:id="rId179" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
     <hyperlink ref="B199" r:id="rId180" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B200" r:id="rId181" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B201" r:id="rId182" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B202" r:id="rId183" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B203" r:id="rId184" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B204" r:id="rId185" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B205" r:id="rId186" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B206" r:id="rId187" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B207" r:id="rId188" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B208" r:id="rId189" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B209" r:id="rId190" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B210" r:id="rId191" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B211" r:id="rId192" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B214" r:id="rId193" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B215" r:id="rId194" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B216" r:id="rId195" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B217" r:id="rId196" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B218" r:id="rId197" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B219" r:id="rId198" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B220" r:id="rId199" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B221" r:id="rId200" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B222" r:id="rId201" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B223" r:id="rId202" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B224" r:id="rId203" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B225" r:id="rId204" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B226" r:id="rId205" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B227" r:id="rId206" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B228" r:id="rId207" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B229" r:id="rId208" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B230" r:id="rId209" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B231" r:id="rId210" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B232" r:id="rId211" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B233" r:id="rId212" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B234" r:id="rId213" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B235" r:id="rId214" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B238" r:id="rId215" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B239" r:id="rId216" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B240" r:id="rId217" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B241" r:id="rId218" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B242" r:id="rId219" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B243" r:id="rId220" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B244" r:id="rId221" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B245" r:id="rId222" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B246" r:id="rId223" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B247" r:id="rId224" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B248" r:id="rId225" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B249" r:id="rId226" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B250" r:id="rId227" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B251" r:id="rId228" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B252" r:id="rId229" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B253" r:id="rId230" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B254" r:id="rId231" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B255" r:id="rId232" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B256" r:id="rId233" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B257" r:id="rId234" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B258" r:id="rId235" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B259" r:id="rId236" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B260" r:id="rId237" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B261" r:id="rId238" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B262" r:id="rId239" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B263" r:id="rId240" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B264" r:id="rId241" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B265" r:id="rId242" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B266" r:id="rId243" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B267" r:id="rId244" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B268" r:id="rId245" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B269" r:id="rId246" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B270" r:id="rId247" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B271" r:id="rId248" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B272" r:id="rId249" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B275" r:id="rId250" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B276" r:id="rId251" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B277" r:id="rId252" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B278" r:id="rId253" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B279" r:id="rId254" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B280" r:id="rId255" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B281" r:id="rId256" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B282" r:id="rId257" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B283" r:id="rId258" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B284" r:id="rId259" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B285" r:id="rId260" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B286" r:id="rId261" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B287" r:id="rId262" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B288" r:id="rId263" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B289" r:id="rId264" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B290" r:id="rId265" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B291" r:id="rId266" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B292" r:id="rId267" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B293" r:id="rId268" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B296" r:id="rId269" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B297" r:id="rId270" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B298" r:id="rId271" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B299" r:id="rId272" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B300" r:id="rId273" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B301" r:id="rId274" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B302" r:id="rId275" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B303" r:id="rId276" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B304" r:id="rId277" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B305" r:id="rId278" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B306" r:id="rId279" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B307" r:id="rId280" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B308" r:id="rId281" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B309" r:id="rId282" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B310" r:id="rId283" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B311" r:id="rId284" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B312" r:id="rId285" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B313" r:id="rId286" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B314" r:id="rId287" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B315" r:id="rId288" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B316" r:id="rId289" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B317" r:id="rId290" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B318" r:id="rId291" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B319" r:id="rId292" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B320" r:id="rId293" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B321" r:id="rId294" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B322" r:id="rId295" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B323" r:id="rId296" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B324" r:id="rId297" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B325" r:id="rId298" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B326" r:id="rId299" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B327" r:id="rId300" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B328" r:id="rId301" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B329" r:id="rId302" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B330" r:id="rId303" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B331" r:id="rId304" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B332" r:id="rId305" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B333" r:id="rId306" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B336" r:id="rId307" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B337" r:id="rId308" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B338" r:id="rId309" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B339" r:id="rId310" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B340" r:id="rId311" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B341" r:id="rId312" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B342" r:id="rId313" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B343" r:id="rId314" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B344" r:id="rId315" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B345" r:id="rId316" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B346" r:id="rId317" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B347" r:id="rId318" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B348" r:id="rId319" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B349" r:id="rId320" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B350" r:id="rId321" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B351" r:id="rId322" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B352" r:id="rId323" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B353" r:id="rId324" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B357" r:id="rId325" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B358" r:id="rId326" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B359" r:id="rId327" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B360" r:id="rId328" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B361" r:id="rId329" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B362" r:id="rId330" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B363" r:id="rId331" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B364" r:id="rId332" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B365" r:id="rId333" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B366" r:id="rId334" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B367" r:id="rId335" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B368" r:id="rId336" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B369" r:id="rId337" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B370" r:id="rId338" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B371" r:id="rId339" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B372" r:id="rId340" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B373" r:id="rId341" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B374" r:id="rId342" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B375" r:id="rId343" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B376" r:id="rId344" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B377" r:id="rId345" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B378" r:id="rId346" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B379" r:id="rId347" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B380" r:id="rId348" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B381" r:id="rId349" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B382" r:id="rId350" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B383" r:id="rId351" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B384" r:id="rId352" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B385" r:id="rId353" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B386" r:id="rId354" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B387" r:id="rId355" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B388" r:id="rId356" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B389" r:id="rId357" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B390" r:id="rId358" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B391" r:id="rId359" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B392" r:id="rId360" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B393" r:id="rId361" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B394" r:id="rId362" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B396" r:id="rId363" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B395" r:id="rId364" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B397" r:id="rId365" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B398" r:id="rId366" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B399" r:id="rId367" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B402" r:id="rId368" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B403" r:id="rId369" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B404" r:id="rId370" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B405" r:id="rId371" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B406" r:id="rId372" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B407" r:id="rId373" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B410" r:id="rId374" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B411" r:id="rId375" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B412" r:id="rId376" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B413" r:id="rId377" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B414" r:id="rId378" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B415" r:id="rId379" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B416" r:id="rId380" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B417" r:id="rId381" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B418" r:id="rId382" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B419" r:id="rId383" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B420" r:id="rId384" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B421" r:id="rId385" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B422" r:id="rId386" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B423" r:id="rId387" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B424" r:id="rId388" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B425" r:id="rId389" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B426" r:id="rId390" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B427" r:id="rId391" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B428" r:id="rId392" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B429" r:id="rId393" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B430" r:id="rId394" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B431" r:id="rId395" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B432" r:id="rId396" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B433" r:id="rId397" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B434" r:id="rId398" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B435" r:id="rId399" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B436" r:id="rId400" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B437" r:id="rId401" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B438" r:id="rId402" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B439" r:id="rId403" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B440" r:id="rId404" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B441" r:id="rId405" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B442" r:id="rId406" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B443" r:id="rId407" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B444" r:id="rId408" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B445" r:id="rId409" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B446" r:id="rId410" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B447" r:id="rId411" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B448" r:id="rId412" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B449" r:id="rId413" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B451" r:id="rId414" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B450" r:id="rId415" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B452" r:id="rId416" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B453" r:id="rId417" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B454" r:id="rId418" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B455" r:id="rId419" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B456" r:id="rId420" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B457" r:id="rId421" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B458" r:id="rId422" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B459" r:id="rId423" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B460" r:id="rId424" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B461" r:id="rId425" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B462" r:id="rId426" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B469" r:id="rId427" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B468" r:id="rId428" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B467" r:id="rId429" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B466" r:id="rId430" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B465" r:id="rId431" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B464" r:id="rId432" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B463" r:id="rId433" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B472" r:id="rId434" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B473" r:id="rId435" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B474" r:id="rId436" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B475" r:id="rId437" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B476" r:id="rId438" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B477" r:id="rId439" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B478" r:id="rId440" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B481" r:id="rId441" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B479" r:id="rId442" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B480" r:id="rId443" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B356" r:id="rId444" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="B2" r:id="rId445" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
-    <hyperlink ref="B484" r:id="rId446" display="Cyber-Cafe" xr:uid="{6B3413E7-2E98-4F57-BFA5-BC021A63554E}"/>
-    <hyperlink ref="B485" r:id="rId447" xr:uid="{E3BD3AF7-A214-4CB3-AD89-9DA39A7907A6}"/>
-    <hyperlink ref="B486" r:id="rId448" xr:uid="{635060AE-A4B5-486D-9896-AADF6B21C353}"/>
-    <hyperlink ref="B487" r:id="rId449" xr:uid="{F206BE76-8B8C-473F-8FED-3C674357D63D}"/>
-    <hyperlink ref="B493" r:id="rId450" display="https://www.facebook.com/prepinsta/posts/tcs-digital-advanced-coding-code-please-comment-your-answers-in-c-c-java-python-/436522896862705/" xr:uid="{C556C222-1B61-483F-9A40-441713E1D507}"/>
-    <hyperlink ref="B492" r:id="rId451" xr:uid="{F54A5F29-3A4E-4E04-90F5-967C2F1E7A1A}"/>
-    <hyperlink ref="B491" r:id="rId452" xr:uid="{B3803C1F-937E-47C4-BD2B-DBC16F892CB5}"/>
-    <hyperlink ref="B490" r:id="rId453" display="https://practice.geeksforgeeks.org/problems/water-connection-problem5822/1" xr:uid="{BB0E6BBC-FFB9-4D82-9774-79EB9EBAF966}"/>
-    <hyperlink ref="B488" r:id="rId454" xr:uid="{AE2B9C1A-0EE8-49D6-8B44-ECF5F63A2946}"/>
-    <hyperlink ref="B489" r:id="rId455" xr:uid="{F0A21AC6-B1DE-4382-BCE4-47A70EA7E4FF}"/>
-    <hyperlink ref="B497" r:id="rId456" xr:uid="{8533658C-8924-4D84-9B5E-7A7A3C148DE1}"/>
-    <hyperlink ref="B498" r:id="rId457" xr:uid="{750C7CA2-4514-480B-B1E7-F9A61B60DEF3}"/>
-    <hyperlink ref="B494" r:id="rId458" xr:uid="{875E80AB-6EB7-439A-998F-12A747496EDA}"/>
-    <hyperlink ref="B495" r:id="rId459" xr:uid="{1A99EADC-6E85-4D79-B0ED-D9AB272AA4A1}"/>
+    <hyperlink ref="B201" r:id="rId181" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B202" r:id="rId182" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B203" r:id="rId183" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B204" r:id="rId184" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B205" r:id="rId185" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B206" r:id="rId186" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B207" r:id="rId187" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B208" r:id="rId188" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B209" r:id="rId189" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B210" r:id="rId190" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B211" r:id="rId191" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B214" r:id="rId192" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B215" r:id="rId193" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B216" r:id="rId194" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B217" r:id="rId195" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B218" r:id="rId196" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B219" r:id="rId197" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B220" r:id="rId198" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B221" r:id="rId199" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B222" r:id="rId200" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B223" r:id="rId201" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B224" r:id="rId202" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B225" r:id="rId203" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B226" r:id="rId204" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B227" r:id="rId205" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B228" r:id="rId206" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B229" r:id="rId207" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B230" r:id="rId208" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B231" r:id="rId209" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B232" r:id="rId210" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B233" r:id="rId211" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B234" r:id="rId212" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B235" r:id="rId213" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B238" r:id="rId214" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B239" r:id="rId215" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B240" r:id="rId216" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B241" r:id="rId217" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B242" r:id="rId218" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B243" r:id="rId219" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B244" r:id="rId220" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B245" r:id="rId221" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B246" r:id="rId222" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B247" r:id="rId223" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B248" r:id="rId224" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B249" r:id="rId225" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B250" r:id="rId226" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B251" r:id="rId227" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B252" r:id="rId228" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B253" r:id="rId229" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B254" r:id="rId230" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B255" r:id="rId231" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B256" r:id="rId232" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B257" r:id="rId233" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B258" r:id="rId234" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B259" r:id="rId235" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B260" r:id="rId236" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B261" r:id="rId237" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B262" r:id="rId238" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B263" r:id="rId239" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B264" r:id="rId240" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B265" r:id="rId241" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B266" r:id="rId242" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B267" r:id="rId243" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B268" r:id="rId244" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B269" r:id="rId245" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B270" r:id="rId246" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B271" r:id="rId247" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B272" r:id="rId248" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B275" r:id="rId249" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B276" r:id="rId250" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B277" r:id="rId251" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B278" r:id="rId252" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B279" r:id="rId253" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B280" r:id="rId254" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B281" r:id="rId255" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B282" r:id="rId256" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B283" r:id="rId257" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B284" r:id="rId258" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B285" r:id="rId259" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B286" r:id="rId260" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B287" r:id="rId261" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B288" r:id="rId262" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B289" r:id="rId263" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B290" r:id="rId264" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B291" r:id="rId265" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B292" r:id="rId266" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B293" r:id="rId267" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B296" r:id="rId268" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B297" r:id="rId269" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B298" r:id="rId270" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B299" r:id="rId271" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B300" r:id="rId272" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B301" r:id="rId273" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B302" r:id="rId274" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B303" r:id="rId275" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B304" r:id="rId276" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B305" r:id="rId277" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B306" r:id="rId278" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B307" r:id="rId279" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B308" r:id="rId280" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B309" r:id="rId281" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B310" r:id="rId282" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B311" r:id="rId283" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B312" r:id="rId284" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B313" r:id="rId285" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B314" r:id="rId286" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B315" r:id="rId287" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B316" r:id="rId288" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B317" r:id="rId289" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B318" r:id="rId290" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B319" r:id="rId291" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B320" r:id="rId292" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B321" r:id="rId293" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B322" r:id="rId294" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B323" r:id="rId295" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B324" r:id="rId296" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B325" r:id="rId297" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B326" r:id="rId298" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B327" r:id="rId299" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B328" r:id="rId300" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B329" r:id="rId301" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B330" r:id="rId302" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B331" r:id="rId303" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B332" r:id="rId304" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B333" r:id="rId305" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B336" r:id="rId306" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B337" r:id="rId307" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B338" r:id="rId308" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B339" r:id="rId309" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B340" r:id="rId310" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B341" r:id="rId311" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B342" r:id="rId312" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B343" r:id="rId313" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B344" r:id="rId314" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B345" r:id="rId315" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B346" r:id="rId316" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B347" r:id="rId317" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B348" r:id="rId318" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B349" r:id="rId319" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B350" r:id="rId320" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B351" r:id="rId321" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B352" r:id="rId322" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B353" r:id="rId323" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B357" r:id="rId324" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B358" r:id="rId325" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B359" r:id="rId326" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B360" r:id="rId327" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B361" r:id="rId328" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B362" r:id="rId329" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B363" r:id="rId330" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B364" r:id="rId331" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B365" r:id="rId332" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B366" r:id="rId333" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B367" r:id="rId334" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B368" r:id="rId335" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B369" r:id="rId336" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B370" r:id="rId337" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B371" r:id="rId338" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B372" r:id="rId339" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B373" r:id="rId340" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B374" r:id="rId341" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B375" r:id="rId342" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B376" r:id="rId343" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B377" r:id="rId344" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B378" r:id="rId345" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B379" r:id="rId346" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B380" r:id="rId347" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B381" r:id="rId348" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B382" r:id="rId349" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B383" r:id="rId350" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B384" r:id="rId351" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B385" r:id="rId352" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B386" r:id="rId353" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B387" r:id="rId354" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B388" r:id="rId355" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B389" r:id="rId356" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B390" r:id="rId357" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B391" r:id="rId358" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B392" r:id="rId359" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B393" r:id="rId360" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B394" r:id="rId361" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B396" r:id="rId362" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B395" r:id="rId363" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B397" r:id="rId364" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B398" r:id="rId365" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B399" r:id="rId366" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B402" r:id="rId367" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B403" r:id="rId368" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B404" r:id="rId369" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B405" r:id="rId370" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B406" r:id="rId371" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B407" r:id="rId372" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B410" r:id="rId373" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B411" r:id="rId374" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B412" r:id="rId375" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B413" r:id="rId376" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B414" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B415" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B416" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B417" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B418" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B419" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B420" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B421" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B422" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B423" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B424" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B425" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B426" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B427" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B428" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B429" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B430" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B431" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B432" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B433" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B434" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B435" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B436" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B437" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B438" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B439" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B440" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B441" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B442" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B443" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B444" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B445" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B446" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B447" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B448" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B449" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B451" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B450" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B452" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B453" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B454" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B455" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B456" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B457" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B458" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B459" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B460" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B461" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B462" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B469" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B468" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B467" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B466" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B465" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B464" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B463" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B472" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B473" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B474" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B475" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B476" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B477" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B478" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B481" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B479" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B480" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B356" r:id="rId443" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B2" r:id="rId444" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="B484" r:id="rId445" display="Cyber-Cafe" xr:uid="{6B3413E7-2E98-4F57-BFA5-BC021A63554E}"/>
+    <hyperlink ref="B485" r:id="rId446" xr:uid="{E3BD3AF7-A214-4CB3-AD89-9DA39A7907A6}"/>
+    <hyperlink ref="B486" r:id="rId447" xr:uid="{635060AE-A4B5-486D-9896-AADF6B21C353}"/>
+    <hyperlink ref="B487" r:id="rId448" xr:uid="{F206BE76-8B8C-473F-8FED-3C674357D63D}"/>
+    <hyperlink ref="B493" r:id="rId449" display="https://www.facebook.com/prepinsta/posts/tcs-digital-advanced-coding-code-please-comment-your-answers-in-c-c-java-python-/436522896862705/" xr:uid="{C556C222-1B61-483F-9A40-441713E1D507}"/>
+    <hyperlink ref="B492" r:id="rId450" xr:uid="{F54A5F29-3A4E-4E04-90F5-967C2F1E7A1A}"/>
+    <hyperlink ref="B491" r:id="rId451" xr:uid="{B3803C1F-937E-47C4-BD2B-DBC16F892CB5}"/>
+    <hyperlink ref="B490" r:id="rId452" display="https://practice.geeksforgeeks.org/problems/water-connection-problem5822/1" xr:uid="{BB0E6BBC-FFB9-4D82-9774-79EB9EBAF966}"/>
+    <hyperlink ref="B488" r:id="rId453" xr:uid="{AE2B9C1A-0EE8-49D6-8B44-ECF5F63A2946}"/>
+    <hyperlink ref="B489" r:id="rId454" xr:uid="{F0A21AC6-B1DE-4382-BCE4-47A70EA7E4FF}"/>
+    <hyperlink ref="B500" r:id="rId455" xr:uid="{750C7CA2-4514-480B-B1E7-F9A61B60DEF3}"/>
+    <hyperlink ref="B494" r:id="rId456" xr:uid="{875E80AB-6EB7-439A-998F-12A747496EDA}"/>
+    <hyperlink ref="B495" r:id="rId457" xr:uid="{1A99EADC-6E85-4D79-B0ED-D9AB272AA4A1}"/>
     <hyperlink ref="C492" location="Sheet1!A51" display="TLE, Mathematics, 51" xr:uid="{90D46A6A-B3FA-4A8D-A855-442BE791E9AF}"/>
-    <hyperlink ref="B51" r:id="rId460" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="B51" r:id="rId458" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
     <hyperlink ref="C433" location="Sheet1!A238" display="469, 238" xr:uid="{111224E0-601E-4AE5-B0DE-FB8055A1003C}"/>
     <hyperlink ref="C469" location="Sheet1!A433" display="433, 238" xr:uid="{F3D0A009-9773-4239-904F-B6A1BC763944}"/>
-    <hyperlink ref="B496" r:id="rId461" xr:uid="{4A060D6D-231C-44BF-A0D7-2617F066AACA}"/>
+    <hyperlink ref="B496" r:id="rId459" xr:uid="{4A060D6D-231C-44BF-A0D7-2617F066AACA}"/>
+    <hyperlink ref="C197" r:id="rId460" xr:uid="{487C5D2C-936C-47BE-951B-10DD3D12E458}"/>
+    <hyperlink ref="B200" r:id="rId461" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="C200" r:id="rId462" xr:uid="{A5ADB444-7B6D-4EF1-8C0A-50F2012509A0}"/>
+    <hyperlink ref="B499" r:id="rId463" xr:uid="{8533658C-8924-4D84-9B5E-7A7A3C148DE1}"/>
+    <hyperlink ref="B497" r:id="rId464" xr:uid="{92463EC4-BAC6-45FB-B251-3E22DBBCF4F4}"/>
+    <hyperlink ref="B498" r:id="rId465" xr:uid="{6A2FAD4D-D6A2-48F9-9038-6C50A1A34DE7}"/>
+    <hyperlink ref="C201" location="Sheet1!A497" display="Flip!!" xr:uid="{579446D0-0690-436F-83BB-235C14058959}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId462"/>
+  <pageSetup orientation="portrait" r:id="rId466"/>
 </worksheet>
 </file>
--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A66902D-11CE-43C4-9138-21CC4BBABD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200538F7-067F-49FB-AB4C-E915A26329E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="524">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2226,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -4275,7 +4275,7 @@
       </c>
     </row>
     <row r="202" spans="1:3" ht="21">
-      <c r="A202" s="5" t="s">
+      <c r="A202" s="17" t="s">
         <v>171</v>
       </c>
       <c r="B202" s="6" t="s">
@@ -4286,18 +4286,18 @@
       </c>
     </row>
     <row r="203" spans="1:3" ht="21">
-      <c r="A203" s="5" t="s">
+      <c r="A203" s="17" t="s">
         <v>171</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C203" s="4" t="s">
-        <v>4</v>
+      <c r="C203" s="42">
+        <v>360</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="21">
-      <c r="A204" s="5" t="s">
+      <c r="A204" s="17" t="s">
         <v>171</v>
       </c>
       <c r="B204" s="6" t="s">
@@ -4308,18 +4308,18 @@
       </c>
     </row>
     <row r="205" spans="1:3" ht="21">
-      <c r="A205" s="5" t="s">
-        <v>171</v>
+      <c r="A205" s="17" t="s">
+        <v>512</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>200</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>4</v>
+        <v>473</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="21">
-      <c r="A206" s="5" t="s">
+      <c r="A206" s="17" t="s">
         <v>171</v>
       </c>
       <c r="B206" s="6" t="s">
@@ -7881,6 +7881,7 @@
     <hyperlink ref="B497" r:id="rId464" xr:uid="{92463EC4-BAC6-45FB-B251-3E22DBBCF4F4}"/>
     <hyperlink ref="B498" r:id="rId465" xr:uid="{6A2FAD4D-D6A2-48F9-9038-6C50A1A34DE7}"/>
     <hyperlink ref="C201" location="Sheet1!A497" display="Flip!!" xr:uid="{579446D0-0690-436F-83BB-235C14058959}"/>
+    <hyperlink ref="C203" location="Sheet1!A360" display="Sheet1!A360" xr:uid="{CB95145A-74B6-484D-A5D9-0446B12BD46E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId466"/>

--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200538F7-067F-49FB-AB4C-E915A26329E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6726D0D1-157A-4FCA-BE67-B5F3C52EA747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2227,7 +2227,7 @@
   <dimension ref="A1:C500"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206"/>
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>

--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6726D0D1-157A-4FCA-BE67-B5F3C52EA747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491489FE-4A43-416C-BAE8-E83035072668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="524">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1907,10 +1907,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC000"/>
       <color rgb="FF6BFF29"/>
       <color rgb="FFEA0000"/>
       <color rgb="FF0066FF"/>
-      <color rgb="FFFFC000"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF66FF66"/>
       <color rgb="FFE2A51C"/>
@@ -2226,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -4330,7 +4330,7 @@
       </c>
     </row>
     <row r="207" spans="1:3" ht="21">
-      <c r="A207" s="5" t="s">
+      <c r="A207" s="17" t="s">
         <v>171</v>
       </c>
       <c r="B207" s="6" t="s">
@@ -4341,7 +4341,7 @@
       </c>
     </row>
     <row r="208" spans="1:3" ht="21">
-      <c r="A208" s="5" t="s">
+      <c r="A208" s="17" t="s">
         <v>171</v>
       </c>
       <c r="B208" s="6" t="s">
@@ -4352,7 +4352,7 @@
       </c>
     </row>
     <row r="209" spans="1:3" ht="21">
-      <c r="A209" s="5" t="s">
+      <c r="A209" s="17" t="s">
         <v>171</v>
       </c>
       <c r="B209" s="6" t="s">
@@ -4363,18 +4363,18 @@
       </c>
     </row>
     <row r="210" spans="1:3" ht="21">
-      <c r="A210" s="5" t="s">
-        <v>171</v>
+      <c r="A210" s="17" t="s">
+        <v>512</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C210" s="4" t="s">
-        <v>4</v>
+      <c r="C210" s="42">
+        <v>200</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="21">
-      <c r="A211" s="5" t="s">
+      <c r="A211" s="16" t="s">
         <v>171</v>
       </c>
       <c r="B211" s="6" t="s">
@@ -7882,6 +7882,7 @@
     <hyperlink ref="B498" r:id="rId465" xr:uid="{6A2FAD4D-D6A2-48F9-9038-6C50A1A34DE7}"/>
     <hyperlink ref="C201" location="Sheet1!A497" display="Flip!!" xr:uid="{579446D0-0690-436F-83BB-235C14058959}"/>
     <hyperlink ref="C203" location="Sheet1!A360" display="Sheet1!A360" xr:uid="{CB95145A-74B6-484D-A5D9-0446B12BD46E}"/>
+    <hyperlink ref="C210" location="Sheet1!A200" display="Sheet1!A200" xr:uid="{3E2BA324-A608-4D90-80FC-60C1B269DE08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId466"/>

--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491489FE-4A43-416C-BAE8-E83035072668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE6E0A1-3AB1-4B93-A3D0-01F2F2A63E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="529">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1597,6 +1597,21 @@
   </si>
   <si>
     <t>Construct Mirror</t>
+  </si>
+  <si>
+    <t>BST</t>
+  </si>
+  <si>
+    <t>Preorder Traversal &amp; BST</t>
+  </si>
+  <si>
+    <t>Construct Tree from Preorder Traversal</t>
+  </si>
+  <si>
+    <t>Binary Search Trees*</t>
+  </si>
+  <si>
+    <t>Array to BST, Sorted LL to BBST</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1791,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1897,6 +1912,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2224,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C500"/>
+  <dimension ref="A1:C502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A211" sqref="A211"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A225" sqref="A225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -4450,7 +4471,7 @@
       </c>
     </row>
     <row r="219" spans="1:3" ht="21">
-      <c r="A219" s="5" t="s">
+      <c r="A219" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B219" s="6" t="s">
@@ -4461,7 +4482,7 @@
       </c>
     </row>
     <row r="220" spans="1:3" ht="21">
-      <c r="A220" s="5" t="s">
+      <c r="A220" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B220" s="9" t="s">
@@ -4472,8 +4493,8 @@
       </c>
     </row>
     <row r="221" spans="1:3" ht="21">
-      <c r="A221" s="5" t="s">
-        <v>207</v>
+      <c r="A221" s="17" t="s">
+        <v>527</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>215</v>
@@ -4483,7 +4504,7 @@
       </c>
     </row>
     <row r="222" spans="1:3" ht="21">
-      <c r="A222" s="5" t="s">
+      <c r="A222" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B222" s="6" t="s">
@@ -4494,18 +4515,18 @@
       </c>
     </row>
     <row r="223" spans="1:3" ht="21">
-      <c r="A223" s="5" t="s">
-        <v>207</v>
+      <c r="A223" s="16" t="s">
+        <v>527</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C223" s="4" t="s">
-        <v>4</v>
+      <c r="C223" s="46" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="21">
-      <c r="A224" s="5" t="s">
+      <c r="A224" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B224" s="6" t="s">
@@ -4516,7 +4537,7 @@
       </c>
     </row>
     <row r="225" spans="1:3" ht="21">
-      <c r="A225" s="5" t="s">
+      <c r="A225" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B225" s="6" t="s">
@@ -7389,24 +7410,46 @@
       </c>
     </row>
     <row r="499" spans="1:3" ht="21">
-      <c r="A499" s="8" t="s">
+      <c r="A499" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="B499" s="40" t="s">
+        <v>525</v>
+      </c>
+      <c r="C499" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" ht="21">
+      <c r="A500" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="B500" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C500" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" ht="21">
+      <c r="A501" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="B499" s="6" t="s">
+      <c r="B501" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C499" s="33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" ht="21">
-      <c r="A500" s="34" t="s">
+      <c r="C501" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" ht="21">
+      <c r="A502" s="34" t="s">
         <v>495</v>
       </c>
-      <c r="B500" s="6" t="s">
+      <c r="B502" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="C500" s="35" t="s">
+      <c r="C502" s="35" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7866,7 +7909,7 @@
     <hyperlink ref="B490" r:id="rId452" display="https://practice.geeksforgeeks.org/problems/water-connection-problem5822/1" xr:uid="{BB0E6BBC-FFB9-4D82-9774-79EB9EBAF966}"/>
     <hyperlink ref="B488" r:id="rId453" xr:uid="{AE2B9C1A-0EE8-49D6-8B44-ECF5F63A2946}"/>
     <hyperlink ref="B489" r:id="rId454" xr:uid="{F0A21AC6-B1DE-4382-BCE4-47A70EA7E4FF}"/>
-    <hyperlink ref="B500" r:id="rId455" xr:uid="{750C7CA2-4514-480B-B1E7-F9A61B60DEF3}"/>
+    <hyperlink ref="B502" r:id="rId455" xr:uid="{750C7CA2-4514-480B-B1E7-F9A61B60DEF3}"/>
     <hyperlink ref="B494" r:id="rId456" xr:uid="{875E80AB-6EB7-439A-998F-12A747496EDA}"/>
     <hyperlink ref="B495" r:id="rId457" xr:uid="{1A99EADC-6E85-4D79-B0ED-D9AB272AA4A1}"/>
     <hyperlink ref="C492" location="Sheet1!A51" display="TLE, Mathematics, 51" xr:uid="{90D46A6A-B3FA-4A8D-A855-442BE791E9AF}"/>
@@ -7877,14 +7920,17 @@
     <hyperlink ref="C197" r:id="rId460" xr:uid="{487C5D2C-936C-47BE-951B-10DD3D12E458}"/>
     <hyperlink ref="B200" r:id="rId461" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
     <hyperlink ref="C200" r:id="rId462" xr:uid="{A5ADB444-7B6D-4EF1-8C0A-50F2012509A0}"/>
-    <hyperlink ref="B499" r:id="rId463" xr:uid="{8533658C-8924-4D84-9B5E-7A7A3C148DE1}"/>
+    <hyperlink ref="B501" r:id="rId463" xr:uid="{8533658C-8924-4D84-9B5E-7A7A3C148DE1}"/>
     <hyperlink ref="B497" r:id="rId464" xr:uid="{92463EC4-BAC6-45FB-B251-3E22DBBCF4F4}"/>
     <hyperlink ref="B498" r:id="rId465" xr:uid="{6A2FAD4D-D6A2-48F9-9038-6C50A1A34DE7}"/>
     <hyperlink ref="C201" location="Sheet1!A497" display="Flip!!" xr:uid="{579446D0-0690-436F-83BB-235C14058959}"/>
     <hyperlink ref="C203" location="Sheet1!A360" display="Sheet1!A360" xr:uid="{CB95145A-74B6-484D-A5D9-0446B12BD46E}"/>
     <hyperlink ref="C210" location="Sheet1!A200" display="Sheet1!A200" xr:uid="{3E2BA324-A608-4D90-80FC-60C1B269DE08}"/>
+    <hyperlink ref="B499" r:id="rId466" xr:uid="{BA982B15-FDE6-4BE7-9842-67C86FFF14E6}"/>
+    <hyperlink ref="B500" r:id="rId467" xr:uid="{41122529-D2BB-4BEF-9880-EEDD2593771C}"/>
+    <hyperlink ref="C223" r:id="rId468" xr:uid="{5D77001F-7779-437F-B645-CA3BA9779034}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId466"/>
+  <pageSetup orientation="portrait" r:id="rId469"/>
 </worksheet>
 </file>
--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE6E0A1-3AB1-4B93-A3D0-01F2F2A63E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CD9A44-A71A-4529-96A3-441D4FC7CC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="531">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1612,6 +1612,12 @@
   </si>
   <si>
     <t>Array to BST, Sorted LL to BBST</t>
+  </si>
+  <si>
+    <t>Next Greater Element</t>
+  </si>
+  <si>
+    <t>O(1)</t>
   </si>
 </sst>
 </file>
@@ -1928,10 +1934,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0066FF"/>
       <color rgb="FFFFC000"/>
       <color rgb="FF6BFF29"/>
       <color rgb="FFEA0000"/>
-      <color rgb="FF0066FF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF66FF66"/>
       <color rgb="FFE2A51C"/>
@@ -2247,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A225" sqref="A225"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A230" sqref="A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -4548,7 +4554,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" ht="21">
-      <c r="A226" s="5" t="s">
+      <c r="A226" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B226" s="6" t="s">
@@ -4559,29 +4565,29 @@
       </c>
     </row>
     <row r="227" spans="1:3" ht="21">
-      <c r="A227" s="5" t="s">
+      <c r="A227" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>221</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>4</v>
+        <v>470</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="21">
-      <c r="A228" s="5" t="s">
+      <c r="A228" s="16" t="s">
         <v>207</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>222</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>4</v>
+        <v>530</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="21">
-      <c r="A229" s="5" t="s">
+      <c r="A229" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B229" s="6" t="s">
@@ -4592,14 +4598,14 @@
       </c>
     </row>
     <row r="230" spans="1:3" ht="21">
-      <c r="A230" s="5" t="s">
+      <c r="A230" s="39" t="s">
         <v>207</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C230" s="4" t="s">
-        <v>4</v>
+      <c r="C230" s="42" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="21">
@@ -7929,8 +7935,9 @@
     <hyperlink ref="B499" r:id="rId466" xr:uid="{BA982B15-FDE6-4BE7-9842-67C86FFF14E6}"/>
     <hyperlink ref="B500" r:id="rId467" xr:uid="{41122529-D2BB-4BEF-9880-EEDD2593771C}"/>
     <hyperlink ref="C223" r:id="rId468" xr:uid="{5D77001F-7779-437F-B645-CA3BA9779034}"/>
+    <hyperlink ref="C230" r:id="rId469" xr:uid="{B90FC36C-EFDF-4D9D-8BA5-56977AECF4F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId469"/>
+  <pageSetup orientation="portrait" r:id="rId470"/>
 </worksheet>
 </file>
--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CD9A44-A71A-4529-96A3-441D4FC7CC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21345FC6-0EE6-4375-861B-800B1AD0F1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="532">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1602,9 +1602,6 @@
     <t>BST</t>
   </si>
   <si>
-    <t>Preorder Traversal &amp; BST</t>
-  </si>
-  <si>
     <t>Construct Tree from Preorder Traversal</t>
   </si>
   <si>
@@ -1614,10 +1611,16 @@
     <t>Array to BST, Sorted LL to BBST</t>
   </si>
   <si>
-    <t>Next Greater Element</t>
-  </si>
-  <si>
     <t>O(1)</t>
+  </si>
+  <si>
+    <t>Preorder to Postorder</t>
+  </si>
+  <si>
+    <t>Next Greater Element (Stack)</t>
+  </si>
+  <si>
+    <t>Method3</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1698,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1768,6 +1771,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1797,7 +1806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1925,6 +1934,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1935,9 +1947,9 @@
   <colors>
     <mruColors>
       <color rgb="FF0066FF"/>
-      <color rgb="FFFFC000"/>
       <color rgb="FF6BFF29"/>
       <color rgb="FFEA0000"/>
+      <color rgb="FFFFC000"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF66FF66"/>
       <color rgb="FFE2A51C"/>
@@ -2253,8 +2265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A230" sqref="A230"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A235" sqref="A235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -4466,14 +4478,14 @@
       </c>
     </row>
     <row r="218" spans="1:3" ht="21">
-      <c r="A218" s="5" t="s">
+      <c r="A218" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C218" s="11" t="s">
-        <v>4</v>
+      <c r="C218" s="47" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="21">
@@ -4500,12 +4512,12 @@
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="C221" s="38" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4522,13 +4534,13 @@
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>217</v>
       </c>
       <c r="C223" s="46" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="21">
@@ -4583,7 +4595,7 @@
         <v>222</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="21">
@@ -4604,12 +4616,12 @@
       <c r="B230" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C230" s="42" t="s">
-        <v>529</v>
+      <c r="C230" s="44" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="21">
-      <c r="A231" s="5" t="s">
+      <c r="A231" s="12" t="s">
         <v>207</v>
       </c>
       <c r="B231" s="6" t="s">
@@ -4620,18 +4632,18 @@
       </c>
     </row>
     <row r="232" spans="1:3" ht="21">
-      <c r="A232" s="5" t="s">
-        <v>207</v>
+      <c r="A232" s="39" t="s">
+        <v>526</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C232" s="4" t="s">
-        <v>4</v>
+      <c r="C232" s="42">
+        <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="21">
-      <c r="A233" s="5" t="s">
+      <c r="A233" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B233" s="6" t="s">
@@ -4642,8 +4654,8 @@
       </c>
     </row>
     <row r="234" spans="1:3" ht="21">
-      <c r="A234" s="5" t="s">
-        <v>207</v>
+      <c r="A234" s="17" t="s">
+        <v>526</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>228</v>
@@ -4653,7 +4665,7 @@
       </c>
     </row>
     <row r="235" spans="1:3" ht="21">
-      <c r="A235" s="5" t="s">
+      <c r="A235" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B235" s="6" t="s">
@@ -7420,7 +7432,7 @@
         <v>524</v>
       </c>
       <c r="B499" s="40" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C499" s="33" t="s">
         <v>4</v>
@@ -7431,7 +7443,7 @@
         <v>524</v>
       </c>
       <c r="B500" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C500" s="33" t="s">
         <v>4</v>
@@ -7935,9 +7947,11 @@
     <hyperlink ref="B499" r:id="rId466" xr:uid="{BA982B15-FDE6-4BE7-9842-67C86FFF14E6}"/>
     <hyperlink ref="B500" r:id="rId467" xr:uid="{41122529-D2BB-4BEF-9880-EEDD2593771C}"/>
     <hyperlink ref="C223" r:id="rId468" xr:uid="{5D77001F-7779-437F-B645-CA3BA9779034}"/>
-    <hyperlink ref="C230" r:id="rId469" xr:uid="{B90FC36C-EFDF-4D9D-8BA5-56977AECF4F7}"/>
+    <hyperlink ref="C230" r:id="rId469" display="Next Greater Element" xr:uid="{B90FC36C-EFDF-4D9D-8BA5-56977AECF4F7}"/>
+    <hyperlink ref="C232" location="Sheet1!A230" display="Sheet1!A230" xr:uid="{59DB283F-2DA2-4329-B0BC-601991AE73E7}"/>
+    <hyperlink ref="C218" r:id="rId470" xr:uid="{71C80DC1-E429-40FC-95D9-88F02EFA0746}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId470"/>
+  <pageSetup orientation="portrait" r:id="rId471"/>
 </worksheet>
 </file>
--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21345FC6-0EE6-4375-861B-800B1AD0F1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3967F8E9-CEE4-48EE-8091-14E66A278868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="535">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1621,6 +1621,15 @@
   </si>
   <si>
     <t>Method3</t>
+  </si>
+  <si>
+    <t>Greedy*</t>
+  </si>
+  <si>
+    <t>Atti Sundar</t>
+  </si>
+  <si>
+    <t>CHOCOLA</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +1815,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1937,6 +1946,12 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1946,10 +1961,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC000"/>
       <color rgb="FF0066FF"/>
       <color rgb="FF6BFF29"/>
       <color rgb="FFEA0000"/>
-      <color rgb="FFFFC000"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF66FF66"/>
       <color rgb="FFE2A51C"/>
@@ -2265,8 +2280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A235" sqref="A235"/>
+    <sheetView tabSelected="1" topLeftCell="A236" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A249" sqref="A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -4690,46 +4705,46 @@
       <c r="B238" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="C238" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="21">
-      <c r="A239" s="5" t="s">
-        <v>230</v>
+      <c r="A239" s="17" t="s">
+        <v>532</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C239" s="4" t="s">
+      <c r="C239" s="38" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="21">
-      <c r="A240" s="5" t="s">
-        <v>230</v>
+      <c r="A240" s="17" t="s">
+        <v>532</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>233</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>4</v>
+        <v>479</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="21">
-      <c r="A241" s="5" t="s">
+      <c r="A241" s="48" t="s">
         <v>230</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C241" s="4" t="s">
-        <v>4</v>
+      <c r="C241" s="49">
+        <v>490</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="21">
-      <c r="A242" s="5" t="s">
-        <v>230</v>
+      <c r="A242" s="17" t="s">
+        <v>532</v>
       </c>
       <c r="B242" s="6" t="s">
         <v>235</v>
@@ -4739,7 +4754,7 @@
       </c>
     </row>
     <row r="243" spans="1:3" ht="21">
-      <c r="A243" s="5" t="s">
+      <c r="A243" s="48" t="s">
         <v>230</v>
       </c>
       <c r="B243" s="6" t="s">
@@ -4750,30 +4765,30 @@
       </c>
     </row>
     <row r="244" spans="1:3" ht="21">
-      <c r="A244" s="5" t="s">
+      <c r="A244" s="17" t="s">
         <v>230</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C244" s="4" t="s">
-        <v>4</v>
+      <c r="C244" s="42">
+        <v>238</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="21">
-      <c r="A245" s="5" t="s">
+      <c r="A245" s="48" t="s">
         <v>230</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C245" s="4" t="s">
-        <v>4</v>
+      <c r="C245" s="49">
+        <v>486</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="21">
-      <c r="A246" s="5" t="s">
-        <v>230</v>
+      <c r="A246" s="17" t="s">
+        <v>532</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>239</v>
@@ -4783,7 +4798,7 @@
       </c>
     </row>
     <row r="247" spans="1:3" ht="21">
-      <c r="A247" s="5" t="s">
+      <c r="A247" s="17" t="s">
         <v>230</v>
       </c>
       <c r="B247" s="6" t="s">
@@ -4794,36 +4809,36 @@
       </c>
     </row>
     <row r="248" spans="1:3" ht="21">
-      <c r="A248" s="5" t="s">
+      <c r="A248" s="39" t="s">
         <v>230</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C248" s="4" t="s">
-        <v>4</v>
+      <c r="C248" s="42">
+        <v>398</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="21">
-      <c r="A249" s="5" t="s">
-        <v>230</v>
+      <c r="A249" s="17" t="s">
+        <v>532</v>
       </c>
       <c r="B249" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C249" s="4" t="s">
-        <v>4</v>
+      <c r="C249" s="42" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="21">
-      <c r="A250" s="5" t="s">
-        <v>230</v>
+      <c r="A250" s="17" t="s">
+        <v>532</v>
       </c>
       <c r="B250" s="6" t="s">
         <v>243</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>4</v>
+        <v>533</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="21">
@@ -7950,6 +7965,11 @@
     <hyperlink ref="C230" r:id="rId469" display="Next Greater Element" xr:uid="{B90FC36C-EFDF-4D9D-8BA5-56977AECF4F7}"/>
     <hyperlink ref="C232" location="Sheet1!A230" display="Sheet1!A230" xr:uid="{59DB283F-2DA2-4329-B0BC-601991AE73E7}"/>
     <hyperlink ref="C218" r:id="rId470" xr:uid="{71C80DC1-E429-40FC-95D9-88F02EFA0746}"/>
+    <hyperlink ref="C241" location="Sheet1!A490" display="Sheet1!A490" xr:uid="{8B2AE86D-11A9-4655-9490-9046A17AD0D7}"/>
+    <hyperlink ref="C245" location="Sheet1!A486" display="Sheet1!A486" xr:uid="{7A2BF254-0F85-4D91-8CCC-2418DB120EFC}"/>
+    <hyperlink ref="C248" location="Sheet1!A398" display="Sheet1!A398" xr:uid="{0D79A59C-97B6-4951-B047-A2D4503D4927}"/>
+    <hyperlink ref="C244" location="Sheet1!A238" display="Sheet1!A238" xr:uid="{DF5632F6-E58C-4020-9E61-4B14659A940F}"/>
+    <hyperlink ref="C249" location="Sheet1!A266" display="CHOCOLA" xr:uid="{88723DB7-C7EF-4142-89A8-9AFC8E89CAD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId471"/>

--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3967F8E9-CEE4-48EE-8091-14E66A278868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AEE1DC-30A4-4166-8117-733BE66F440E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="539">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1630,6 +1630,18 @@
   </si>
   <si>
     <t>CHOCOLA</t>
+  </si>
+  <si>
+    <t>Max &amp; Min Product Subset</t>
+  </si>
+  <si>
+    <t>PQ</t>
+  </si>
+  <si>
+    <t>Overflow</t>
+  </si>
+  <si>
+    <t>Maximum sum difference</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1719,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1786,6 +1798,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1815,7 +1833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1952,6 +1970,9 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1961,8 +1982,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0066FF"/>
       <color rgb="FFFFC000"/>
-      <color rgb="FF0066FF"/>
       <color rgb="FF6BFF29"/>
       <color rgb="FFEA0000"/>
       <color rgb="FF0000FF"/>
@@ -2278,10 +2299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C502"/>
+  <dimension ref="A1:C504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A249" sqref="A249"/>
+    <sheetView tabSelected="1" topLeftCell="A254" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -4826,7 +4847,7 @@
       <c r="B249" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C249" s="42" t="s">
+      <c r="C249" s="47" t="s">
         <v>534</v>
       </c>
     </row>
@@ -4842,7 +4863,7 @@
       </c>
     </row>
     <row r="251" spans="1:3" ht="21">
-      <c r="A251" s="5" t="s">
+      <c r="A251" s="17" t="s">
         <v>230</v>
       </c>
       <c r="B251" s="6" t="s">
@@ -4853,62 +4874,62 @@
       </c>
     </row>
     <row r="252" spans="1:3" ht="21">
-      <c r="A252" s="5" t="s">
-        <v>230</v>
+      <c r="A252" s="17" t="s">
+        <v>532</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C252" s="4" t="s">
-        <v>4</v>
+      <c r="C252" s="42">
+        <v>503</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="21">
-      <c r="A253" s="5" t="s">
-        <v>230</v>
+      <c r="A253" s="17" t="s">
+        <v>532</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>246</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>4</v>
+        <v>536</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="21">
-      <c r="A254" s="5" t="s">
-        <v>230</v>
+      <c r="A254" s="17" t="s">
+        <v>532</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>247</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>4</v>
+        <v>537</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="21">
-      <c r="A255" s="5" t="s">
-        <v>230</v>
+      <c r="A255" s="17" t="s">
+        <v>532</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C255" s="4" t="s">
+      <c r="C255" s="50" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="21">
-      <c r="A256" s="5" t="s">
+      <c r="A256" s="17" t="s">
         <v>230</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C256" s="4" t="s">
+      <c r="C256" s="50" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="21">
-      <c r="A257" s="5" t="s">
+      <c r="A257" s="17" t="s">
         <v>230</v>
       </c>
       <c r="B257" s="6" t="s">
@@ -5007,7 +5028,7 @@
       </c>
     </row>
     <row r="266" spans="1:3" ht="21">
-      <c r="A266" s="5" t="s">
+      <c r="A266" s="39" t="s">
         <v>230</v>
       </c>
       <c r="B266" s="6" t="s">
@@ -7483,6 +7504,28 @@
         <v>509</v>
       </c>
       <c r="C502" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" ht="21">
+      <c r="A503" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B503" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C503" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" ht="21">
+      <c r="A504" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B504" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C504" s="35" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7970,8 +8013,11 @@
     <hyperlink ref="C248" location="Sheet1!A398" display="Sheet1!A398" xr:uid="{0D79A59C-97B6-4951-B047-A2D4503D4927}"/>
     <hyperlink ref="C244" location="Sheet1!A238" display="Sheet1!A238" xr:uid="{DF5632F6-E58C-4020-9E61-4B14659A940F}"/>
     <hyperlink ref="C249" location="Sheet1!A266" display="CHOCOLA" xr:uid="{88723DB7-C7EF-4142-89A8-9AFC8E89CAD3}"/>
+    <hyperlink ref="B503" r:id="rId471" xr:uid="{09984646-9853-4638-84E4-7A8C6452FC53}"/>
+    <hyperlink ref="C252" location="Sheet1!A503" display="503" xr:uid="{94974348-B42E-4C45-B1DD-A884D6CE3CEC}"/>
+    <hyperlink ref="B504" r:id="rId472" xr:uid="{3608F226-F9CC-42B8-BBBB-1BE2A611B9BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId471"/>
+  <pageSetup orientation="portrait" r:id="rId473"/>
 </worksheet>
 </file>
--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AEE1DC-30A4-4166-8117-733BE66F440E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20714617-B98B-409E-8BD4-D5F2D31BBE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="539">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2301,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A257" sqref="A257"/>
+    <sheetView tabSelected="1" topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B265" sqref="B265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -4940,18 +4940,18 @@
       </c>
     </row>
     <row r="258" spans="1:3" ht="21">
-      <c r="A258" s="5" t="s">
+      <c r="A258" s="17" t="s">
         <v>230</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C258" s="4" t="s">
-        <v>4</v>
+      <c r="C258" s="24" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="21">
-      <c r="A259" s="5" t="s">
+      <c r="A259" s="17" t="s">
         <v>230</v>
       </c>
       <c r="B259" s="6" t="s">
@@ -4962,7 +4962,7 @@
       </c>
     </row>
     <row r="260" spans="1:3" ht="21">
-      <c r="A260" s="5" t="s">
+      <c r="A260" s="17" t="s">
         <v>230</v>
       </c>
       <c r="B260" s="6" t="s">
@@ -4973,52 +4973,52 @@
       </c>
     </row>
     <row r="261" spans="1:3" ht="21">
-      <c r="A261" s="5" t="s">
+      <c r="A261" s="17" t="s">
         <v>230</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C261" s="4" t="s">
-        <v>4</v>
+      <c r="C261" s="42">
+        <v>35</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="21">
-      <c r="A262" s="5" t="s">
-        <v>230</v>
+      <c r="A262" s="16" t="s">
+        <v>532</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>255</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>4</v>
+        <v>476</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="21">
-      <c r="A263" s="5" t="s">
-        <v>230</v>
+      <c r="A263" s="17" t="s">
+        <v>532</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>256</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>4</v>
+        <v>473</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="21">
-      <c r="A264" s="5" t="s">
-        <v>230</v>
+      <c r="A264" s="17" t="s">
+        <v>532</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C264" s="4" t="s">
+      <c r="C264" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="21">
-      <c r="A265" s="5" t="s">
-        <v>230</v>
+      <c r="A265" s="39" t="s">
+        <v>532</v>
       </c>
       <c r="B265" s="6" t="s">
         <v>258</v>
@@ -5039,7 +5039,7 @@
       </c>
     </row>
     <row r="267" spans="1:3" ht="21">
-      <c r="A267" s="5" t="s">
+      <c r="A267" s="17" t="s">
         <v>230</v>
       </c>
       <c r="B267" s="6" t="s">
@@ -8016,6 +8016,7 @@
     <hyperlink ref="B503" r:id="rId471" xr:uid="{09984646-9853-4638-84E4-7A8C6452FC53}"/>
     <hyperlink ref="C252" location="Sheet1!A503" display="503" xr:uid="{94974348-B42E-4C45-B1DD-A884D6CE3CEC}"/>
     <hyperlink ref="B504" r:id="rId472" xr:uid="{3608F226-F9CC-42B8-BBBB-1BE2A611B9BD}"/>
+    <hyperlink ref="C261" location="Sheet1!A35" display="35" xr:uid="{8C1AF170-3C69-4B2D-8143-B987E03979F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId473"/>

--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20714617-B98B-409E-8BD4-D5F2D31BBE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928D7C15-E5A8-4F13-881F-D8646D5A69DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1833,7 +1833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1973,6 +1973,10 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2302,7 +2306,7 @@
   <dimension ref="A1:C504"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B265" sqref="B265"/>
+      <selection activeCell="A272" sqref="A272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -5050,18 +5054,18 @@
       </c>
     </row>
     <row r="268" spans="1:3" ht="21">
-      <c r="A268" s="5" t="s">
+      <c r="A268" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="B268" s="6" t="s">
+      <c r="B268" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="C268" s="4" t="s">
+      <c r="C268" s="51" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="21">
-      <c r="A269" s="5" t="s">
+      <c r="A269" s="17" t="s">
         <v>230</v>
       </c>
       <c r="B269" s="6" t="s">
@@ -5072,7 +5076,7 @@
       </c>
     </row>
     <row r="270" spans="1:3" ht="21">
-      <c r="A270" s="5" t="s">
+      <c r="A270" s="17" t="s">
         <v>230</v>
       </c>
       <c r="B270" s="6" t="s">
@@ -5083,7 +5087,7 @@
       </c>
     </row>
     <row r="271" spans="1:3" ht="21">
-      <c r="A271" s="5" t="s">
+      <c r="A271" s="17" t="s">
         <v>230</v>
       </c>
       <c r="B271" s="6" t="s">
@@ -5094,8 +5098,8 @@
       </c>
     </row>
     <row r="272" spans="1:3" ht="21">
-      <c r="A272" s="5" t="s">
-        <v>230</v>
+      <c r="A272" s="17" t="s">
+        <v>532</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>264</v>

--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928D7C15-E5A8-4F13-881F-D8646D5A69DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A7478F-D814-4399-B668-0E158050B289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="541">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1642,6 +1642,12 @@
   </si>
   <si>
     <t>Maximum sum difference</t>
+  </si>
+  <si>
+    <t>Bit Manipulation*</t>
+  </si>
+  <si>
+    <t>Beautiful!</t>
   </si>
 </sst>
 </file>
@@ -1986,8 +1992,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC000"/>
       <color rgb="FF0066FF"/>
-      <color rgb="FFFFC000"/>
       <color rgb="FF6BFF29"/>
       <color rgb="FFEA0000"/>
       <color rgb="FF0000FF"/>
@@ -2305,8 +2311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A272" sqref="A272"/>
+    <sheetView tabSelected="1" topLeftCell="A468" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C475" sqref="C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -7193,8 +7199,8 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21">
-      <c r="A472" s="5" t="s">
-        <v>453</v>
+      <c r="A472" s="17" t="s">
+        <v>539</v>
       </c>
       <c r="B472" s="6" t="s">
         <v>454</v>
@@ -7204,8 +7210,8 @@
       </c>
     </row>
     <row r="473" spans="1:3" ht="21">
-      <c r="A473" s="5" t="s">
-        <v>453</v>
+      <c r="A473" s="17" t="s">
+        <v>539</v>
       </c>
       <c r="B473" s="6" t="s">
         <v>455</v>
@@ -7215,7 +7221,7 @@
       </c>
     </row>
     <row r="474" spans="1:3" ht="21">
-      <c r="A474" s="5" t="s">
+      <c r="A474" s="17" t="s">
         <v>453</v>
       </c>
       <c r="B474" s="6" t="s">
@@ -7226,19 +7232,19 @@
       </c>
     </row>
     <row r="475" spans="1:3" ht="21">
-      <c r="A475" s="5" t="s">
-        <v>453</v>
+      <c r="A475" s="16" t="s">
+        <v>539</v>
       </c>
       <c r="B475" s="6" t="s">
         <v>457</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>4</v>
+        <v>540</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="21">
-      <c r="A476" s="5" t="s">
-        <v>453</v>
+      <c r="A476" s="17" t="s">
+        <v>539</v>
       </c>
       <c r="B476" s="6" t="s">
         <v>458</v>

--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A7478F-D814-4399-B668-0E158050B289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8117B086-CC4C-426D-B49A-B1053C95C3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2311,8 +2311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A468" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C475" sqref="C475"/>
+    <sheetView tabSelected="1" topLeftCell="A466" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B481" sqref="B481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -7254,7 +7254,7 @@
       </c>
     </row>
     <row r="477" spans="1:3" ht="21">
-      <c r="A477" s="5" t="s">
+      <c r="A477" s="17" t="s">
         <v>453</v>
       </c>
       <c r="B477" s="6" t="s">
@@ -7265,8 +7265,8 @@
       </c>
     </row>
     <row r="478" spans="1:3" ht="21">
-      <c r="A478" s="5" t="s">
-        <v>453</v>
+      <c r="A478" s="17" t="s">
+        <v>539</v>
       </c>
       <c r="B478" s="6" t="s">
         <v>460</v>
@@ -7276,8 +7276,8 @@
       </c>
     </row>
     <row r="479" spans="1:3" ht="21">
-      <c r="A479" s="5" t="s">
-        <v>453</v>
+      <c r="A479" s="17" t="s">
+        <v>539</v>
       </c>
       <c r="B479" s="6" t="s">
         <v>461</v>
@@ -7287,8 +7287,8 @@
       </c>
     </row>
     <row r="480" spans="1:3" ht="21">
-      <c r="A480" s="5" t="s">
-        <v>453</v>
+      <c r="A480" s="17" t="s">
+        <v>539</v>
       </c>
       <c r="B480" s="6" t="s">
         <v>462</v>
@@ -7298,8 +7298,8 @@
       </c>
     </row>
     <row r="481" spans="1:3" ht="21">
-      <c r="A481" s="5" t="s">
-        <v>453</v>
+      <c r="A481" s="17" t="s">
+        <v>539</v>
       </c>
       <c r="B481" s="6" t="s">
         <v>463</v>

--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8117B086-CC4C-426D-B49A-B1053C95C3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDD6FC8-39CB-4E6B-8885-AAB8EC32161F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="544">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1648,6 +1648,15 @@
   </si>
   <si>
     <t>Beautiful!</t>
+  </si>
+  <si>
+    <t>Trie*</t>
+  </si>
+  <si>
+    <t>NAICE!!</t>
+  </si>
+  <si>
+    <t>TLE, Multiple ways</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1734,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1810,6 +1819,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1839,7 +1854,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1983,6 +1998,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1992,8 +2008,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0066FF"/>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FF11FFF4"/>
+      <color rgb="FF29E0FF"/>
       <color rgb="FFFFC000"/>
-      <color rgb="FF0066FF"/>
       <color rgb="FF6BFF29"/>
       <color rgb="FFEA0000"/>
       <color rgb="FF0000FF"/>
@@ -2311,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B481" sqref="B481"/>
+    <sheetView tabSelected="1" topLeftCell="A400" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A406" sqref="A406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -6456,7 +6475,7 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21">
-      <c r="A402" s="8" t="s">
+      <c r="A402" s="23" t="s">
         <v>387</v>
       </c>
       <c r="B402" s="6" t="s">
@@ -6467,8 +6486,8 @@
       </c>
     </row>
     <row r="403" spans="1:3" ht="21">
-      <c r="A403" s="8" t="s">
-        <v>387</v>
+      <c r="A403" s="23" t="s">
+        <v>541</v>
       </c>
       <c r="B403" s="6" t="s">
         <v>389</v>
@@ -6478,19 +6497,19 @@
       </c>
     </row>
     <row r="404" spans="1:3" ht="21">
-      <c r="A404" s="8" t="s">
+      <c r="A404" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B404" s="6" t="s">
+      <c r="B404" s="53" t="s">
         <v>390</v>
       </c>
-      <c r="C404" s="4" t="s">
-        <v>4</v>
+      <c r="C404" s="38" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="21">
-      <c r="A405" s="8" t="s">
-        <v>387</v>
+      <c r="A405" s="23" t="s">
+        <v>541</v>
       </c>
       <c r="B405" s="6" t="s">
         <v>89</v>
@@ -6500,7 +6519,7 @@
       </c>
     </row>
     <row r="406" spans="1:3" ht="21">
-      <c r="A406" s="8" t="s">
+      <c r="A406" s="23" t="s">
         <v>387</v>
       </c>
       <c r="B406" s="6" t="s">
@@ -6511,14 +6530,14 @@
       </c>
     </row>
     <row r="407" spans="1:3" ht="21">
-      <c r="A407" s="8" t="s">
+      <c r="A407" s="23" t="s">
         <v>387</v>
       </c>
       <c r="B407" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C407" s="4" t="s">
-        <v>4</v>
+      <c r="C407" s="38" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="21">

--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDD6FC8-39CB-4E6B-8885-AAB8EC32161F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C762E7-D55F-44F1-BBC0-F70F0DD99131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="552">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1657,6 +1657,30 @@
   </si>
   <si>
     <t>TLE, Multiple ways</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Bit Magic</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Multiple Approaches</t>
+  </si>
+  <si>
+    <t>Maximum And</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Similar to 88</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1999,6 +2023,20 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2010,9 +2048,9 @@
     <mruColors>
       <color rgb="FF0066FF"/>
       <color rgb="FFFFFFFF"/>
+      <color rgb="FFFFC000"/>
       <color rgb="FF11FFF4"/>
       <color rgb="FF29E0FF"/>
-      <color rgb="FFFFC000"/>
       <color rgb="FF6BFF29"/>
       <color rgb="FFEA0000"/>
       <color rgb="FF0000FF"/>
@@ -2328,10 +2366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C504"/>
+  <dimension ref="A1:C505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -2368,7 +2406,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="21">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2379,7 +2417,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="48" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2390,14 +2428,14 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="48" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -2444,30 +2482,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A13" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21">
-      <c r="A14" s="5" t="s">
+      <c r="C13" s="11" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A14" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
+      <c r="C14" s="11" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -2485,7 +2523,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>4</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
@@ -2510,63 +2548,63 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A19" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="21">
-      <c r="A20" s="5" t="s">
+      <c r="C19" s="11" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A20" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="21">
-      <c r="A21" s="5" t="s">
+      <c r="C20" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="61" customFormat="1" ht="21">
+      <c r="A21" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="21">
-      <c r="A22" s="5" t="s">
+      <c r="C21" s="38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A22" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="21">
-      <c r="A23" s="5" t="s">
+      <c r="C22" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A23" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -2576,31 +2614,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A25" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21">
-      <c r="A27" s="5" t="s">
-        <v>5</v>
+      <c r="A27" s="17" t="s">
+        <v>466</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>27</v>
@@ -2609,30 +2647,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A28" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -2643,13 +2681,13 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="21">
-      <c r="A31" s="5" t="s">
-        <v>5</v>
+      <c r="A31" s="17" t="s">
+        <v>466</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="38" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2660,7 +2698,7 @@
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2671,12 +2709,12 @@
       <c r="B33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -2687,7 +2725,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="21">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -2787,19 +2825,19 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="21">
-      <c r="A47" s="8" t="s">
-        <v>42</v>
+      <c r="A47" s="23" t="s">
+        <v>467</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>46</v>
@@ -2868,7 +2906,7 @@
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="48" t="s">
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -2879,7 +2917,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="48" t="s">
         <v>53</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -2890,7 +2928,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="48" t="s">
         <v>53</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -2901,7 +2939,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="48" t="s">
         <v>53</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -2912,7 +2950,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="21">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="48" t="s">
         <v>53</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -2923,7 +2961,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="21">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="48" t="s">
         <v>53</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -2934,7 +2972,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="21">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="48" t="s">
         <v>53</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -2943,46 +2981,46 @@
       <c r="C62" s="4"/>
     </row>
     <row r="63" spans="1:3" ht="21">
-      <c r="A63" s="5" t="s">
-        <v>53</v>
+      <c r="A63" s="17" t="s">
+        <v>468</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>4</v>
+      <c r="C63" s="38" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="21">
-      <c r="A64" s="5" t="s">
-        <v>53</v>
+      <c r="A64" s="17" t="s">
+        <v>468</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="21">
-      <c r="A65" s="5" t="s">
+      <c r="C64" s="38" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A65" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="21">
-      <c r="A66" s="5" t="s">
+      <c r="C65" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A66" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2998,77 +3036,77 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="21">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="17" t="s">
         <v>53</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>4</v>
+      <c r="C68" s="38" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="21">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="17" t="s">
         <v>53</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="21">
-      <c r="A70" s="5" t="s">
+      <c r="C69" s="38" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A70" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="21">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="17" t="s">
         <v>53</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>4</v>
+      <c r="C71" s="38" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="21">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="17" t="s">
         <v>53</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="21">
-      <c r="A73" s="5" t="s">
+      <c r="C72" s="38" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="57" customFormat="1" ht="21">
+      <c r="A73" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="4"/>
-    </row>
-    <row r="74" spans="1:3" ht="21">
-      <c r="A74" s="5" t="s">
+      <c r="C73" s="33"/>
+    </row>
+    <row r="74" spans="1:3" s="57" customFormat="1" ht="21">
+      <c r="A74" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="4"/>
+      <c r="C74" s="33"/>
     </row>
     <row r="75" spans="1:3" ht="21">
       <c r="A75" s="5" t="s">
@@ -3081,26 +3119,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A76" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="21">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="17" t="s">
         <v>53</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>4</v>
+      <c r="C77" s="38" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="21">
@@ -3136,23 +3174,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="21">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A81" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="4"/>
-    </row>
-    <row r="82" spans="1:3" ht="21">
-      <c r="A82" s="5" t="s">
+      <c r="C81" s="11"/>
+    </row>
+    <row r="82" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A82" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="4"/>
+      <c r="C82" s="11"/>
     </row>
     <row r="83" spans="1:3" ht="21">
       <c r="A83" s="5" t="s">
@@ -3176,30 +3214,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="21">
-      <c r="A85" s="5" t="s">
+    <row r="85" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A85" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="21">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="17" t="s">
         <v>53</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>4</v>
+      <c r="C86" s="38" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="21">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -3209,26 +3247,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="21">
-      <c r="A88" s="5" t="s">
+    <row r="88" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A88" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="21">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="17" t="s">
         <v>53</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>4</v>
+      <c r="C89" s="38" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="21">
@@ -3241,14 +3279,14 @@
       <c r="C90" s="4"/>
     </row>
     <row r="91" spans="1:3" ht="21">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="17" t="s">
         <v>53</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>4</v>
+      <c r="C91" s="38" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="21">
@@ -3258,7 +3296,9 @@
       <c r="B92" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="4"/>
+      <c r="C92" s="4" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="93" spans="1:3" ht="21">
       <c r="A93" s="5" t="s">
@@ -3294,7 +3334,9 @@
       <c r="B96" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="4"/>
+      <c r="C96" s="4" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="97" spans="1:3" ht="21">
       <c r="A97" s="5" t="s">
@@ -3732,14 +3774,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="21">
-      <c r="A140" s="8" t="s">
+    <row r="140" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A140" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3853,25 +3895,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="21">
-      <c r="A151" s="8" t="s">
+    <row r="151" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A151" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="C151" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="21">
-      <c r="A152" s="8" t="s">
+      <c r="C151" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A152" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3961,14 +4003,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="21">
-      <c r="A161" s="8" t="s">
+    <row r="161" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A161" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3983,14 +4025,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="21">
-      <c r="A163" s="8" t="s">
+    <row r="163" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A163" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C163" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4016,23 +4058,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="21">
-      <c r="A166" s="8" t="s">
+    <row r="166" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A166" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="C166" s="4"/>
-    </row>
-    <row r="167" spans="1:3" ht="21">
-      <c r="A167" s="8" t="s">
+      <c r="C166" s="11"/>
+    </row>
+    <row r="167" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A167" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="C167" s="4"/>
+      <c r="C167" s="11"/>
     </row>
     <row r="168" spans="1:3" ht="21">
       <c r="A168" s="8" t="s">
@@ -4054,50 +4096,50 @@
       </c>
       <c r="C169" s="4"/>
     </row>
-    <row r="170" spans="1:3" ht="21">
-      <c r="A170" s="8" t="s">
+    <row r="170" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A170" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="C170" s="4"/>
-    </row>
-    <row r="171" spans="1:3" ht="21">
-      <c r="A171" s="8" t="s">
+      <c r="C170" s="11"/>
+    </row>
+    <row r="171" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A171" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="C171" s="4"/>
-    </row>
-    <row r="172" spans="1:3" ht="21">
-      <c r="A172" s="8" t="s">
+      <c r="C171" s="11"/>
+    </row>
+    <row r="172" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A172" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="C172" s="4"/>
-    </row>
-    <row r="173" spans="1:3" ht="21">
-      <c r="A173" s="8" t="s">
+      <c r="C172" s="11"/>
+    </row>
+    <row r="173" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A173" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="C173" s="4"/>
-    </row>
-    <row r="174" spans="1:3" ht="21">
-      <c r="A174" s="8" t="s">
+      <c r="C173" s="11"/>
+    </row>
+    <row r="174" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A174" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="C174" s="4"/>
+      <c r="C174" s="11"/>
     </row>
     <row r="176" spans="1:3" ht="21">
       <c r="B176" s="7"/>
@@ -5359,7 +5401,7 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="5" t="s">
+      <c r="A296" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B296" s="6" t="s">
@@ -5370,7 +5412,7 @@
       </c>
     </row>
     <row r="297" spans="1:3" ht="21">
-      <c r="A297" s="5" t="s">
+      <c r="A297" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B297" s="6" t="s">
@@ -5380,50 +5422,50 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="21">
-      <c r="A298" s="5" t="s">
+    <row r="298" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A298" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B298" s="6" t="s">
+      <c r="B298" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="C298" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="21">
-      <c r="A299" s="5" t="s">
+      <c r="C298" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A299" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B299" s="6" t="s">
+      <c r="B299" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="C299" s="4"/>
-    </row>
-    <row r="300" spans="1:3" ht="21">
-      <c r="A300" s="5" t="s">
+      <c r="C299" s="11"/>
+    </row>
+    <row r="300" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A300" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B300" s="6" t="s">
+      <c r="B300" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="C300" s="4" t="s">
+      <c r="C300" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="21">
-      <c r="A301" s="5" t="s">
+      <c r="A301" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B301" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C301" s="4" t="s">
-        <v>4</v>
+      <c r="C301" s="42">
+        <v>71</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="21">
-      <c r="A302" s="5" t="s">
+      <c r="A302" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B302" s="6" t="s">
@@ -5432,7 +5474,7 @@
       <c r="C302" s="4"/>
     </row>
     <row r="303" spans="1:3" ht="21">
-      <c r="A303" s="5" t="s">
+      <c r="A303" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B303" s="6" t="s">
@@ -5443,7 +5485,7 @@
       </c>
     </row>
     <row r="304" spans="1:3" ht="21">
-      <c r="A304" s="5" t="s">
+      <c r="A304" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B304" s="6" t="s">
@@ -5453,41 +5495,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="21">
-      <c r="A305" s="5" t="s">
+    <row r="305" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A305" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B305" s="6" t="s">
+      <c r="B305" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="C305" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="21">
-      <c r="A306" s="5" t="s">
+      <c r="C305" s="38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A306" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B306" s="6" t="s">
+      <c r="B306" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="C306" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="21">
-      <c r="A307" s="5" t="s">
+      <c r="C306" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A307" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B307" s="6" t="s">
+      <c r="B307" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="C307" s="4" t="s">
+      <c r="C307" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="21">
-      <c r="A308" s="5" t="s">
+      <c r="A308" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B308" s="6" t="s">
@@ -5497,36 +5539,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="21">
-      <c r="A309" s="5" t="s">
+    <row r="309" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A309" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B309" s="9" t="s">
+      <c r="B309" s="60" t="s">
         <v>299</v>
       </c>
-      <c r="C309" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="21">
-      <c r="A310" s="5" t="s">
+      <c r="C309" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A310" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B310" s="6" t="s">
+      <c r="B310" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="C310" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="21">
-      <c r="A311" s="5" t="s">
+      <c r="C310" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A311" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B311" s="6" t="s">
+      <c r="B311" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="C311" s="4" t="s">
+      <c r="C311" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5541,30 +5583,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="21">
-      <c r="A313" s="5" t="s">
+    <row r="313" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A313" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B313" s="6" t="s">
+      <c r="B313" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="C313" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="21">
-      <c r="A314" s="5" t="s">
+      <c r="C313" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A314" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B314" s="6" t="s">
+      <c r="B314" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="C314" s="4" t="s">
+      <c r="C314" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="21">
-      <c r="A315" s="5" t="s">
+      <c r="A315" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B315" s="6" t="s">
@@ -5574,39 +5616,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="21">
-      <c r="A316" s="5" t="s">
+    <row r="316" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A316" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B316" s="6" t="s">
+      <c r="B316" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="C316" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" ht="21">
-      <c r="A317" s="5" t="s">
+      <c r="C316" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A317" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B317" s="6" t="s">
+      <c r="B317" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="C317" s="4"/>
-    </row>
-    <row r="318" spans="1:3" ht="21">
-      <c r="A318" s="5" t="s">
+      <c r="C317" s="11"/>
+    </row>
+    <row r="318" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A318" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B318" s="6" t="s">
+      <c r="B318" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="C318" s="4" t="s">
+      <c r="C318" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="21">
-      <c r="A319" s="5" t="s">
+      <c r="A319" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B319" s="6" t="s">
@@ -5617,7 +5659,7 @@
       </c>
     </row>
     <row r="320" spans="1:3" ht="21">
-      <c r="A320" s="5" t="s">
+      <c r="A320" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B320" s="6" t="s">
@@ -5628,7 +5670,7 @@
       </c>
     </row>
     <row r="321" spans="1:3" ht="21">
-      <c r="A321" s="5" t="s">
+      <c r="A321" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B321" s="6" t="s">
@@ -5639,7 +5681,7 @@
       </c>
     </row>
     <row r="322" spans="1:3" ht="21">
-      <c r="A322" s="5" t="s">
+      <c r="A322" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B322" s="6" t="s">
@@ -5650,7 +5692,7 @@
       </c>
     </row>
     <row r="323" spans="1:3" ht="21">
-      <c r="A323" s="5" t="s">
+      <c r="A323" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B323" s="6" t="s">
@@ -5660,19 +5702,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="21">
-      <c r="A324" s="5" t="s">
+    <row r="324" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A324" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B324" s="6" t="s">
+      <c r="B324" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="C324" s="4" t="s">
+      <c r="C324" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="21">
-      <c r="A325" s="5" t="s">
+      <c r="A325" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B325" s="6" t="s">
@@ -5683,7 +5725,7 @@
       </c>
     </row>
     <row r="326" spans="1:3" ht="21">
-      <c r="A326" s="5" t="s">
+      <c r="A326" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B326" s="6" t="s">
@@ -5694,7 +5736,7 @@
       </c>
     </row>
     <row r="327" spans="1:3" ht="21">
-      <c r="A327" s="5" t="s">
+      <c r="A327" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B327" s="6" t="s">
@@ -5705,7 +5747,7 @@
       </c>
     </row>
     <row r="328" spans="1:3" ht="21">
-      <c r="A328" s="5" t="s">
+      <c r="A328" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B328" s="6" t="s">
@@ -5716,7 +5758,7 @@
       </c>
     </row>
     <row r="329" spans="1:3" ht="21">
-      <c r="A329" s="5" t="s">
+      <c r="A329" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B329" s="6" t="s">
@@ -5727,7 +5769,7 @@
       </c>
     </row>
     <row r="330" spans="1:3" ht="21">
-      <c r="A330" s="5" t="s">
+      <c r="A330" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B330" s="6" t="s">
@@ -5738,7 +5780,7 @@
       </c>
     </row>
     <row r="331" spans="1:3" ht="21">
-      <c r="A331" s="5" t="s">
+      <c r="A331" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B331" s="6" t="s">
@@ -5749,7 +5791,7 @@
       </c>
     </row>
     <row r="332" spans="1:3" ht="21">
-      <c r="A332" s="5" t="s">
+      <c r="A332" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B332" s="6" t="s">
@@ -5759,14 +5801,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="21">
-      <c r="A333" s="5" t="s">
+    <row r="333" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A333" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B333" s="6" t="s">
+      <c r="B333" s="54" t="s">
         <v>323</v>
       </c>
-      <c r="C333" s="4"/>
+      <c r="C333" s="11"/>
     </row>
     <row r="334" spans="1:3" ht="21">
       <c r="B334" s="7"/>
@@ -5831,14 +5873,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="21">
-      <c r="A341" s="8" t="s">
+    <row r="341" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A341" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="B341" s="6" t="s">
+      <c r="B341" s="54" t="s">
         <v>330</v>
       </c>
-      <c r="C341" s="4" t="s">
+      <c r="C341" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5864,14 +5906,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="21">
-      <c r="A344" s="8" t="s">
+    <row r="344" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A344" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="B344" s="9" t="s">
+      <c r="B344" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="C344" s="4" t="s">
+      <c r="C344" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5919,14 +5961,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="21">
-      <c r="A349" s="8" t="s">
+    <row r="349" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A349" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="B349" s="6" t="s">
+      <c r="B349" s="54" t="s">
         <v>338</v>
       </c>
-      <c r="C349" s="4" t="s">
+      <c r="C349" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6621,8 +6663,8 @@
       <c r="B416" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C416" s="4" t="s">
-        <v>4</v>
+      <c r="C416" s="42">
+        <v>69</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="21">
@@ -6698,8 +6740,8 @@
       <c r="B423" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C423" s="4" t="s">
-        <v>4</v>
+      <c r="C423" s="42">
+        <v>86</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="21">
@@ -7006,8 +7048,8 @@
       <c r="B451" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C451" s="4" t="s">
-        <v>4</v>
+      <c r="C451" s="42">
+        <v>77</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="21">
@@ -7116,8 +7158,8 @@
       <c r="B461" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C461" s="4" t="s">
-        <v>4</v>
+      <c r="C461" s="42">
+        <v>68</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="21">
@@ -7556,6 +7598,17 @@
       </c>
       <c r="C504" s="35" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" ht="21">
+      <c r="A505" s="58" t="s">
+        <v>453</v>
+      </c>
+      <c r="B505" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C505" s="59" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -8046,8 +8099,15 @@
     <hyperlink ref="C252" location="Sheet1!A503" display="503" xr:uid="{94974348-B42E-4C45-B1DD-A884D6CE3CEC}"/>
     <hyperlink ref="B504" r:id="rId472" xr:uid="{3608F226-F9CC-42B8-BBBB-1BE2A611B9BD}"/>
     <hyperlink ref="C261" location="Sheet1!A35" display="35" xr:uid="{8C1AF170-3C69-4B2D-8143-B987E03979F8}"/>
+    <hyperlink ref="C461" location="Sheet1!A68" display="&lt;-&gt;" xr:uid="{3C8D7E6C-E6ED-4EC5-A120-DE38735662CC}"/>
+    <hyperlink ref="C416" location="Sheet1!A69" display="Sheet1!A69" xr:uid="{F23D900D-A20B-426D-AF6E-E3A6D55BE0FE}"/>
+    <hyperlink ref="C301" location="Sheet1!A71" display="Sheet1!A71" xr:uid="{1F89F922-17F6-4C92-9C33-54933D50D207}"/>
+    <hyperlink ref="C423" location="Sheet1!A86" display="Sheet1!A86" xr:uid="{54DF8392-D8CD-4823-AE84-72D0618F22A9}"/>
+    <hyperlink ref="C451" location="Sheet1!A77" display="Sheet1!A77" xr:uid="{685EB7CC-B441-4899-9DF0-4CC0596F9403}"/>
+    <hyperlink ref="B505" r:id="rId473" xr:uid="{81BBCFBE-9628-448E-AF82-C3A3654513E6}"/>
+    <hyperlink ref="C505" r:id="rId474" location="comment-860000" xr:uid="{0614EEF5-9724-4852-A088-FBBC4510C427}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId473"/>
+  <pageSetup orientation="portrait" r:id="rId475"/>
 </worksheet>
 </file>
--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C762E7-D55F-44F1-BBC0-F70F0DD99131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B7DF72-04CE-40B3-811B-73A3B28AA29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="560">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1662,9 +1662,6 @@
     <t>Sort</t>
   </si>
   <si>
-    <t>To Do</t>
-  </si>
-  <si>
     <t>Bit Magic</t>
   </si>
   <si>
@@ -1681,6 +1678,33 @@
   </si>
   <si>
     <t>Similar to 88</t>
+  </si>
+  <si>
+    <t>Merge</t>
+  </si>
+  <si>
+    <t>Trickey</t>
+  </si>
+  <si>
+    <t>Also Trickey</t>
+  </si>
+  <si>
+    <t>Swap &amp; Sort</t>
+  </si>
+  <si>
+    <t>Hashing</t>
+  </si>
+  <si>
+    <t>Slightly Trickey</t>
+  </si>
+  <si>
+    <t>Start from the back</t>
+  </si>
+  <si>
+    <t>O(NLogN), O(N)</t>
+  </si>
+  <si>
+    <t>Sorting, Start from the back</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +1782,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1849,6 +1873,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF29E0FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1878,7 +1908,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2037,6 +2067,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2047,10 +2080,10 @@
   <colors>
     <mruColors>
       <color rgb="FF0066FF"/>
+      <color rgb="FF29E0FF"/>
       <color rgb="FFFFFFFF"/>
       <color rgb="FFFFC000"/>
       <color rgb="FF11FFF4"/>
-      <color rgb="FF29E0FF"/>
       <color rgb="FF6BFF29"/>
       <color rgb="FFEA0000"/>
       <color rgb="FF0000FF"/>
@@ -2369,7 +2402,7 @@
   <dimension ref="A1:C505"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -2482,48 +2515,48 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:3" s="61" customFormat="1" ht="21">
+      <c r="A13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A14" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="54" t="s">
+      <c r="C13" s="38" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="57" customFormat="1" ht="21">
+      <c r="A14" s="39" t="s">
+        <v>466</v>
+      </c>
+      <c r="B14" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>545</v>
+      <c r="C14" s="38" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
-      <c r="A15" s="17" t="s">
-        <v>5</v>
+      <c r="A15" s="39" t="s">
+        <v>466</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
+      <c r="C15" s="38" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>546</v>
+      <c r="C16" s="38" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
@@ -2548,59 +2581,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:3" s="57" customFormat="1" ht="21">
+      <c r="A19" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="57" customFormat="1" ht="21">
+      <c r="A20" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A20" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="61" customFormat="1" ht="21">
-      <c r="A21" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="53" t="s">
+      <c r="C20" s="38" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="57" customFormat="1" ht="21">
+      <c r="A21" s="39" t="s">
+        <v>466</v>
+      </c>
+      <c r="B21" s="56" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A22" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="54" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="57" customFormat="1" ht="21">
+      <c r="A22" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="B22" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A23" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="54" t="s">
+      <c r="C22" s="33" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="57" customFormat="1" ht="21">
+      <c r="A23" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="B23" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>4</v>
+      <c r="C23" s="38" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21">
@@ -2614,26 +2647,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A25" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="54" t="s">
+    <row r="25" spans="1:3" s="57" customFormat="1" ht="21">
+      <c r="A25" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="B25" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>4</v>
+      <c r="C25" s="38" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21">
       <c r="A26" s="17" t="s">
-        <v>5</v>
+        <v>466</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>4</v>
+      <c r="C26" s="38" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21">
@@ -2647,26 +2680,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A28" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="54" t="s">
+    <row r="28" spans="1:3" s="57" customFormat="1" ht="21">
+      <c r="A28" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="B28" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="21">
+      <c r="C28" s="62" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="57" customFormat="1" ht="21">
       <c r="A29" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B29" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>4</v>
+      <c r="C29" s="38" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21">
@@ -2692,25 +2725,25 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="21">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>4</v>
+        <v>555</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21">
-      <c r="A33" s="5" t="s">
-        <v>5</v>
+      <c r="A33" s="17" t="s">
+        <v>466</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>4</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">
@@ -3076,7 +3109,7 @@
         <v>69</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="21">
@@ -3087,7 +3120,7 @@
         <v>70</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="57" customFormat="1" ht="21">
@@ -3266,7 +3299,7 @@
         <v>87</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="21">
@@ -3297,7 +3330,7 @@
         <v>90</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="21">
@@ -7605,10 +7638,10 @@
         <v>453</v>
       </c>
       <c r="B505" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C505" s="59" t="s">
         <v>549</v>
-      </c>
-      <c r="C505" s="59" t="s">
-        <v>550</v>
       </c>
     </row>
   </sheetData>

--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B7DF72-04CE-40B3-811B-73A3B28AA29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D8F817-CA40-44A7-ABDD-F6C847733932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="563">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1705,6 +1705,15 @@
   </si>
   <si>
     <t>Sorting, Start from the back</t>
+  </si>
+  <si>
+    <t>Recurrsion</t>
+  </si>
+  <si>
+    <t>Look both ways</t>
+  </si>
+  <si>
+    <t>Two Pointer</t>
   </si>
 </sst>
 </file>
@@ -2079,8 +2088,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF29E0FF"/>
       <color rgb="FF0066FF"/>
-      <color rgb="FF29E0FF"/>
       <color rgb="FFFFFFFF"/>
       <color rgb="FFFFC000"/>
       <color rgb="FF11FFF4"/>
@@ -2401,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -2836,13 +2845,13 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="23" t="s">
         <v>467</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2859,12 +2868,12 @@
     </row>
     <row r="46" spans="1:3" ht="21">
       <c r="A46" s="23" t="s">
-        <v>42</v>
+        <v>467</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="33" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2898,16 +2907,16 @@
       <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3" ht="21">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="23" t="s">
         <v>467</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="4"/>
+      <c r="C50" s="38"/>
     </row>
     <row r="51" spans="1:3" ht="21">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="23" t="s">
         <v>467</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -2989,7 +2998,7 @@
       <c r="B60" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="38" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3035,26 +3044,26 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A65" s="30" t="s">
+    <row r="65" spans="1:3" s="57" customFormat="1" ht="21">
+      <c r="A65" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="54" t="s">
+      <c r="B65" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A66" s="30" t="s">
+      <c r="C65" s="33" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="57" customFormat="1" ht="21">
+      <c r="A66" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="54" t="s">
+      <c r="B66" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="11" t="s">
-        <v>4</v>
+      <c r="C66" s="33" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="21">
@@ -3090,15 +3099,15 @@
         <v>473</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A70" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" s="54" t="s">
+    <row r="70" spans="1:3" s="57" customFormat="1" ht="21">
+      <c r="A70" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="B70" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>4</v>
+      <c r="C70" s="62" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="21">
@@ -3152,15 +3161,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A76" s="30" t="s">
+    <row r="76" spans="1:3" s="57" customFormat="1" ht="21">
+      <c r="A76" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="54" t="s">
+      <c r="B76" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>4</v>
+      <c r="C76" s="33" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="21">
@@ -3207,23 +3216,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A81" s="30" t="s">
+    <row r="81" spans="1:3" s="57" customFormat="1" ht="21">
+      <c r="A81" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="B81" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="33"/>
+    </row>
+    <row r="82" spans="1:3" s="57" customFormat="1" ht="21">
+      <c r="A82" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B81" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="C81" s="11"/>
-    </row>
-    <row r="82" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A82" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B82" s="54" t="s">
+      <c r="B82" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="11"/>
+      <c r="C82" s="33"/>
     </row>
     <row r="83" spans="1:3" ht="21">
       <c r="A83" s="5" t="s">
@@ -3247,14 +3256,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A85" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B85" s="54" t="s">
+    <row r="85" spans="1:3" s="57" customFormat="1" ht="21">
+      <c r="A85" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="B85" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="33" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3270,25 +3279,25 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="21">
-      <c r="A87" s="16" t="s">
-        <v>53</v>
+      <c r="A87" s="17" t="s">
+        <v>468</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A88" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B88" s="54" t="s">
+      <c r="C87" s="38" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="57" customFormat="1" ht="21">
+      <c r="A88" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="B88" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="11" t="s">
-        <v>4</v>
+      <c r="C88" s="33" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="21">
@@ -3343,13 +3352,15 @@
       <c r="C93" s="14"/>
     </row>
     <row r="94" spans="1:3" ht="21">
-      <c r="A94" s="12" t="s">
-        <v>53</v>
+      <c r="A94" s="17" t="s">
+        <v>468</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="4"/>
+      <c r="C94" s="38" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="95" spans="1:3" ht="21">
       <c r="A95" s="5" t="s">
@@ -3387,7 +3398,7 @@
       <c r="B98" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="33" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5217,7 +5228,7 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="5" t="s">
+      <c r="A275" s="30" t="s">
         <v>265</v>
       </c>
       <c r="B275" s="6" t="s">
@@ -5239,7 +5250,7 @@
       </c>
     </row>
     <row r="277" spans="1:3" ht="21">
-      <c r="A277" s="5" t="s">
+      <c r="A277" s="30" t="s">
         <v>265</v>
       </c>
       <c r="B277" s="6" t="s">
@@ -5250,7 +5261,7 @@
       </c>
     </row>
     <row r="278" spans="1:3" ht="21">
-      <c r="A278" s="5" t="s">
+      <c r="A278" s="30" t="s">
         <v>265</v>
       </c>
       <c r="B278" s="6" t="s">
@@ -5272,7 +5283,7 @@
       </c>
     </row>
     <row r="280" spans="1:3" ht="21">
-      <c r="A280" s="5" t="s">
+      <c r="A280" s="30" t="s">
         <v>265</v>
       </c>
       <c r="B280" s="6" t="s">
@@ -5283,7 +5294,7 @@
       </c>
     </row>
     <row r="281" spans="1:3" ht="21">
-      <c r="A281" s="5" t="s">
+      <c r="A281" s="30" t="s">
         <v>265</v>
       </c>
       <c r="B281" s="6" t="s">
@@ -5294,7 +5305,7 @@
       </c>
     </row>
     <row r="282" spans="1:3" ht="21">
-      <c r="A282" s="5" t="s">
+      <c r="A282" s="30" t="s">
         <v>265</v>
       </c>
       <c r="B282" s="6" t="s">
@@ -5316,7 +5327,7 @@
       </c>
     </row>
     <row r="284" spans="1:3" ht="21">
-      <c r="A284" s="5" t="s">
+      <c r="A284" s="30" t="s">
         <v>265</v>
       </c>
       <c r="B284" s="6" t="s">
@@ -5327,7 +5338,7 @@
       </c>
     </row>
     <row r="285" spans="1:3" ht="21">
-      <c r="A285" s="5" t="s">
+      <c r="A285" s="30" t="s">
         <v>265</v>
       </c>
       <c r="B285" s="6" t="s">
@@ -5338,7 +5349,7 @@
       </c>
     </row>
     <row r="286" spans="1:3" ht="21">
-      <c r="A286" s="5" t="s">
+      <c r="A286" s="30" t="s">
         <v>265</v>
       </c>
       <c r="B286" s="6" t="s">
@@ -5349,7 +5360,7 @@
       </c>
     </row>
     <row r="287" spans="1:3" ht="21">
-      <c r="A287" s="5" t="s">
+      <c r="A287" s="30" t="s">
         <v>265</v>
       </c>
       <c r="B287" s="6" t="s">
@@ -5360,7 +5371,7 @@
       </c>
     </row>
     <row r="288" spans="1:3" ht="21">
-      <c r="A288" s="5" t="s">
+      <c r="A288" s="17" t="s">
         <v>265</v>
       </c>
       <c r="B288" s="6" t="s">
@@ -5371,7 +5382,7 @@
       </c>
     </row>
     <row r="289" spans="1:3" ht="21">
-      <c r="A289" s="5" t="s">
+      <c r="A289" s="30" t="s">
         <v>265</v>
       </c>
       <c r="B289" s="6" t="s">
@@ -5382,7 +5393,7 @@
       </c>
     </row>
     <row r="290" spans="1:3" ht="21">
-      <c r="A290" s="5" t="s">
+      <c r="A290" s="30" t="s">
         <v>265</v>
       </c>
       <c r="B290" s="6" t="s">
@@ -5393,7 +5404,7 @@
       </c>
     </row>
     <row r="291" spans="1:3" ht="21">
-      <c r="A291" s="5" t="s">
+      <c r="A291" s="30" t="s">
         <v>265</v>
       </c>
       <c r="B291" s="6" t="s">
@@ -5404,7 +5415,7 @@
       </c>
     </row>
     <row r="292" spans="1:3" ht="21">
-      <c r="A292" s="5" t="s">
+      <c r="A292" s="30" t="s">
         <v>265</v>
       </c>
       <c r="B292" s="6" t="s">
@@ -5415,7 +5426,7 @@
       </c>
     </row>
     <row r="293" spans="1:3" ht="21">
-      <c r="A293" s="5" t="s">
+      <c r="A293" s="30" t="s">
         <v>265</v>
       </c>
       <c r="B293" s="6" t="s">

--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G3\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D8F817-CA40-44A7-ABDD-F6C847733932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4ECC30-07C0-4AE3-BF8E-BE567879FCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="569">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1714,13 +1714,43 @@
   </si>
   <si>
     <t>Two Pointer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Couldn't do earlier, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRICKY</t>
+    </r>
+  </si>
+  <si>
+    <t>3 way binary search</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Advanced BS</t>
+  </si>
+  <si>
+    <t>Couldn't do earlier, TRICKY</t>
+  </si>
+  <si>
+    <t>Smart Soln.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1790,6 +1820,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -1819,12 +1856,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1888,6 +1919,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1917,7 +1954,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1956,23 +1993,17 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1987,47 +2018,47 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -2036,47 +2067,64 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2088,16 +2136,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEA0000"/>
       <color rgb="FF29E0FF"/>
+      <color rgb="FFFF66FF"/>
+      <color rgb="FFFF00FF"/>
       <color rgb="FF0066FF"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFFF"/>
       <color rgb="FFFFC000"/>
       <color rgb="FF11FFF4"/>
       <color rgb="FF6BFF29"/>
-      <color rgb="FFEA0000"/>
-      <color rgb="FF0000FF"/>
-      <color rgb="FF66FF66"/>
-      <color rgb="FFE2A51C"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2410,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -2448,7 +2496,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="21">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2459,7 +2507,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2470,7 +2518,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2524,47 +2572,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="61" customFormat="1" ht="21">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:3" s="59" customFormat="1" ht="21">
+      <c r="A13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="36" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="57" customFormat="1" ht="21">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A14" s="37" t="s">
         <v>466</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="36" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="37" t="s">
         <v>466</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="36" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="36" t="s">
         <v>545</v>
       </c>
     </row>
@@ -2580,7 +2628,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -2590,63 +2638,63 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="57" customFormat="1" ht="21">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A19" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="36" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="57" customFormat="1" ht="21">
-      <c r="A20" s="39" t="s">
+    <row r="20" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A20" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="36" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="57" customFormat="1" ht="21">
-      <c r="A21" s="39" t="s">
+    <row r="21" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A21" s="37" t="s">
         <v>466</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="14" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="57" customFormat="1" ht="21">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A22" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="31" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="57" customFormat="1" ht="21">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A23" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="36" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -2656,30 +2704,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="57" customFormat="1" ht="21">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A25" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="36" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>466</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="36" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>466</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -2689,30 +2737,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="57" customFormat="1" ht="21">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A28" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="60" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="57" customFormat="1" ht="21">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A29" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="36" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -2723,18 +2771,18 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="21">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>466</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -2745,7 +2793,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="21">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>466</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -2756,7 +2804,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -2767,7 +2815,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="21">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -2845,13 +2893,13 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="21" t="s">
         <v>467</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2867,18 +2915,18 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="21" t="s">
         <v>467</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="21">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="21" t="s">
         <v>467</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -2907,16 +2955,16 @@
       <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3" ht="21">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="21" t="s">
         <v>467</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="38"/>
+      <c r="C50" s="36"/>
     </row>
     <row r="51" spans="1:3" ht="21">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="21" t="s">
         <v>467</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -2948,7 +2996,7 @@
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="48" t="s">
+      <c r="A56" s="46" t="s">
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -2959,7 +3007,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="46" t="s">
         <v>53</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -2970,7 +3018,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
-      <c r="A58" s="48" t="s">
+      <c r="A58" s="46" t="s">
         <v>53</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -2981,7 +3029,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="46" t="s">
         <v>53</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -2992,18 +3040,18 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="21">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="46" t="s">
         <v>53</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="21">
-      <c r="A61" s="48" t="s">
+      <c r="A61" s="46" t="s">
         <v>53</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -3014,7 +3062,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="21">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="46" t="s">
         <v>53</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -3023,46 +3071,46 @@
       <c r="C62" s="4"/>
     </row>
     <row r="63" spans="1:3" ht="21">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="16" t="s">
         <v>468</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="36" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="21">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="16" t="s">
         <v>468</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="36" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="57" customFormat="1" ht="21">
-      <c r="A65" s="17" t="s">
+    <row r="65" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A65" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="56" t="s">
+      <c r="B65" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="33" t="s">
+      <c r="C65" s="31" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="57" customFormat="1" ht="21">
-      <c r="A66" s="17" t="s">
+    <row r="66" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A66" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="56" t="s">
+      <c r="B66" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C66" s="31" t="s">
         <v>560</v>
       </c>
     </row>
@@ -3078,77 +3126,77 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="21">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="36" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="21">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="36" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="57" customFormat="1" ht="21">
-      <c r="A70" s="17" t="s">
+    <row r="70" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A70" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="B70" s="56" t="s">
+      <c r="B70" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="62" t="s">
+      <c r="C70" s="60" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="21">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="36" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="21">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="36" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="57" customFormat="1" ht="21">
-      <c r="A73" s="19" t="s">
+    <row r="73" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A73" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="56" t="s">
+      <c r="B73" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="33"/>
-    </row>
-    <row r="74" spans="1:3" s="57" customFormat="1" ht="21">
-      <c r="A74" s="19" t="s">
+      <c r="C73" s="31"/>
+    </row>
+    <row r="74" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A74" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B74" s="56" t="s">
+      <c r="B74" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="33"/>
+      <c r="C74" s="31"/>
     </row>
     <row r="75" spans="1:3" ht="21">
       <c r="A75" s="5" t="s">
@@ -3161,25 +3209,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="57" customFormat="1" ht="21">
-      <c r="A76" s="17" t="s">
+    <row r="76" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A76" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="56" t="s">
+      <c r="B76" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="33" t="s">
+      <c r="C76" s="31" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="21">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C77" s="36" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3216,23 +3264,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="57" customFormat="1" ht="21">
-      <c r="A81" s="17" t="s">
+    <row r="81" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A81" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="B81" s="56" t="s">
+      <c r="B81" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="33"/>
-    </row>
-    <row r="82" spans="1:3" s="57" customFormat="1" ht="21">
-      <c r="A82" s="17" t="s">
+      <c r="C81" s="31"/>
+    </row>
+    <row r="82" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A82" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B82" s="56" t="s">
+      <c r="B82" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="33"/>
+      <c r="C82" s="31"/>
     </row>
     <row r="83" spans="1:3" ht="21">
       <c r="A83" s="5" t="s">
@@ -3256,58 +3304,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="57" customFormat="1" ht="21">
-      <c r="A85" s="17" t="s">
+    <row r="85" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A85" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="B85" s="56" t="s">
+      <c r="B85" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="33" t="s">
+      <c r="C85" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="21">
-      <c r="A86" s="17" t="s">
+      <c r="A86" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="38" t="s">
+      <c r="C86" s="36" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="21">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="16" t="s">
         <v>468</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="38" t="s">
+      <c r="C87" s="36" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="57" customFormat="1" ht="21">
-      <c r="A88" s="17" t="s">
+    <row r="88" spans="1:3" s="55" customFormat="1" ht="21">
+      <c r="A88" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="B88" s="56" t="s">
+      <c r="B88" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="31" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="21">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="38" t="s">
+      <c r="C89" s="36" t="s">
         <v>547</v>
       </c>
     </row>
@@ -3321,13 +3369,13 @@
       <c r="C90" s="4"/>
     </row>
     <row r="91" spans="1:3" ht="21">
-      <c r="A91" s="17" t="s">
+      <c r="A91" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="36" t="s">
         <v>387</v>
       </c>
     </row>
@@ -3352,13 +3400,13 @@
       <c r="C93" s="14"/>
     </row>
     <row r="94" spans="1:3" ht="21">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="16" t="s">
         <v>468</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="38" t="s">
+      <c r="C94" s="36" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3398,7 +3446,7 @@
       <c r="B98" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="33" t="s">
+      <c r="C98" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3463,18 +3511,18 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="21">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>4</v>
+      <c r="C106" s="36" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="21">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="16" t="s">
         <v>469</v>
       </c>
       <c r="B107" s="6" t="s">
@@ -3485,7 +3533,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="21">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="16" t="s">
         <v>469</v>
       </c>
       <c r="B108" s="6" t="s">
@@ -3496,7 +3544,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="21">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="16" t="s">
         <v>469</v>
       </c>
       <c r="B109" s="6" t="s">
@@ -3507,7 +3555,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="21">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="16" t="s">
         <v>469</v>
       </c>
       <c r="B110" s="6" t="s">
@@ -3529,7 +3577,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="21">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="16" t="s">
         <v>469</v>
       </c>
       <c r="B112" s="6" t="s">
@@ -3584,7 +3632,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" ht="21">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="16" t="s">
         <v>469</v>
       </c>
       <c r="B117" s="6" t="s">
@@ -3595,7 +3643,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" ht="21">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="16" t="s">
         <v>469</v>
       </c>
       <c r="B118" s="6" t="s">
@@ -3617,14 +3665,14 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="21">
-      <c r="A120" s="16" t="s">
+      <c r="A120" s="15" t="s">
         <v>469</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>4</v>
+      <c r="C120" s="49" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="21">
@@ -3634,8 +3682,8 @@
       <c r="B121" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>4</v>
+      <c r="C121" s="49" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="21">
@@ -3661,29 +3709,29 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="21">
-      <c r="A124" s="18" t="s">
+      <c r="A124" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>4</v>
+      <c r="C124" s="49" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="21">
-      <c r="A125" s="18" t="s">
+      <c r="A125" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>4</v>
+      <c r="C125" s="49" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="21">
-      <c r="A126" s="17" t="s">
+      <c r="A126" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B126" s="6" t="s">
@@ -3694,14 +3742,14 @@
       </c>
     </row>
     <row r="127" spans="1:3" ht="21">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>4</v>
+        <v>470</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="21">
@@ -3727,7 +3775,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="21">
-      <c r="A130" s="16" t="s">
+      <c r="A130" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B130" s="6" t="s">
@@ -3738,7 +3786,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="21">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="16" t="s">
         <v>469</v>
       </c>
       <c r="B131" s="6" t="s">
@@ -3749,25 +3797,25 @@
       </c>
     </row>
     <row r="132" spans="1:3" ht="21">
-      <c r="A132" s="19" t="s">
+      <c r="A132" s="16" t="s">
         <v>469</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>4</v>
+      <c r="C132" s="60" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="21">
-      <c r="A133" s="12" t="s">
+      <c r="A133" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>4</v>
+      <c r="C133" s="41" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="21">
@@ -3777,18 +3825,18 @@
       <c r="B134" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="21">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="37" t="s">
         <v>469</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3796,10 +3844,10 @@
       <c r="A136" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B136" s="21" t="s">
+      <c r="B136" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C136" s="20" t="s">
+      <c r="C136" s="14" t="s">
         <v>471</v>
       </c>
     </row>
@@ -3818,14 +3866,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A140" s="26" t="s">
+    <row r="140" spans="1:3" s="64" customFormat="1" ht="21">
+      <c r="A140" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="B140" s="54" t="s">
+      <c r="B140" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C140" s="63" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3939,25 +3987,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A151" s="26" t="s">
+    <row r="151" spans="1:3" s="64" customFormat="1" ht="21">
+      <c r="A151" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="B151" s="54" t="s">
+      <c r="B151" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="C151" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A152" s="26" t="s">
+      <c r="C151" s="63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" s="64" customFormat="1" ht="21">
+      <c r="A152" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="B152" s="54" t="s">
+      <c r="B152" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="C152" s="11" t="s">
+      <c r="C152" s="63" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4047,14 +4095,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A161" s="26" t="s">
+    <row r="161" spans="1:3" s="64" customFormat="1" ht="21">
+      <c r="A161" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="B161" s="54" t="s">
+      <c r="B161" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="C161" s="63" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4069,14 +4117,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A163" s="26" t="s">
+    <row r="163" spans="1:3" s="64" customFormat="1" ht="21">
+      <c r="A163" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="B163" s="54" t="s">
+      <c r="B163" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="C163" s="11" t="s">
+      <c r="C163" s="63" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4102,23 +4150,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A166" s="26" t="s">
+    <row r="166" spans="1:3" s="64" customFormat="1" ht="21">
+      <c r="A166" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="B166" s="54" t="s">
+      <c r="B166" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="C166" s="11"/>
-    </row>
-    <row r="167" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A167" s="26" t="s">
+      <c r="C166" s="63"/>
+    </row>
+    <row r="167" spans="1:3" s="64" customFormat="1" ht="21">
+      <c r="A167" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="B167" s="54" t="s">
+      <c r="B167" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="C167" s="11"/>
+      <c r="C167" s="63"/>
     </row>
     <row r="168" spans="1:3" ht="21">
       <c r="A168" s="8" t="s">
@@ -4140,50 +4188,50 @@
       </c>
       <c r="C169" s="4"/>
     </row>
-    <row r="170" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A170" s="26" t="s">
+    <row r="170" spans="1:3" s="64" customFormat="1" ht="21">
+      <c r="A170" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="B170" s="54" t="s">
+      <c r="B170" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="C170" s="11"/>
-    </row>
-    <row r="171" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A171" s="26" t="s">
+      <c r="C170" s="63"/>
+    </row>
+    <row r="171" spans="1:3" s="64" customFormat="1" ht="21">
+      <c r="A171" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="B171" s="54" t="s">
+      <c r="B171" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="C171" s="11"/>
-    </row>
-    <row r="172" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A172" s="26" t="s">
+      <c r="C171" s="63"/>
+    </row>
+    <row r="172" spans="1:3" s="64" customFormat="1" ht="21">
+      <c r="A172" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="B172" s="54" t="s">
+      <c r="B172" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="C172" s="11"/>
-    </row>
-    <row r="173" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A173" s="26" t="s">
+      <c r="C172" s="63"/>
+    </row>
+    <row r="173" spans="1:3" s="64" customFormat="1" ht="21">
+      <c r="A173" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="B173" s="54" t="s">
+      <c r="B173" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="C173" s="11"/>
-    </row>
-    <row r="174" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A174" s="26" t="s">
+      <c r="C173" s="63"/>
+    </row>
+    <row r="174" spans="1:3" s="64" customFormat="1" ht="21">
+      <c r="A174" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="B174" s="54" t="s">
+      <c r="B174" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="C174" s="11"/>
+      <c r="C174" s="63"/>
     </row>
     <row r="176" spans="1:3" ht="21">
       <c r="B176" s="7"/>
@@ -4278,7 +4326,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" ht="21">
-      <c r="A185" s="17" t="s">
+      <c r="A185" s="16" t="s">
         <v>171</v>
       </c>
       <c r="B185" s="6" t="s">
@@ -4289,7 +4337,7 @@
       </c>
     </row>
     <row r="186" spans="1:3" ht="21">
-      <c r="A186" s="17" t="s">
+      <c r="A186" s="16" t="s">
         <v>171</v>
       </c>
       <c r="B186" s="6" t="s">
@@ -4300,7 +4348,7 @@
       </c>
     </row>
     <row r="187" spans="1:3" ht="21">
-      <c r="A187" s="17" t="s">
+      <c r="A187" s="16" t="s">
         <v>512</v>
       </c>
       <c r="B187" s="6" t="s">
@@ -4311,7 +4359,7 @@
       </c>
     </row>
     <row r="188" spans="1:3" ht="21">
-      <c r="A188" s="17" t="s">
+      <c r="A188" s="16" t="s">
         <v>512</v>
       </c>
       <c r="B188" s="6" t="s">
@@ -4322,7 +4370,7 @@
       </c>
     </row>
     <row r="189" spans="1:3" ht="21">
-      <c r="A189" s="17" t="s">
+      <c r="A189" s="16" t="s">
         <v>171</v>
       </c>
       <c r="B189" s="6" t="s">
@@ -4333,18 +4381,18 @@
       </c>
     </row>
     <row r="190" spans="1:3" ht="21">
-      <c r="A190" s="39" t="s">
+      <c r="A190" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="C190" s="43" t="s">
+      <c r="C190" s="41" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="21">
-      <c r="A191" s="17" t="s">
+      <c r="A191" s="16" t="s">
         <v>171</v>
       </c>
       <c r="B191" s="6" t="s">
@@ -4355,7 +4403,7 @@
       </c>
     </row>
     <row r="192" spans="1:3" ht="21">
-      <c r="A192" s="16" t="s">
+      <c r="A192" s="15" t="s">
         <v>171</v>
       </c>
       <c r="B192" s="6" t="s">
@@ -4366,10 +4414,10 @@
       </c>
     </row>
     <row r="193" spans="1:3" ht="21">
-      <c r="A193" s="16" t="s">
+      <c r="A193" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B193" s="62" t="s">
         <v>188</v>
       </c>
       <c r="C193" s="4" t="s">
@@ -4377,7 +4425,7 @@
       </c>
     </row>
     <row r="194" spans="1:3" ht="21">
-      <c r="A194" s="17" t="s">
+      <c r="A194" s="16" t="s">
         <v>171</v>
       </c>
       <c r="B194" s="6" t="s">
@@ -4388,7 +4436,7 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="21">
-      <c r="A195" s="17" t="s">
+      <c r="A195" s="16" t="s">
         <v>171</v>
       </c>
       <c r="B195" s="6" t="s">
@@ -4399,7 +4447,7 @@
       </c>
     </row>
     <row r="196" spans="1:3" ht="21">
-      <c r="A196" s="17" t="s">
+      <c r="A196" s="16" t="s">
         <v>171</v>
       </c>
       <c r="B196" s="6" t="s">
@@ -4410,18 +4458,18 @@
       </c>
     </row>
     <row r="197" spans="1:3" ht="21">
-      <c r="A197" s="39" t="s">
+      <c r="A197" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B197" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="C197" s="42" t="s">
+      <c r="C197" s="40" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="21">
-      <c r="A198" s="17" t="s">
+      <c r="A198" s="16" t="s">
         <v>512</v>
       </c>
       <c r="B198" s="6" t="s">
@@ -4432,7 +4480,7 @@
       </c>
     </row>
     <row r="199" spans="1:3" ht="21">
-      <c r="A199" s="17" t="s">
+      <c r="A199" s="16" t="s">
         <v>171</v>
       </c>
       <c r="B199" s="6" t="s">
@@ -4443,13 +4491,13 @@
       </c>
     </row>
     <row r="200" spans="1:3" ht="21">
-      <c r="A200" s="39" t="s">
+      <c r="A200" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="C200" s="44" t="s">
+      <c r="C200" s="42" t="s">
         <v>520</v>
       </c>
     </row>
@@ -4457,15 +4505,15 @@
       <c r="A201" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="C201" s="44" t="s">
+      <c r="C201" s="42" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="21">
-      <c r="A202" s="17" t="s">
+      <c r="A202" s="16" t="s">
         <v>171</v>
       </c>
       <c r="B202" s="6" t="s">
@@ -4476,18 +4524,18 @@
       </c>
     </row>
     <row r="203" spans="1:3" ht="21">
-      <c r="A203" s="17" t="s">
+      <c r="A203" s="16" t="s">
         <v>171</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C203" s="42">
+      <c r="C203" s="40">
         <v>360</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="21">
-      <c r="A204" s="17" t="s">
+      <c r="A204" s="16" t="s">
         <v>171</v>
       </c>
       <c r="B204" s="6" t="s">
@@ -4498,7 +4546,7 @@
       </c>
     </row>
     <row r="205" spans="1:3" ht="21">
-      <c r="A205" s="17" t="s">
+      <c r="A205" s="16" t="s">
         <v>512</v>
       </c>
       <c r="B205" s="6" t="s">
@@ -4509,7 +4557,7 @@
       </c>
     </row>
     <row r="206" spans="1:3" ht="21">
-      <c r="A206" s="17" t="s">
+      <c r="A206" s="16" t="s">
         <v>171</v>
       </c>
       <c r="B206" s="6" t="s">
@@ -4520,7 +4568,7 @@
       </c>
     </row>
     <row r="207" spans="1:3" ht="21">
-      <c r="A207" s="17" t="s">
+      <c r="A207" s="16" t="s">
         <v>171</v>
       </c>
       <c r="B207" s="6" t="s">
@@ -4531,7 +4579,7 @@
       </c>
     </row>
     <row r="208" spans="1:3" ht="21">
-      <c r="A208" s="17" t="s">
+      <c r="A208" s="16" t="s">
         <v>171</v>
       </c>
       <c r="B208" s="6" t="s">
@@ -4542,7 +4590,7 @@
       </c>
     </row>
     <row r="209" spans="1:3" ht="21">
-      <c r="A209" s="17" t="s">
+      <c r="A209" s="16" t="s">
         <v>171</v>
       </c>
       <c r="B209" s="6" t="s">
@@ -4553,21 +4601,21 @@
       </c>
     </row>
     <row r="210" spans="1:3" ht="21">
-      <c r="A210" s="17" t="s">
+      <c r="A210" s="16" t="s">
         <v>512</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C210" s="42">
+      <c r="C210" s="40">
         <v>200</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="21">
-      <c r="A211" s="16" t="s">
+      <c r="A211" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B211" s="62" t="s">
         <v>206</v>
       </c>
       <c r="C211" s="4" t="s">
@@ -4599,7 +4647,7 @@
       <c r="A215" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B215" s="6" t="s">
+      <c r="B215" s="62" t="s">
         <v>209</v>
       </c>
       <c r="C215" s="11" t="s">
@@ -4621,7 +4669,7 @@
       <c r="A217" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B217" s="6" t="s">
+      <c r="B217" s="62" t="s">
         <v>211</v>
       </c>
       <c r="C217" s="11" t="s">
@@ -4629,18 +4677,18 @@
       </c>
     </row>
     <row r="218" spans="1:3" ht="21">
-      <c r="A218" s="17" t="s">
+      <c r="A218" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B218" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="C218" s="47" t="s">
+      <c r="C218" s="45" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="21">
-      <c r="A219" s="17" t="s">
+      <c r="A219" s="16" t="s">
         <v>207</v>
       </c>
       <c r="B219" s="6" t="s">
@@ -4651,7 +4699,7 @@
       </c>
     </row>
     <row r="220" spans="1:3" ht="21">
-      <c r="A220" s="17" t="s">
+      <c r="A220" s="16" t="s">
         <v>207</v>
       </c>
       <c r="B220" s="9" t="s">
@@ -4662,18 +4710,18 @@
       </c>
     </row>
     <row r="221" spans="1:3" ht="21">
-      <c r="A221" s="17" t="s">
+      <c r="A221" s="16" t="s">
         <v>526</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C221" s="38" t="s">
+      <c r="C221" s="36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="21">
-      <c r="A222" s="17" t="s">
+      <c r="A222" s="16" t="s">
         <v>207</v>
       </c>
       <c r="B222" s="6" t="s">
@@ -4684,18 +4732,18 @@
       </c>
     </row>
     <row r="223" spans="1:3" ht="21">
-      <c r="A223" s="16" t="s">
+      <c r="A223" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="B223" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="C223" s="46" t="s">
+      <c r="C223" s="44" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="21">
-      <c r="A224" s="17" t="s">
+      <c r="A224" s="16" t="s">
         <v>207</v>
       </c>
       <c r="B224" s="6" t="s">
@@ -4706,7 +4754,7 @@
       </c>
     </row>
     <row r="225" spans="1:3" ht="21">
-      <c r="A225" s="17" t="s">
+      <c r="A225" s="16" t="s">
         <v>207</v>
       </c>
       <c r="B225" s="6" t="s">
@@ -4717,7 +4765,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" ht="21">
-      <c r="A226" s="17" t="s">
+      <c r="A226" s="16" t="s">
         <v>207</v>
       </c>
       <c r="B226" s="6" t="s">
@@ -4728,7 +4776,7 @@
       </c>
     </row>
     <row r="227" spans="1:3" ht="21">
-      <c r="A227" s="17" t="s">
+      <c r="A227" s="16" t="s">
         <v>207</v>
       </c>
       <c r="B227" s="6" t="s">
@@ -4739,10 +4787,10 @@
       </c>
     </row>
     <row r="228" spans="1:3" ht="21">
-      <c r="A228" s="16" t="s">
+      <c r="A228" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="B228" s="62" t="s">
         <v>222</v>
       </c>
       <c r="C228" s="4" t="s">
@@ -4750,7 +4798,7 @@
       </c>
     </row>
     <row r="229" spans="1:3" ht="21">
-      <c r="A229" s="17" t="s">
+      <c r="A229" s="16" t="s">
         <v>207</v>
       </c>
       <c r="B229" s="6" t="s">
@@ -4761,13 +4809,13 @@
       </c>
     </row>
     <row r="230" spans="1:3" ht="21">
-      <c r="A230" s="39" t="s">
+      <c r="A230" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="B230" s="6" t="s">
+      <c r="B230" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="C230" s="44" t="s">
+      <c r="C230" s="42" t="s">
         <v>530</v>
       </c>
     </row>
@@ -4775,7 +4823,7 @@
       <c r="A231" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="B231" s="62" t="s">
         <v>225</v>
       </c>
       <c r="C231" s="4" t="s">
@@ -4783,18 +4831,18 @@
       </c>
     </row>
     <row r="232" spans="1:3" ht="21">
-      <c r="A232" s="39" t="s">
+      <c r="A232" s="37" t="s">
         <v>526</v>
       </c>
-      <c r="B232" s="6" t="s">
+      <c r="B232" s="62" t="s">
         <v>226</v>
       </c>
-      <c r="C232" s="42">
+      <c r="C232" s="40">
         <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="21">
-      <c r="A233" s="17" t="s">
+      <c r="A233" s="16" t="s">
         <v>207</v>
       </c>
       <c r="B233" s="6" t="s">
@@ -4805,7 +4853,7 @@
       </c>
     </row>
     <row r="234" spans="1:3" ht="21">
-      <c r="A234" s="17" t="s">
+      <c r="A234" s="16" t="s">
         <v>526</v>
       </c>
       <c r="B234" s="6" t="s">
@@ -4816,7 +4864,7 @@
       </c>
     </row>
     <row r="235" spans="1:3" ht="21">
-      <c r="A235" s="17" t="s">
+      <c r="A235" s="16" t="s">
         <v>207</v>
       </c>
       <c r="B235" s="6" t="s">
@@ -4835,29 +4883,29 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="39" t="s">
+      <c r="A238" s="37" t="s">
         <v>230</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C238" s="31" t="s">
+      <c r="C238" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="21">
-      <c r="A239" s="17" t="s">
+      <c r="A239" s="16" t="s">
         <v>532</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C239" s="38" t="s">
+      <c r="C239" s="36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="21">
-      <c r="A240" s="17" t="s">
+      <c r="A240" s="16" t="s">
         <v>532</v>
       </c>
       <c r="B240" s="6" t="s">
@@ -4868,21 +4916,21 @@
       </c>
     </row>
     <row r="241" spans="1:3" ht="21">
-      <c r="A241" s="48" t="s">
+      <c r="A241" s="46" t="s">
         <v>230</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C241" s="49">
+      <c r="C241" s="47">
         <v>490</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="21">
-      <c r="A242" s="17" t="s">
+      <c r="A242" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B242" s="62" t="s">
         <v>235</v>
       </c>
       <c r="C242" s="4" t="s">
@@ -4890,7 +4938,7 @@
       </c>
     </row>
     <row r="243" spans="1:3" ht="21">
-      <c r="A243" s="48" t="s">
+      <c r="A243" s="46" t="s">
         <v>230</v>
       </c>
       <c r="B243" s="6" t="s">
@@ -4901,29 +4949,29 @@
       </c>
     </row>
     <row r="244" spans="1:3" ht="21">
-      <c r="A244" s="17" t="s">
+      <c r="A244" s="16" t="s">
         <v>230</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C244" s="42">
+      <c r="C244" s="40">
         <v>238</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="21">
-      <c r="A245" s="48" t="s">
+      <c r="A245" s="46" t="s">
         <v>230</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C245" s="49">
+      <c r="C245" s="47">
         <v>486</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="21">
-      <c r="A246" s="17" t="s">
+      <c r="A246" s="16" t="s">
         <v>532</v>
       </c>
       <c r="B246" s="6" t="s">
@@ -4934,7 +4982,7 @@
       </c>
     </row>
     <row r="247" spans="1:3" ht="21">
-      <c r="A247" s="17" t="s">
+      <c r="A247" s="16" t="s">
         <v>230</v>
       </c>
       <c r="B247" s="6" t="s">
@@ -4945,32 +4993,32 @@
       </c>
     </row>
     <row r="248" spans="1:3" ht="21">
-      <c r="A248" s="39" t="s">
+      <c r="A248" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="B248" s="6" t="s">
+      <c r="B248" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="C248" s="42">
+      <c r="C248" s="40">
         <v>398</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="21">
-      <c r="A249" s="17" t="s">
+      <c r="A249" s="16" t="s">
         <v>532</v>
       </c>
       <c r="B249" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C249" s="47" t="s">
+      <c r="C249" s="45" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="21">
-      <c r="A250" s="17" t="s">
+      <c r="A250" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="B250" s="62" t="s">
         <v>243</v>
       </c>
       <c r="C250" s="4" t="s">
@@ -4978,7 +5026,7 @@
       </c>
     </row>
     <row r="251" spans="1:3" ht="21">
-      <c r="A251" s="17" t="s">
+      <c r="A251" s="16" t="s">
         <v>230</v>
       </c>
       <c r="B251" s="6" t="s">
@@ -4989,18 +5037,18 @@
       </c>
     </row>
     <row r="252" spans="1:3" ht="21">
-      <c r="A252" s="17" t="s">
+      <c r="A252" s="16" t="s">
         <v>532</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C252" s="42">
+      <c r="C252" s="40">
         <v>503</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="21">
-      <c r="A253" s="17" t="s">
+      <c r="A253" s="16" t="s">
         <v>532</v>
       </c>
       <c r="B253" s="6" t="s">
@@ -5011,7 +5059,7 @@
       </c>
     </row>
     <row r="254" spans="1:3" ht="21">
-      <c r="A254" s="17" t="s">
+      <c r="A254" s="16" t="s">
         <v>532</v>
       </c>
       <c r="B254" s="6" t="s">
@@ -5022,29 +5070,29 @@
       </c>
     </row>
     <row r="255" spans="1:3" ht="21">
-      <c r="A255" s="17" t="s">
+      <c r="A255" s="16" t="s">
         <v>532</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C255" s="50" t="s">
+      <c r="C255" s="48" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="21">
-      <c r="A256" s="17" t="s">
+      <c r="A256" s="16" t="s">
         <v>230</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C256" s="50" t="s">
+      <c r="C256" s="48" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="21">
-      <c r="A257" s="17" t="s">
+      <c r="A257" s="16" t="s">
         <v>230</v>
       </c>
       <c r="B257" s="6" t="s">
@@ -5055,18 +5103,18 @@
       </c>
     </row>
     <row r="258" spans="1:3" ht="21">
-      <c r="A258" s="17" t="s">
+      <c r="A258" s="16" t="s">
         <v>230</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C258" s="24" t="s">
+      <c r="C258" s="22" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="21">
-      <c r="A259" s="17" t="s">
+      <c r="A259" s="16" t="s">
         <v>230</v>
       </c>
       <c r="B259" s="6" t="s">
@@ -5077,7 +5125,7 @@
       </c>
     </row>
     <row r="260" spans="1:3" ht="21">
-      <c r="A260" s="17" t="s">
+      <c r="A260" s="16" t="s">
         <v>230</v>
       </c>
       <c r="B260" s="6" t="s">
@@ -5088,21 +5136,21 @@
       </c>
     </row>
     <row r="261" spans="1:3" ht="21">
-      <c r="A261" s="17" t="s">
+      <c r="A261" s="16" t="s">
         <v>230</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C261" s="42">
+      <c r="C261" s="40">
         <v>35</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="21">
-      <c r="A262" s="16" t="s">
+      <c r="A262" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="B262" s="6" t="s">
+      <c r="B262" s="62" t="s">
         <v>255</v>
       </c>
       <c r="C262" s="4" t="s">
@@ -5110,7 +5158,7 @@
       </c>
     </row>
     <row r="263" spans="1:3" ht="21">
-      <c r="A263" s="17" t="s">
+      <c r="A263" s="16" t="s">
         <v>532</v>
       </c>
       <c r="B263" s="6" t="s">
@@ -5121,21 +5169,21 @@
       </c>
     </row>
     <row r="264" spans="1:3" ht="21">
-      <c r="A264" s="17" t="s">
+      <c r="A264" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="B264" s="6" t="s">
+      <c r="B264" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="C264" s="20" t="s">
+      <c r="C264" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="21">
-      <c r="A265" s="39" t="s">
+      <c r="A265" s="37" t="s">
         <v>532</v>
       </c>
-      <c r="B265" s="6" t="s">
+      <c r="B265" s="62" t="s">
         <v>258</v>
       </c>
       <c r="C265" s="4" t="s">
@@ -5143,10 +5191,10 @@
       </c>
     </row>
     <row r="266" spans="1:3" ht="21">
-      <c r="A266" s="39" t="s">
+      <c r="A266" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="B266" s="6" t="s">
+      <c r="B266" s="62" t="s">
         <v>259</v>
       </c>
       <c r="C266" s="4" t="s">
@@ -5154,7 +5202,7 @@
       </c>
     </row>
     <row r="267" spans="1:3" ht="21">
-      <c r="A267" s="17" t="s">
+      <c r="A267" s="16" t="s">
         <v>230</v>
       </c>
       <c r="B267" s="6" t="s">
@@ -5165,18 +5213,18 @@
       </c>
     </row>
     <row r="268" spans="1:3" ht="21">
-      <c r="A268" s="39" t="s">
+      <c r="A268" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="B268" s="52" t="s">
+      <c r="B268" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="C268" s="51" t="s">
+      <c r="C268" s="49" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="21">
-      <c r="A269" s="17" t="s">
+      <c r="A269" s="16" t="s">
         <v>230</v>
       </c>
       <c r="B269" s="6" t="s">
@@ -5187,7 +5235,7 @@
       </c>
     </row>
     <row r="270" spans="1:3" ht="21">
-      <c r="A270" s="17" t="s">
+      <c r="A270" s="16" t="s">
         <v>230</v>
       </c>
       <c r="B270" s="6" t="s">
@@ -5198,7 +5246,7 @@
       </c>
     </row>
     <row r="271" spans="1:3" ht="21">
-      <c r="A271" s="17" t="s">
+      <c r="A271" s="16" t="s">
         <v>230</v>
       </c>
       <c r="B271" s="6" t="s">
@@ -5209,7 +5257,7 @@
       </c>
     </row>
     <row r="272" spans="1:3" ht="21">
-      <c r="A272" s="17" t="s">
+      <c r="A272" s="16" t="s">
         <v>532</v>
       </c>
       <c r="B272" s="6" t="s">
@@ -5228,7 +5276,7 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="30" t="s">
+      <c r="A275" s="28" t="s">
         <v>265</v>
       </c>
       <c r="B275" s="6" t="s">
@@ -5250,7 +5298,7 @@
       </c>
     </row>
     <row r="277" spans="1:3" ht="21">
-      <c r="A277" s="30" t="s">
+      <c r="A277" s="28" t="s">
         <v>265</v>
       </c>
       <c r="B277" s="6" t="s">
@@ -5261,7 +5309,7 @@
       </c>
     </row>
     <row r="278" spans="1:3" ht="21">
-      <c r="A278" s="30" t="s">
+      <c r="A278" s="28" t="s">
         <v>265</v>
       </c>
       <c r="B278" s="6" t="s">
@@ -5283,7 +5331,7 @@
       </c>
     </row>
     <row r="280" spans="1:3" ht="21">
-      <c r="A280" s="30" t="s">
+      <c r="A280" s="28" t="s">
         <v>265</v>
       </c>
       <c r="B280" s="6" t="s">
@@ -5294,7 +5342,7 @@
       </c>
     </row>
     <row r="281" spans="1:3" ht="21">
-      <c r="A281" s="30" t="s">
+      <c r="A281" s="28" t="s">
         <v>265</v>
       </c>
       <c r="B281" s="6" t="s">
@@ -5305,7 +5353,7 @@
       </c>
     </row>
     <row r="282" spans="1:3" ht="21">
-      <c r="A282" s="30" t="s">
+      <c r="A282" s="28" t="s">
         <v>265</v>
       </c>
       <c r="B282" s="6" t="s">
@@ -5327,7 +5375,7 @@
       </c>
     </row>
     <row r="284" spans="1:3" ht="21">
-      <c r="A284" s="30" t="s">
+      <c r="A284" s="28" t="s">
         <v>265</v>
       </c>
       <c r="B284" s="6" t="s">
@@ -5338,7 +5386,7 @@
       </c>
     </row>
     <row r="285" spans="1:3" ht="21">
-      <c r="A285" s="30" t="s">
+      <c r="A285" s="28" t="s">
         <v>265</v>
       </c>
       <c r="B285" s="6" t="s">
@@ -5349,7 +5397,7 @@
       </c>
     </row>
     <row r="286" spans="1:3" ht="21">
-      <c r="A286" s="30" t="s">
+      <c r="A286" s="28" t="s">
         <v>265</v>
       </c>
       <c r="B286" s="6" t="s">
@@ -5360,7 +5408,7 @@
       </c>
     </row>
     <row r="287" spans="1:3" ht="21">
-      <c r="A287" s="30" t="s">
+      <c r="A287" s="28" t="s">
         <v>265</v>
       </c>
       <c r="B287" s="6" t="s">
@@ -5371,7 +5419,7 @@
       </c>
     </row>
     <row r="288" spans="1:3" ht="21">
-      <c r="A288" s="17" t="s">
+      <c r="A288" s="16" t="s">
         <v>265</v>
       </c>
       <c r="B288" s="6" t="s">
@@ -5382,7 +5430,7 @@
       </c>
     </row>
     <row r="289" spans="1:3" ht="21">
-      <c r="A289" s="30" t="s">
+      <c r="A289" s="28" t="s">
         <v>265</v>
       </c>
       <c r="B289" s="6" t="s">
@@ -5393,7 +5441,7 @@
       </c>
     </row>
     <row r="290" spans="1:3" ht="21">
-      <c r="A290" s="30" t="s">
+      <c r="A290" s="28" t="s">
         <v>265</v>
       </c>
       <c r="B290" s="6" t="s">
@@ -5404,7 +5452,7 @@
       </c>
     </row>
     <row r="291" spans="1:3" ht="21">
-      <c r="A291" s="30" t="s">
+      <c r="A291" s="28" t="s">
         <v>265</v>
       </c>
       <c r="B291" s="6" t="s">
@@ -5415,7 +5463,7 @@
       </c>
     </row>
     <row r="292" spans="1:3" ht="21">
-      <c r="A292" s="30" t="s">
+      <c r="A292" s="28" t="s">
         <v>265</v>
       </c>
       <c r="B292" s="6" t="s">
@@ -5426,7 +5474,7 @@
       </c>
     </row>
     <row r="293" spans="1:3" ht="21">
-      <c r="A293" s="30" t="s">
+      <c r="A293" s="28" t="s">
         <v>265</v>
       </c>
       <c r="B293" s="6" t="s">
@@ -5445,7 +5493,7 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="17" t="s">
+      <c r="A296" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B296" s="6" t="s">
@@ -5456,7 +5504,7 @@
       </c>
     </row>
     <row r="297" spans="1:3" ht="21">
-      <c r="A297" s="17" t="s">
+      <c r="A297" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B297" s="6" t="s">
@@ -5466,50 +5514,50 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A298" s="30" t="s">
+    <row r="298" spans="1:3" s="64" customFormat="1" ht="21">
+      <c r="A298" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="B298" s="54" t="s">
+      <c r="B298" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="C298" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A299" s="30" t="s">
+      <c r="C298" s="63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" s="53" customFormat="1" ht="21">
+      <c r="A299" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="B299" s="54" t="s">
+      <c r="B299" s="52" t="s">
         <v>289</v>
       </c>
       <c r="C299" s="11"/>
     </row>
-    <row r="300" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A300" s="30" t="s">
+    <row r="300" spans="1:3" s="64" customFormat="1" ht="21">
+      <c r="A300" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="B300" s="54" t="s">
+      <c r="B300" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="C300" s="11" t="s">
+      <c r="C300" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="21">
-      <c r="A301" s="17" t="s">
+      <c r="A301" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B301" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C301" s="42">
+      <c r="C301" s="40">
         <v>71</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="21">
-      <c r="A302" s="17" t="s">
+      <c r="A302" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B302" s="6" t="s">
@@ -5518,7 +5566,7 @@
       <c r="C302" s="4"/>
     </row>
     <row r="303" spans="1:3" ht="21">
-      <c r="A303" s="17" t="s">
+      <c r="A303" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B303" s="6" t="s">
@@ -5529,7 +5577,7 @@
       </c>
     </row>
     <row r="304" spans="1:3" ht="21">
-      <c r="A304" s="17" t="s">
+      <c r="A304" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B304" s="6" t="s">
@@ -5539,33 +5587,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A305" s="30" t="s">
+    <row r="305" spans="1:3" s="53" customFormat="1" ht="21">
+      <c r="A305" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="B305" s="54" t="s">
+      <c r="B305" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="C305" s="38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A306" s="30" t="s">
+      <c r="C305" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" s="53" customFormat="1" ht="21">
+      <c r="A306" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="B306" s="54" t="s">
+      <c r="B306" s="52" t="s">
         <v>296</v>
       </c>
       <c r="C306" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A307" s="30" t="s">
+    <row r="307" spans="1:3" s="53" customFormat="1" ht="21">
+      <c r="A307" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="B307" s="54" t="s">
+      <c r="B307" s="52" t="s">
         <v>297</v>
       </c>
       <c r="C307" s="11" t="s">
@@ -5573,7 +5621,7 @@
       </c>
     </row>
     <row r="308" spans="1:3" ht="21">
-      <c r="A308" s="17" t="s">
+      <c r="A308" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B308" s="6" t="s">
@@ -5583,33 +5631,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A309" s="30" t="s">
+    <row r="309" spans="1:3" s="53" customFormat="1" ht="21">
+      <c r="A309" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="B309" s="60" t="s">
+      <c r="B309" s="58" t="s">
         <v>299</v>
       </c>
       <c r="C309" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A310" s="30" t="s">
+    <row r="310" spans="1:3" s="53" customFormat="1" ht="21">
+      <c r="A310" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="B310" s="54" t="s">
+      <c r="B310" s="52" t="s">
         <v>300</v>
       </c>
       <c r="C310" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A311" s="30" t="s">
+    <row r="311" spans="1:3" s="53" customFormat="1" ht="21">
+      <c r="A311" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="B311" s="54" t="s">
+      <c r="B311" s="52" t="s">
         <v>301</v>
       </c>
       <c r="C311" s="11" t="s">
@@ -5617,32 +5665,32 @@
       </c>
     </row>
     <row r="312" spans="1:3" ht="21">
-      <c r="A312" s="39" t="s">
+      <c r="A312" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B312" s="6" t="s">
+      <c r="B312" s="62" t="s">
         <v>302</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A313" s="30" t="s">
+    <row r="313" spans="1:3" s="53" customFormat="1" ht="21">
+      <c r="A313" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="B313" s="54" t="s">
+      <c r="B313" s="52" t="s">
         <v>303</v>
       </c>
       <c r="C313" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A314" s="30" t="s">
+    <row r="314" spans="1:3" s="53" customFormat="1" ht="21">
+      <c r="A314" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="B314" s="54" t="s">
+      <c r="B314" s="52" t="s">
         <v>304</v>
       </c>
       <c r="C314" s="11" t="s">
@@ -5650,7 +5698,7 @@
       </c>
     </row>
     <row r="315" spans="1:3" ht="21">
-      <c r="A315" s="17" t="s">
+      <c r="A315" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B315" s="6" t="s">
@@ -5660,39 +5708,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A316" s="30" t="s">
+    <row r="316" spans="1:3" s="64" customFormat="1" ht="21">
+      <c r="A316" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="B316" s="54" t="s">
+      <c r="B316" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="C316" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A317" s="30" t="s">
+      <c r="C316" s="63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" s="64" customFormat="1" ht="21">
+      <c r="A317" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="B317" s="54" t="s">
+      <c r="B317" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="C317" s="11"/>
-    </row>
-    <row r="318" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A318" s="30" t="s">
+      <c r="C317" s="63"/>
+    </row>
+    <row r="318" spans="1:3" s="64" customFormat="1" ht="21">
+      <c r="A318" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="B318" s="54" t="s">
+      <c r="B318" s="62" t="s">
         <v>308</v>
       </c>
-      <c r="C318" s="11" t="s">
+      <c r="C318" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="21">
-      <c r="A319" s="17" t="s">
+      <c r="A319" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B319" s="6" t="s">
@@ -5703,7 +5751,7 @@
       </c>
     </row>
     <row r="320" spans="1:3" ht="21">
-      <c r="A320" s="17" t="s">
+      <c r="A320" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B320" s="6" t="s">
@@ -5714,7 +5762,7 @@
       </c>
     </row>
     <row r="321" spans="1:3" ht="21">
-      <c r="A321" s="17" t="s">
+      <c r="A321" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B321" s="6" t="s">
@@ -5725,7 +5773,7 @@
       </c>
     </row>
     <row r="322" spans="1:3" ht="21">
-      <c r="A322" s="17" t="s">
+      <c r="A322" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B322" s="6" t="s">
@@ -5736,7 +5784,7 @@
       </c>
     </row>
     <row r="323" spans="1:3" ht="21">
-      <c r="A323" s="17" t="s">
+      <c r="A323" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B323" s="6" t="s">
@@ -5746,11 +5794,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A324" s="30" t="s">
+    <row r="324" spans="1:3" s="53" customFormat="1" ht="21">
+      <c r="A324" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="B324" s="54" t="s">
+      <c r="B324" s="52" t="s">
         <v>314</v>
       </c>
       <c r="C324" s="11" t="s">
@@ -5758,7 +5806,7 @@
       </c>
     </row>
     <row r="325" spans="1:3" ht="21">
-      <c r="A325" s="17" t="s">
+      <c r="A325" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B325" s="6" t="s">
@@ -5769,7 +5817,7 @@
       </c>
     </row>
     <row r="326" spans="1:3" ht="21">
-      <c r="A326" s="17" t="s">
+      <c r="A326" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B326" s="6" t="s">
@@ -5780,7 +5828,7 @@
       </c>
     </row>
     <row r="327" spans="1:3" ht="21">
-      <c r="A327" s="17" t="s">
+      <c r="A327" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B327" s="6" t="s">
@@ -5791,7 +5839,7 @@
       </c>
     </row>
     <row r="328" spans="1:3" ht="21">
-      <c r="A328" s="17" t="s">
+      <c r="A328" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B328" s="6" t="s">
@@ -5802,7 +5850,7 @@
       </c>
     </row>
     <row r="329" spans="1:3" ht="21">
-      <c r="A329" s="17" t="s">
+      <c r="A329" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B329" s="6" t="s">
@@ -5813,7 +5861,7 @@
       </c>
     </row>
     <row r="330" spans="1:3" ht="21">
-      <c r="A330" s="17" t="s">
+      <c r="A330" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B330" s="6" t="s">
@@ -5824,7 +5872,7 @@
       </c>
     </row>
     <row r="331" spans="1:3" ht="21">
-      <c r="A331" s="17" t="s">
+      <c r="A331" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B331" s="6" t="s">
@@ -5835,7 +5883,7 @@
       </c>
     </row>
     <row r="332" spans="1:3" ht="21">
-      <c r="A332" s="17" t="s">
+      <c r="A332" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B332" s="6" t="s">
@@ -5845,11 +5893,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A333" s="30" t="s">
+    <row r="333" spans="1:3" s="53" customFormat="1" ht="21">
+      <c r="A333" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="B333" s="54" t="s">
+      <c r="B333" s="52" t="s">
         <v>323</v>
       </c>
       <c r="C333" s="11"/>
@@ -5862,25 +5910,25 @@
       <c r="B335" s="7"/>
       <c r="C335" s="4"/>
     </row>
-    <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="8" t="s">
+    <row r="336" spans="1:3" s="64" customFormat="1" ht="21">
+      <c r="A336" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="6" t="s">
+      <c r="B336" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="C336" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" ht="21">
-      <c r="A337" s="8" t="s">
+      <c r="C336" s="63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" s="64" customFormat="1" ht="21">
+      <c r="A337" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="B337" s="6" t="s">
+      <c r="B337" s="62" t="s">
         <v>326</v>
       </c>
-      <c r="C337" s="4" t="s">
+      <c r="C337" s="63" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5917,14 +5965,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A341" s="26" t="s">
+    <row r="341" spans="1:3" s="64" customFormat="1" ht="21">
+      <c r="A341" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="B341" s="54" t="s">
+      <c r="B341" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="C341" s="11" t="s">
+      <c r="C341" s="63" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5950,14 +5998,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A344" s="26" t="s">
+    <row r="344" spans="1:3" s="64" customFormat="1" ht="21">
+      <c r="A344" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="B344" s="60" t="s">
+      <c r="B344" s="66" t="s">
         <v>333</v>
       </c>
-      <c r="C344" s="11" t="s">
+      <c r="C344" s="63" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6005,11 +6053,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:3" s="55" customFormat="1" ht="21">
-      <c r="A349" s="26" t="s">
+    <row r="349" spans="1:3" s="53" customFormat="1" ht="21">
+      <c r="A349" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="B349" s="54" t="s">
+      <c r="B349" s="52" t="s">
         <v>338</v>
       </c>
       <c r="C349" s="11" t="s">
@@ -6069,7 +6117,7 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21">
-      <c r="A356" s="22" t="s">
+      <c r="A356" s="20" t="s">
         <v>343</v>
       </c>
       <c r="B356" s="6" t="s">
@@ -6080,7 +6128,7 @@
       </c>
     </row>
     <row r="357" spans="1:3" ht="21">
-      <c r="A357" s="22" t="s">
+      <c r="A357" s="20" t="s">
         <v>343</v>
       </c>
       <c r="B357" s="6" t="s">
@@ -6091,7 +6139,7 @@
       </c>
     </row>
     <row r="358" spans="1:3" ht="21">
-      <c r="A358" s="22" t="s">
+      <c r="A358" s="20" t="s">
         <v>343</v>
       </c>
       <c r="B358" s="6" t="s">
@@ -6102,7 +6150,7 @@
       </c>
     </row>
     <row r="359" spans="1:3" ht="21">
-      <c r="A359" s="22" t="s">
+      <c r="A359" s="20" t="s">
         <v>343</v>
       </c>
       <c r="B359" s="6" t="s">
@@ -6113,7 +6161,7 @@
       </c>
     </row>
     <row r="360" spans="1:3" ht="21">
-      <c r="A360" s="22" t="s">
+      <c r="A360" s="20" t="s">
         <v>343</v>
       </c>
       <c r="B360" s="6" t="s">
@@ -6124,7 +6172,7 @@
       </c>
     </row>
     <row r="361" spans="1:3" ht="21">
-      <c r="A361" s="22" t="s">
+      <c r="A361" s="20" t="s">
         <v>343</v>
       </c>
       <c r="B361" s="6" t="s">
@@ -6135,7 +6183,7 @@
       </c>
     </row>
     <row r="362" spans="1:3" ht="21">
-      <c r="A362" s="23" t="s">
+      <c r="A362" s="21" t="s">
         <v>343</v>
       </c>
       <c r="B362" s="6" t="s">
@@ -6146,7 +6194,7 @@
       </c>
     </row>
     <row r="363" spans="1:3" ht="21">
-      <c r="A363" s="22" t="s">
+      <c r="A363" s="20" t="s">
         <v>343</v>
       </c>
       <c r="B363" s="6" t="s">
@@ -6157,7 +6205,7 @@
       </c>
     </row>
     <row r="364" spans="1:3" ht="21">
-      <c r="A364" s="22" t="s">
+      <c r="A364" s="20" t="s">
         <v>343</v>
       </c>
       <c r="B364" s="6" t="s">
@@ -6168,7 +6216,7 @@
       </c>
     </row>
     <row r="365" spans="1:3" ht="21">
-      <c r="A365" s="23" t="s">
+      <c r="A365" s="21" t="s">
         <v>343</v>
       </c>
       <c r="B365" s="6" t="s">
@@ -6179,7 +6227,7 @@
       </c>
     </row>
     <row r="366" spans="1:3" ht="21">
-      <c r="A366" s="23" t="s">
+      <c r="A366" s="21" t="s">
         <v>343</v>
       </c>
       <c r="B366" s="6" t="s">
@@ -6190,10 +6238,10 @@
       </c>
     </row>
     <row r="367" spans="1:3" ht="21">
-      <c r="A367" s="22" t="s">
+      <c r="A367" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="B367" s="6" t="s">
+      <c r="B367" s="62" t="s">
         <v>355</v>
       </c>
       <c r="C367" s="4" t="s">
@@ -6201,10 +6249,10 @@
       </c>
     </row>
     <row r="368" spans="1:3" ht="21">
-      <c r="A368" s="22" t="s">
+      <c r="A368" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="B368" s="6" t="s">
+      <c r="B368" s="62" t="s">
         <v>356</v>
       </c>
       <c r="C368" s="4" t="s">
@@ -6212,7 +6260,7 @@
       </c>
     </row>
     <row r="369" spans="1:3" ht="21">
-      <c r="A369" s="23" t="s">
+      <c r="A369" s="21" t="s">
         <v>343</v>
       </c>
       <c r="B369" s="6" t="s">
@@ -6223,7 +6271,7 @@
       </c>
     </row>
     <row r="370" spans="1:3" ht="21">
-      <c r="A370" s="23" t="s">
+      <c r="A370" s="21" t="s">
         <v>343</v>
       </c>
       <c r="B370" s="6" t="s">
@@ -6234,10 +6282,10 @@
       </c>
     </row>
     <row r="371" spans="1:3" ht="21">
-      <c r="A371" s="22" t="s">
+      <c r="A371" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="B371" s="6" t="s">
+      <c r="B371" s="62" t="s">
         <v>359</v>
       </c>
       <c r="C371" s="4" t="s">
@@ -6245,7 +6293,7 @@
       </c>
     </row>
     <row r="372" spans="1:3" ht="21">
-      <c r="A372" s="23" t="s">
+      <c r="A372" s="21" t="s">
         <v>343</v>
       </c>
       <c r="B372" s="6" t="s">
@@ -6256,10 +6304,10 @@
       </c>
     </row>
     <row r="373" spans="1:3" ht="21">
-      <c r="A373" s="22" t="s">
+      <c r="A373" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="B373" s="6" t="s">
+      <c r="B373" s="62" t="s">
         <v>361</v>
       </c>
       <c r="C373" s="4" t="s">
@@ -6267,10 +6315,10 @@
       </c>
     </row>
     <row r="374" spans="1:3" ht="21">
-      <c r="A374" s="22" t="s">
+      <c r="A374" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="B374" s="6" t="s">
+      <c r="B374" s="62" t="s">
         <v>362</v>
       </c>
       <c r="C374" s="4" t="s">
@@ -6278,7 +6326,7 @@
       </c>
     </row>
     <row r="375" spans="1:3" ht="21">
-      <c r="A375" s="23" t="s">
+      <c r="A375" s="21" t="s">
         <v>474</v>
       </c>
       <c r="B375" s="6" t="s">
@@ -6289,10 +6337,10 @@
       </c>
     </row>
     <row r="376" spans="1:3" ht="21">
-      <c r="A376" s="22" t="s">
+      <c r="A376" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="B376" s="6" t="s">
+      <c r="B376" s="62" t="s">
         <v>364</v>
       </c>
       <c r="C376" s="4" t="s">
@@ -6300,10 +6348,10 @@
       </c>
     </row>
     <row r="377" spans="1:3" ht="21">
-      <c r="A377" s="23" t="s">
+      <c r="A377" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="B377" s="6" t="s">
+      <c r="B377" s="62" t="s">
         <v>365</v>
       </c>
       <c r="C377" s="4" t="s">
@@ -6311,10 +6359,10 @@
       </c>
     </row>
     <row r="378" spans="1:3" ht="21">
-      <c r="A378" s="25" t="s">
+      <c r="A378" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="B378" s="6" t="s">
+      <c r="B378" s="62" t="s">
         <v>366</v>
       </c>
       <c r="C378" s="4" t="s">
@@ -6322,10 +6370,10 @@
       </c>
     </row>
     <row r="379" spans="1:3" ht="21">
-      <c r="A379" s="22" t="s">
+      <c r="A379" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="B379" s="6" t="s">
+      <c r="B379" s="62" t="s">
         <v>367</v>
       </c>
       <c r="C379" s="4" t="s">
@@ -6333,7 +6381,7 @@
       </c>
     </row>
     <row r="380" spans="1:3" ht="21">
-      <c r="A380" s="23" t="s">
+      <c r="A380" s="21" t="s">
         <v>343</v>
       </c>
       <c r="B380" s="6" t="s">
@@ -6344,7 +6392,7 @@
       </c>
     </row>
     <row r="381" spans="1:3" ht="21">
-      <c r="A381" s="22" t="s">
+      <c r="A381" s="20" t="s">
         <v>343</v>
       </c>
       <c r="B381" s="6" t="s">
@@ -6355,10 +6403,10 @@
       </c>
     </row>
     <row r="382" spans="1:3" ht="21">
-      <c r="A382" s="22" t="s">
+      <c r="A382" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="B382" s="6" t="s">
+      <c r="B382" s="62" t="s">
         <v>370</v>
       </c>
       <c r="C382" s="4" t="s">
@@ -6366,7 +6414,7 @@
       </c>
     </row>
     <row r="383" spans="1:3" ht="21">
-      <c r="A383" s="22" t="s">
+      <c r="A383" s="20" t="s">
         <v>343</v>
       </c>
       <c r="B383" s="6" t="s">
@@ -6377,7 +6425,7 @@
       </c>
     </row>
     <row r="384" spans="1:3" ht="21">
-      <c r="A384" s="22" t="s">
+      <c r="A384" s="20" t="s">
         <v>343</v>
       </c>
       <c r="B384" s="6" t="s">
@@ -6388,18 +6436,18 @@
       </c>
     </row>
     <row r="385" spans="1:3" ht="21">
-      <c r="A385" s="23" t="s">
+      <c r="A385" s="21" t="s">
         <v>343</v>
       </c>
       <c r="B385" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C385" s="24" t="s">
+      <c r="C385" s="22" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="21">
-      <c r="A386" s="23" t="s">
+      <c r="A386" s="21" t="s">
         <v>343</v>
       </c>
       <c r="B386" s="6" t="s">
@@ -6410,10 +6458,10 @@
       </c>
     </row>
     <row r="387" spans="1:3" ht="21">
-      <c r="A387" s="26" t="s">
+      <c r="A387" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B387" s="6" t="s">
+      <c r="B387" s="62" t="s">
         <v>375</v>
       </c>
       <c r="C387" s="4" t="s">
@@ -6421,7 +6469,7 @@
       </c>
     </row>
     <row r="388" spans="1:3" ht="21">
-      <c r="A388" s="23" t="s">
+      <c r="A388" s="21" t="s">
         <v>343</v>
       </c>
       <c r="B388" s="6" t="s">
@@ -6432,7 +6480,7 @@
       </c>
     </row>
     <row r="389" spans="1:3" ht="21">
-      <c r="A389" s="23" t="s">
+      <c r="A389" s="21" t="s">
         <v>474</v>
       </c>
       <c r="B389" s="6" t="s">
@@ -6443,18 +6491,18 @@
       </c>
     </row>
     <row r="390" spans="1:3" ht="21">
-      <c r="A390" s="27" t="s">
+      <c r="A390" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="B390" s="29" t="s">
+      <c r="B390" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="C390" s="28" t="s">
+      <c r="C390" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="21">
-      <c r="A391" s="23" t="s">
+      <c r="A391" s="21" t="s">
         <v>343</v>
       </c>
       <c r="B391" s="6" t="s">
@@ -6465,10 +6513,10 @@
       </c>
     </row>
     <row r="392" spans="1:3" ht="21">
-      <c r="A392" s="26" t="s">
+      <c r="A392" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B392" s="6" t="s">
+      <c r="B392" s="62" t="s">
         <v>379</v>
       </c>
       <c r="C392" s="4" t="s">
@@ -6476,7 +6524,7 @@
       </c>
     </row>
     <row r="393" spans="1:3" ht="21">
-      <c r="A393" s="23" t="s">
+      <c r="A393" s="21" t="s">
         <v>474</v>
       </c>
       <c r="B393" s="6" t="s">
@@ -6487,7 +6535,7 @@
       </c>
     </row>
     <row r="394" spans="1:3" ht="21">
-      <c r="A394" s="23" t="s">
+      <c r="A394" s="21" t="s">
         <v>343</v>
       </c>
       <c r="B394" s="6" t="s">
@@ -6498,7 +6546,7 @@
       </c>
     </row>
     <row r="395" spans="1:3" ht="21">
-      <c r="A395" s="23" t="s">
+      <c r="A395" s="21" t="s">
         <v>343</v>
       </c>
       <c r="B395" s="6" t="s">
@@ -6509,7 +6557,7 @@
       </c>
     </row>
     <row r="396" spans="1:3" ht="21">
-      <c r="A396" s="23" t="s">
+      <c r="A396" s="21" t="s">
         <v>343</v>
       </c>
       <c r="B396" s="6" t="s">
@@ -6520,7 +6568,7 @@
       </c>
     </row>
     <row r="397" spans="1:3" ht="21">
-      <c r="A397" s="23" t="s">
+      <c r="A397" s="21" t="s">
         <v>343</v>
       </c>
       <c r="B397" s="6" t="s">
@@ -6534,7 +6582,7 @@
       <c r="A398" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="B398" s="6" t="s">
+      <c r="B398" s="62" t="s">
         <v>385</v>
       </c>
       <c r="C398" s="4" t="s">
@@ -6542,7 +6590,7 @@
       </c>
     </row>
     <row r="399" spans="1:3" ht="21">
-      <c r="A399" s="23" t="s">
+      <c r="A399" s="21" t="s">
         <v>343</v>
       </c>
       <c r="B399" s="6" t="s">
@@ -6561,7 +6609,7 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21">
-      <c r="A402" s="23" t="s">
+      <c r="A402" s="21" t="s">
         <v>387</v>
       </c>
       <c r="B402" s="6" t="s">
@@ -6572,7 +6620,7 @@
       </c>
     </row>
     <row r="403" spans="1:3" ht="21">
-      <c r="A403" s="23" t="s">
+      <c r="A403" s="21" t="s">
         <v>541</v>
       </c>
       <c r="B403" s="6" t="s">
@@ -6583,18 +6631,18 @@
       </c>
     </row>
     <row r="404" spans="1:3" ht="21">
-      <c r="A404" s="23" t="s">
+      <c r="A404" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="B404" s="53" t="s">
+      <c r="B404" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="C404" s="38" t="s">
+      <c r="C404" s="36" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="21">
-      <c r="A405" s="23" t="s">
+      <c r="A405" s="21" t="s">
         <v>541</v>
       </c>
       <c r="B405" s="6" t="s">
@@ -6605,7 +6653,7 @@
       </c>
     </row>
     <row r="406" spans="1:3" ht="21">
-      <c r="A406" s="23" t="s">
+      <c r="A406" s="21" t="s">
         <v>387</v>
       </c>
       <c r="B406" s="6" t="s">
@@ -6616,13 +6664,13 @@
       </c>
     </row>
     <row r="407" spans="1:3" ht="21">
-      <c r="A407" s="23" t="s">
+      <c r="A407" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="B407" s="6" t="s">
+      <c r="B407" s="62" t="s">
         <v>392</v>
       </c>
-      <c r="C407" s="38" t="s">
+      <c r="C407" s="36" t="s">
         <v>543</v>
       </c>
     </row>
@@ -6635,106 +6683,106 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21">
-      <c r="A410" s="17" t="s">
+      <c r="A410" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B410" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C410" s="4" t="s">
+      <c r="C410" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="21">
-      <c r="A411" s="17" t="s">
+      <c r="A411" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B411" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C411" s="4" t="s">
+      <c r="C411" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="21">
-      <c r="A412" s="17" t="s">
+      <c r="A412" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B412" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C412" s="4" t="s">
+      <c r="C412" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="21">
-      <c r="A413" s="17" t="s">
+      <c r="A413" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B413" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C413" s="4" t="s">
+      <c r="C413" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="21">
-      <c r="A414" s="17" t="s">
+      <c r="A414" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B414" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C414" s="4" t="s">
-        <v>4</v>
+      <c r="C414" s="63" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="21">
-      <c r="A415" s="17" t="s">
+      <c r="A415" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B415" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C415" s="4" t="s">
+      <c r="C415" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="21">
-      <c r="A416" s="17" t="s">
+      <c r="A416" s="16" t="s">
         <v>482</v>
       </c>
       <c r="B416" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C416" s="42">
+      <c r="C416" s="67">
         <v>69</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="21">
-      <c r="A417" s="17" t="s">
+      <c r="A417" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="B417" s="6" t="s">
+      <c r="B417" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="C417" s="4" t="s">
+      <c r="C417" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="21">
-      <c r="A418" s="30" t="s">
+      <c r="A418" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="B418" s="6" t="s">
+      <c r="B418" s="62" t="s">
         <v>401</v>
       </c>
-      <c r="C418" s="4" t="s">
+      <c r="C418" s="63" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="21">
-      <c r="A419" s="17" t="s">
+      <c r="A419" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B419" s="6" t="s">
@@ -6745,7 +6793,7 @@
       </c>
     </row>
     <row r="420" spans="1:3" ht="21">
-      <c r="A420" s="17" t="s">
+      <c r="A420" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B420" s="6" t="s">
@@ -6756,10 +6804,10 @@
       </c>
     </row>
     <row r="421" spans="1:3" ht="21">
-      <c r="A421" s="30" t="s">
+      <c r="A421" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="B421" s="6" t="s">
+      <c r="B421" s="62" t="s">
         <v>404</v>
       </c>
       <c r="C421" s="4" t="s">
@@ -6767,7 +6815,7 @@
       </c>
     </row>
     <row r="422" spans="1:3" ht="21">
-      <c r="A422" s="17" t="s">
+      <c r="A422" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B422" s="6" t="s">
@@ -6778,18 +6826,18 @@
       </c>
     </row>
     <row r="423" spans="1:3" ht="21">
-      <c r="A423" s="17" t="s">
+      <c r="A423" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="B423" s="6" t="s">
+      <c r="B423" s="62" t="s">
         <v>406</v>
       </c>
-      <c r="C423" s="42">
+      <c r="C423" s="67">
         <v>86</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="21">
-      <c r="A424" s="17" t="s">
+      <c r="A424" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B424" s="6" t="s">
@@ -6800,18 +6848,18 @@
       </c>
     </row>
     <row r="425" spans="1:3" ht="21">
-      <c r="A425" s="39" t="s">
+      <c r="A425" s="37" t="s">
         <v>393</v>
       </c>
-      <c r="B425" s="6" t="s">
+      <c r="B425" s="62" t="s">
         <v>408</v>
       </c>
-      <c r="C425" s="4" t="s">
+      <c r="C425" s="63" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="21">
-      <c r="A426" s="17" t="s">
+      <c r="A426" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B426" s="6" t="s">
@@ -6822,7 +6870,7 @@
       </c>
     </row>
     <row r="427" spans="1:3" ht="21">
-      <c r="A427" s="17" t="s">
+      <c r="A427" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B427" s="6" t="s">
@@ -6833,7 +6881,7 @@
       </c>
     </row>
     <row r="428" spans="1:3" ht="21">
-      <c r="A428" s="17" t="s">
+      <c r="A428" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B428" s="6" t="s">
@@ -6844,7 +6892,7 @@
       </c>
     </row>
     <row r="429" spans="1:3" ht="21">
-      <c r="A429" s="17" t="s">
+      <c r="A429" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B429" s="6" t="s">
@@ -6855,7 +6903,7 @@
       </c>
     </row>
     <row r="430" spans="1:3" ht="21">
-      <c r="A430" s="17" t="s">
+      <c r="A430" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B430" s="6" t="s">
@@ -6866,40 +6914,40 @@
       </c>
     </row>
     <row r="431" spans="1:3" ht="21">
-      <c r="A431" s="16" t="s">
+      <c r="A431" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="B431" s="6" t="s">
+      <c r="B431" s="62" t="s">
         <v>414</v>
       </c>
-      <c r="C431" s="4" t="s">
+      <c r="C431" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="21">
-      <c r="A432" s="39" t="s">
+      <c r="A432" s="37" t="s">
         <v>393</v>
       </c>
-      <c r="B432" s="6" t="s">
+      <c r="B432" s="62" t="s">
         <v>415</v>
       </c>
-      <c r="C432" s="4" t="s">
+      <c r="C432" s="63" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="21">
-      <c r="A433" s="17" t="s">
+      <c r="A433" s="16" t="s">
         <v>482</v>
       </c>
       <c r="B433" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C433" s="42" t="s">
+      <c r="C433" s="40" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="21">
-      <c r="A434" s="17" t="s">
+      <c r="A434" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B434" s="6" t="s">
@@ -6910,18 +6958,18 @@
       </c>
     </row>
     <row r="435" spans="1:3" ht="21">
-      <c r="A435" s="17" t="s">
+      <c r="A435" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B435" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C435" s="4" t="s">
+      <c r="C435" s="63" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="21">
-      <c r="A436" s="17" t="s">
+      <c r="A436" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B436" s="6" t="s">
@@ -6932,18 +6980,18 @@
       </c>
     </row>
     <row r="437" spans="1:3" ht="21">
-      <c r="A437" s="17" t="s">
+      <c r="A437" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B437" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C437" s="4" t="s">
+      <c r="C437" s="63" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="21">
-      <c r="A438" s="17" t="s">
+      <c r="A438" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B438" s="6" t="s">
@@ -6954,18 +7002,18 @@
       </c>
     </row>
     <row r="439" spans="1:3" ht="21">
-      <c r="A439" s="16" t="s">
+      <c r="A439" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="B439" s="6" t="s">
+      <c r="B439" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="C439" s="4" t="s">
+      <c r="C439" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="21">
-      <c r="A440" s="17" t="s">
+      <c r="A440" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B440" s="6" t="s">
@@ -6976,18 +7024,18 @@
       </c>
     </row>
     <row r="441" spans="1:3" ht="21">
-      <c r="A441" s="17" t="s">
+      <c r="A441" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="B441" s="6" t="s">
+      <c r="B441" s="62" t="s">
         <v>424</v>
       </c>
-      <c r="C441" s="4" t="s">
+      <c r="C441" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="21">
-      <c r="A442" s="17" t="s">
+      <c r="A442" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B442" s="6" t="s">
@@ -6998,7 +7046,7 @@
       </c>
     </row>
     <row r="443" spans="1:3" ht="21">
-      <c r="A443" s="17" t="s">
+      <c r="A443" s="16" t="s">
         <v>482</v>
       </c>
       <c r="B443" s="6" t="s">
@@ -7009,7 +7057,7 @@
       </c>
     </row>
     <row r="444" spans="1:3" ht="21">
-      <c r="A444" s="17" t="s">
+      <c r="A444" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B444" s="6" t="s">
@@ -7020,40 +7068,40 @@
       </c>
     </row>
     <row r="445" spans="1:3" ht="21">
-      <c r="A445" s="17" t="s">
+      <c r="A445" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B445" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C445" s="31" t="s">
+      <c r="C445" s="29" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="21">
-      <c r="A446" s="17" t="s">
+      <c r="A446" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="B446" s="6" t="s">
+      <c r="B446" s="62" t="s">
         <v>429</v>
       </c>
-      <c r="C446" s="4" t="s">
+      <c r="C446" s="63" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="21">
-      <c r="A447" s="17" t="s">
+      <c r="A447" s="16" t="s">
         <v>482</v>
       </c>
       <c r="B447" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C447" s="4" t="s">
+      <c r="C447" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="21">
-      <c r="A448" s="17" t="s">
+      <c r="A448" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B448" s="6" t="s">
@@ -7064,18 +7112,18 @@
       </c>
     </row>
     <row r="449" spans="1:3" ht="21">
-      <c r="A449" s="17" t="s">
+      <c r="A449" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B449" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C449" s="31" t="s">
+      <c r="C449" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="21">
-      <c r="A450" s="17" t="s">
+      <c r="A450" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B450" s="6" t="s">
@@ -7086,51 +7134,51 @@
       </c>
     </row>
     <row r="451" spans="1:3" ht="21">
-      <c r="A451" s="16" t="s">
+      <c r="A451" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B451" s="6" t="s">
+      <c r="B451" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="C451" s="42">
+      <c r="C451" s="67">
         <v>77</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="21">
-      <c r="A452" s="16" t="s">
+      <c r="A452" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B452" s="6" t="s">
+      <c r="B452" s="62" t="s">
         <v>435</v>
       </c>
-      <c r="C452" s="4" t="s">
+      <c r="C452" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="21">
-      <c r="A453" s="16" t="s">
+      <c r="A453" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B453" s="6" t="s">
+      <c r="B453" s="62" t="s">
         <v>436</v>
       </c>
-      <c r="C453" s="4" t="s">
+      <c r="C453" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="21">
-      <c r="A454" s="16" t="s">
+      <c r="A454" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B454" s="6" t="s">
+      <c r="B454" s="62" t="s">
         <v>437</v>
       </c>
-      <c r="C454" s="4" t="s">
+      <c r="C454" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="21">
-      <c r="A455" s="17" t="s">
+      <c r="A455" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B455" s="6" t="s">
@@ -7141,29 +7189,29 @@
       </c>
     </row>
     <row r="456" spans="1:3" ht="21">
-      <c r="A456" s="16" t="s">
+      <c r="A456" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B456" s="6" t="s">
+      <c r="B456" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="C456" s="4" t="s">
+      <c r="C456" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="21">
-      <c r="A457" s="39" t="s">
+      <c r="A457" s="37" t="s">
         <v>393</v>
       </c>
-      <c r="B457" s="6" t="s">
+      <c r="B457" s="62" t="s">
         <v>440</v>
       </c>
-      <c r="C457" s="4" t="s">
+      <c r="C457" s="63" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="21">
-      <c r="A458" s="17" t="s">
+      <c r="A458" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B458" s="6" t="s">
@@ -7174,18 +7222,18 @@
       </c>
     </row>
     <row r="459" spans="1:3" ht="21">
-      <c r="A459" s="17" t="s">
+      <c r="A459" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B459" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C459" s="4" t="s">
+      <c r="C459" s="63" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="21">
-      <c r="A460" s="17" t="s">
+      <c r="A460" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B460" s="6" t="s">
@@ -7196,18 +7244,18 @@
       </c>
     </row>
     <row r="461" spans="1:3" ht="21">
-      <c r="A461" s="17" t="s">
+      <c r="A461" s="16" t="s">
         <v>482</v>
       </c>
       <c r="B461" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C461" s="42">
+      <c r="C461" s="67">
         <v>68</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="21">
-      <c r="A462" s="17" t="s">
+      <c r="A462" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B462" s="6" t="s">
@@ -7218,7 +7266,7 @@
       </c>
     </row>
     <row r="463" spans="1:3" ht="21">
-      <c r="A463" s="17" t="s">
+      <c r="A463" s="16" t="s">
         <v>482</v>
       </c>
       <c r="B463" s="6" t="s">
@@ -7229,18 +7277,18 @@
       </c>
     </row>
     <row r="464" spans="1:3" ht="21">
-      <c r="A464" s="17" t="s">
+      <c r="A464" s="16" t="s">
         <v>482</v>
       </c>
       <c r="B464" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C464" s="4" t="s">
+      <c r="C464" s="63" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="21">
-      <c r="A465" s="17" t="s">
+      <c r="A465" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B465" s="6" t="s">
@@ -7251,29 +7299,29 @@
       </c>
     </row>
     <row r="466" spans="1:3" ht="21">
-      <c r="A466" s="39" t="s">
+      <c r="A466" s="37" t="s">
         <v>393</v>
       </c>
-      <c r="B466" s="6" t="s">
+      <c r="B466" s="62" t="s">
         <v>449</v>
       </c>
-      <c r="C466" s="4" t="s">
+      <c r="C466" s="63" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="21">
-      <c r="A467" s="39" t="s">
+      <c r="A467" s="37" t="s">
         <v>482</v>
       </c>
-      <c r="B467" s="6" t="s">
+      <c r="B467" s="62" t="s">
         <v>450</v>
       </c>
-      <c r="C467" s="4" t="s">
+      <c r="C467" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="21">
-      <c r="A468" s="17" t="s">
+      <c r="A468" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B468" s="6" t="s">
@@ -7284,13 +7332,13 @@
       </c>
     </row>
     <row r="469" spans="1:3" ht="21">
-      <c r="A469" s="17" t="s">
+      <c r="A469" s="16" t="s">
         <v>482</v>
       </c>
       <c r="B469" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C469" s="42" t="s">
+      <c r="C469" s="40" t="s">
         <v>516</v>
       </c>
     </row>
@@ -7304,7 +7352,7 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21">
-      <c r="A472" s="17" t="s">
+      <c r="A472" s="16" t="s">
         <v>539</v>
       </c>
       <c r="B472" s="6" t="s">
@@ -7315,7 +7363,7 @@
       </c>
     </row>
     <row r="473" spans="1:3" ht="21">
-      <c r="A473" s="17" t="s">
+      <c r="A473" s="16" t="s">
         <v>539</v>
       </c>
       <c r="B473" s="6" t="s">
@@ -7326,7 +7374,7 @@
       </c>
     </row>
     <row r="474" spans="1:3" ht="21">
-      <c r="A474" s="17" t="s">
+      <c r="A474" s="16" t="s">
         <v>453</v>
       </c>
       <c r="B474" s="6" t="s">
@@ -7337,18 +7385,18 @@
       </c>
     </row>
     <row r="475" spans="1:3" ht="21">
-      <c r="A475" s="16" t="s">
+      <c r="A475" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="B475" s="6" t="s">
+      <c r="B475" s="62" t="s">
         <v>457</v>
       </c>
-      <c r="C475" s="4" t="s">
+      <c r="C475" s="63" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="21">
-      <c r="A476" s="17" t="s">
+      <c r="A476" s="16" t="s">
         <v>539</v>
       </c>
       <c r="B476" s="6" t="s">
@@ -7359,7 +7407,7 @@
       </c>
     </row>
     <row r="477" spans="1:3" ht="21">
-      <c r="A477" s="17" t="s">
+      <c r="A477" s="16" t="s">
         <v>453</v>
       </c>
       <c r="B477" s="6" t="s">
@@ -7370,7 +7418,7 @@
       </c>
     </row>
     <row r="478" spans="1:3" ht="21">
-      <c r="A478" s="17" t="s">
+      <c r="A478" s="16" t="s">
         <v>539</v>
       </c>
       <c r="B478" s="6" t="s">
@@ -7381,7 +7429,7 @@
       </c>
     </row>
     <row r="479" spans="1:3" ht="21">
-      <c r="A479" s="17" t="s">
+      <c r="A479" s="16" t="s">
         <v>539</v>
       </c>
       <c r="B479" s="6" t="s">
@@ -7392,7 +7440,7 @@
       </c>
     </row>
     <row r="480" spans="1:3" ht="21">
-      <c r="A480" s="17" t="s">
+      <c r="A480" s="16" t="s">
         <v>539</v>
       </c>
       <c r="B480" s="6" t="s">
@@ -7403,7 +7451,7 @@
       </c>
     </row>
     <row r="481" spans="1:3" ht="21">
-      <c r="A481" s="17" t="s">
+      <c r="A481" s="16" t="s">
         <v>539</v>
       </c>
       <c r="B481" s="6" t="s">
@@ -7414,189 +7462,189 @@
       </c>
     </row>
     <row r="484" spans="1:3" ht="21">
-      <c r="A484" s="23" t="s">
+      <c r="A484" s="21" t="s">
         <v>495</v>
       </c>
       <c r="B484" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C484" s="38" t="s">
+      <c r="C484" s="36" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="21">
-      <c r="A485" s="23" t="s">
+      <c r="A485" s="21" t="s">
         <v>495</v>
       </c>
       <c r="B485" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="C485" s="38" t="s">
+      <c r="C485" s="36" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="21.6" thickBot="1">
-      <c r="A486" s="23" t="s">
+      <c r="A486" s="21" t="s">
         <v>495</v>
       </c>
       <c r="B486" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C486" s="38" t="s">
+      <c r="C486" s="36" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="21.6" thickBot="1">
-      <c r="A487" s="23" t="s">
+      <c r="A487" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B487" s="32" t="s">
+      <c r="B487" s="30" t="s">
         <v>500</v>
       </c>
-      <c r="C487" s="33" t="s">
+      <c r="C487" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="21.6" thickBot="1">
-      <c r="A488" s="23" t="s">
+      <c r="A488" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B488" s="32" t="s">
+      <c r="B488" s="30" t="s">
         <v>501</v>
       </c>
-      <c r="C488" s="33" t="s">
+      <c r="C488" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="21.6" thickBot="1">
-      <c r="A489" s="23" t="s">
+      <c r="A489" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="B489" s="32" t="s">
+      <c r="B489" s="30" t="s">
         <v>502</v>
       </c>
-      <c r="C489" s="33" t="s">
+      <c r="C489" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="21.6" thickBot="1">
-      <c r="A490" s="23" t="s">
+      <c r="A490" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="B490" s="32" t="s">
+      <c r="B490" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="C490" s="33" t="s">
+      <c r="C490" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="21.6" thickBot="1">
-      <c r="A491" s="36" t="s">
+      <c r="A491" s="34" t="s">
         <v>499</v>
       </c>
-      <c r="B491" s="32" t="s">
+      <c r="B491" s="30" t="s">
         <v>503</v>
       </c>
-      <c r="C491" s="33">
+      <c r="C491" s="31">
         <v>44</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="21.6" thickBot="1">
-      <c r="A492" s="37" t="s">
+      <c r="A492" s="35" t="s">
         <v>499</v>
       </c>
-      <c r="B492" s="32" t="s">
+      <c r="B492" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="C492" s="41" t="s">
+      <c r="C492" s="39" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="21.6" thickBot="1">
-      <c r="A493" s="36" t="s">
+      <c r="A493" s="34" t="s">
         <v>499</v>
       </c>
-      <c r="B493" s="32" t="s">
+      <c r="B493" s="30" t="s">
         <v>505</v>
       </c>
-      <c r="C493" s="33" t="s">
+      <c r="C493" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="21.6" thickBot="1">
-      <c r="A494" s="23" t="s">
+      <c r="A494" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="B494" s="32" t="s">
+      <c r="B494" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="C494" s="33">
+      <c r="C494" s="31">
         <v>34</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="21">
-      <c r="A495" s="25" t="s">
+      <c r="A495" s="23" t="s">
         <v>499</v>
       </c>
-      <c r="B495" s="40" t="s">
+      <c r="B495" s="38" t="s">
         <v>513</v>
       </c>
-      <c r="C495" s="33" t="s">
+      <c r="C495" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="21">
-      <c r="A496" s="23" t="s">
+      <c r="A496" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B496" s="40" t="s">
+      <c r="B496" s="38" t="s">
         <v>514</v>
       </c>
-      <c r="C496" s="33" t="s">
+      <c r="C496" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="21">
-      <c r="A497" s="23" t="s">
+      <c r="A497" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="B497" s="40" t="s">
+      <c r="B497" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="C497" s="33" t="s">
+      <c r="C497" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="21">
-      <c r="A498" s="23" t="s">
+      <c r="A498" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="B498" s="40" t="s">
+      <c r="B498" s="38" t="s">
         <v>523</v>
       </c>
-      <c r="C498" s="33" t="s">
+      <c r="C498" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="21">
-      <c r="A499" s="45" t="s">
+      <c r="A499" s="43" t="s">
         <v>524</v>
       </c>
-      <c r="B499" s="40" t="s">
+      <c r="B499" s="38" t="s">
         <v>529</v>
       </c>
-      <c r="C499" s="33" t="s">
+      <c r="C499" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="21">
-      <c r="A500" s="45" t="s">
+      <c r="A500" s="43" t="s">
         <v>524</v>
       </c>
       <c r="B500" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="C500" s="33" t="s">
+      <c r="C500" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7607,18 +7655,18 @@
       <c r="B501" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C501" s="33" t="s">
+      <c r="C501" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="21">
-      <c r="A502" s="34" t="s">
+      <c r="A502" s="32" t="s">
         <v>495</v>
       </c>
       <c r="B502" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="C502" s="35" t="s">
+      <c r="C502" s="33" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7629,7 +7677,7 @@
       <c r="B503" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="C503" s="35" t="s">
+      <c r="C503" s="33" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7640,18 +7688,18 @@
       <c r="B504" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="C504" s="35" t="s">
+      <c r="C504" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="21">
-      <c r="A505" s="58" t="s">
+      <c r="A505" s="56" t="s">
         <v>453</v>
       </c>
       <c r="B505" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="C505" s="59" t="s">
+      <c r="C505" s="57" t="s">
         <v>549</v>
       </c>
     </row>
